--- a/data/hotels_by_city/Dallas/Dallas_shard_135.xlsx
+++ b/data/hotels_by_city/Dallas/Dallas_shard_135.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="795">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="888">
   <si>
     <t>STR#</t>
   </si>
@@ -150,6 +150,9 @@
     <t>response_text</t>
   </si>
   <si>
+    <t>TheRoadTripsNeverEnd</t>
+  </si>
+  <si>
     <t>06/07/2018</t>
   </si>
   <si>
@@ -189,6 +192,9 @@
     <t>Overall okay but nothing special. Check-in did not mention free internet/shuttle but otherwise okay. No brochure in room of bistro hours or anything at hotel. No sign at bistro what hours were  Most front desk staff very responsive as well as shuttle staff. Bistro mostly quick. Room satisfactory. Would stay again but might explore other hotels.More</t>
   </si>
   <si>
+    <t>Kathy S</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g56463-d106480-r581083106-Courtyard_by_Marriott_Dallas_Plano_in_Legacy_Park-Plano_Texas.html</t>
   </si>
   <si>
@@ -204,6 +210,9 @@
     <t>AC actually worked well. Nice and clean, great small bar for evening hangout with coworkers. Loved singing for extra points and extra points for declining housekeeping! All staff were super friendly and courteous. Bed was comfy!</t>
   </si>
   <si>
+    <t>Stumpy18688</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g56463-d106480-r573345412-Courtyard_by_Marriott_Dallas_Plano_in_Legacy_Park-Plano_Texas.html</t>
   </si>
   <si>
@@ -232,6 +241,9 @@
   </si>
   <si>
     <t>Stayed here for work for 2 weeks. Location is close to a hip eating district with 60plus restaurants, also short uber ride to a number of shopping centres. Hotel has good facilities including pool, spa and gym. Decor is a bit dated, but linen is new and bed was comfy. Staff are helpful with places to go, restaurant recommendations and local information. More</t>
+  </si>
+  <si>
+    <t>Sara M</t>
   </si>
   <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g56463-d106480-r569933926-Courtyard_by_Marriott_Dallas_Plano_in_Legacy_Park-Plano_Texas.html</t>
@@ -274,6 +286,9 @@
 Continuation of poor customer service, I was also not told anything about other important stuff like pool, fitness center, business center, shuttle service, laundry room, WiFi, checkout time, etc., but nothing was told...I stayed here a while ago and totally forgot to upload my review. Overall, my experience was not good and that is why I am writing this now so that others know what to expect.It was my first time experience with Marriott and this hotel and like I said,  not good at all!When I did my booking, I put a request to accommodate microwave under special request section. Rooms at this hotel do not come with microwave but I really wanted it because I was travelling with a minor. I never had any issues getting one as long as I requested well in advance which I also did in this case.Upon my arrival, I was checked-in by a short, Asian looking lady with glasses without any name tag.It was pretty much clear that she/hotel did not pay any attention to my special request as I was simply handed over the room key without mentioning anything about the microwave. She didn't even bother to tell me how to get to my room! When I inquire about the microwave only then I was told that it was not accommodated. What is the point of putting any request if hotel/staff don't even pay attention to it?Continuation of poor customer service, I was also not told anything about other important stuff like pool, fitness center, business center, shuttle service, laundry room, WiFi, checkout time, etc., but nothing was told until I asked for each of them. Reaching my room I immediately smelled something rotting. Turned out it was the sweat smell coming out from half of the pillows inside the room. I guess pillow covers were never replaced or washed for a long time. This was really surprising and unexpected specially from Marriott. Since I was too tired, I took the dirty and smelly covers out of the pillow, put it on the floor, and just slept with whatever was available. Next day, along with the dirty covers I put used towels and put a note for room service to have them replaced. However, I was shocked when I came back and saw neither covers nor towels were replaced!Things got even more interesting when I filed a complaint with the corporate and I got a response from, Brookelyn Rice, which shows her as assistant general manager for this property. Her first offer for all the inconveniences was 2,000 Marriott rewards points. Without confirming whether I was a member or not, how can she offer such low points so blindly? My response to her was that I am not interested in any points. Also, I don't even know what good these points are for as she had not bothered to...More</t>
   </si>
   <si>
+    <t>swisetravel</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g56463-d106480-r555899873-Courtyard_by_Marriott_Dallas_Plano_in_Legacy_Park-Plano_Texas.html</t>
   </si>
   <si>
@@ -301,6 +316,9 @@
     <t>Great place to stay, easy to get to and near so many places. Lillian the event specialist was very personable and accommodating. Treated all with respect and kindness. Lucinda the General Manager is the best too. Took notes on everyone’s needs and make sure they were met!  In a business where people can expect too much, it is great to see this team provide such great customer service. Thank you!More</t>
   </si>
   <si>
+    <t>PJT99</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g56463-d106480-r555394760-Courtyard_by_Marriott_Dallas_Plano_in_Legacy_Park-Plano_Texas.html</t>
   </si>
   <si>
@@ -325,6 +343,9 @@
     <t>In a developing area, so apart from the other Marriott brand hotels in the immediate area you have to drive to restaurants etc (some look like they are due to open soon).Hotel is the modern take on Courtyard so expect the usual features.The rooms are spacious though and beds very comfortable.One downside is that there is a train track running right by the East side of the hotel - not realising this, when a train went by the noise was loud etc. There are not many trains, but it is a shock when the train whistle blows right outside your room!More</t>
   </si>
   <si>
+    <t>annkappel</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g56463-d106480-r554821623-Courtyard_by_Marriott_Dallas_Plano_in_Legacy_Park-Plano_Texas.html</t>
   </si>
   <si>
@@ -349,6 +370,9 @@
     <t>I recently hosted a one day conference at the Court Marriott in Legacy Park. I only have great things to share. The event coordinator Lilian was on point and responsive every step of the way. Her service was impeccable, she was so patient and polite throughout the entire process up to the end of the conference. The say at the hotel for the weekend was good, the food for the event was good the layout was just what we wanted. All the staff I dealt with over the weekend of my stay were courteous. I want to say thank you and would refer this hotel for other events as well as use them for future events.Dr. KMore</t>
   </si>
   <si>
+    <t>Jo A</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g56463-d106480-r551037808-Courtyard_by_Marriott_Dallas_Plano_in_Legacy_Park-Plano_Texas.html</t>
   </si>
   <si>
@@ -376,6 +400,9 @@
     <t>First the hotel was clean and a good  standard Courtyard Marriott,  front desk were very friendly and welcoming. The room was large and comfortable but  standard Courtyard layout. The biggest issue was the total and utter disorganization at breakfast. Staff were poorly trained, total lack of knowledge about what they were doing, for the 4 nights I stayed there it was the same every morning,  lines wrappend round reception , every morning they ran out of half the items, I was in reception at 6.45am each day so it wasn't a case of me arriving at the last minute. The really need to ensure that the team are trained on their menu , this will cut down on wait time and frustration for guestsMore</t>
   </si>
   <si>
+    <t>tm0f844</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g56463-d106480-r549609145-Courtyard_by_Marriott_Dallas_Plano_in_Legacy_Park-Plano_Texas.html</t>
   </si>
   <si>
@@ -403,6 +430,9 @@
     <t>My wife and I stayed here on a Saturday while in Plano. The hotel is clean and the staff was great. I am a Marriot rewards member and have stayed at several Marriot brand hotels. I will say that the staff here were some of the best. The hotel also provided a very reasonable rate. I will definitely stay here again. More</t>
   </si>
   <si>
+    <t>wclover</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g56463-d106480-r547886352-Courtyard_by_Marriott_Dallas_Plano_in_Legacy_Park-Plano_Texas.html</t>
   </si>
   <si>
@@ -427,6 +457,9 @@
     <t>I found really cheap price for 2 night stays on Marriott website, no complain about stay - everything went well.  Great staff at check-in / reception, want to give shout-out to Manager Maurice for accommodating special request. Will definitely stay here again!More</t>
   </si>
   <si>
+    <t>Craigh-KRPH</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g56463-d106480-r544643179-Courtyard_by_Marriott_Dallas_Plano_in_Legacy_Park-Plano_Texas.html</t>
   </si>
   <si>
@@ -449,6 +482,9 @@
   </si>
   <si>
     <t>Just made a quick late arrival / early departure for a soccer tournament.   Rooms were clean, quiet, comfy and the rate they gave us was exceptional.   Convenient location as well.Only complaint is that they no longer offer a free breakfast (other than what was provided for the soccer clubs).More</t>
+  </si>
+  <si>
+    <t>Stepperguy</t>
   </si>
   <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g56463-d106480-r536238186-Courtyard_by_Marriott_Dallas_Plano_in_Legacy_Park-Plano_Texas.html</t>
@@ -484,6 +520,9 @@
 That evening I went shopping nearby and ate dinner.  There is so much to choose from within close proximity of the hotel.  It is a great location.  Upon my return, I watched TV with plenty of channels to choose from.  The next morning I ate breakfast in the hotel at the Bistro.  My...My stay was on a Saturday in early October to attend the CAF airshow.  I have stayed here many times over the years and it is normally a good stay.  I remember years ago staying there during the Holiday season when the area was in its infancy.  The area was not developed yet but there were a few shops close by and one could walk around on the snow covered walks like a postcard scene.  But, this stay was the BEST EVER!I was very tired when I arrived. Caroline, the front desk associate, is the nicest lady I have ever met.  She made sure my room was ready in no time.  Also, she helped me with printing my airshow tickets on her pc after I could not do so on the guest computers in the lobby.  My room was clean, in a great location, and plenty of peace and quiet.  I changed and went to the pool.  Though the water was slightly cool it was so relaxing.  A jump into the hot tub for a few minutes and then off to the shower and a nap.  That evening I went shopping nearby and ate dinner.  There is so much to choose from within close proximity of the hotel.  It is a great location.  Upon my return, I watched TV with plenty of channels to choose from.  The next morning I ate breakfast in the hotel at the Bistro.  My over-medium eggs were perfect, the bacon was awesome, the potatoes were crisp, and my toast was toasted to perfection!  To top it all off I had the best cup of Starbucks coffee I quite possibly have ever had...Pumpkin Spice course!  I complimented the chef and told him that it all was just perfect.  When I checked out, Caroline was back at work, and once again she treated me in the same sweet manner as the day before.  As I said, I have stayed here many times over the years starting shortly after the Courtyard was first built.  Thanks to Caroline and the rest of the staff, from now on the Courtyard in Plano at Legacy Park will be my first choice when I stay in the Plano-Frisco-North Dallas area.  Thank you all!More</t>
   </si>
   <si>
+    <t>sherrymccaskill</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g56463-d106480-r536150653-Courtyard_by_Marriott_Dallas_Plano_in_Legacy_Park-Plano_Texas.html</t>
   </si>
   <si>
@@ -502,6 +541,9 @@
     <t>My teams and I stay at this Marriott several times per year for business and they never fail me. They are accommodating, pleasant, and always provides outstanding service.  My coordinator Lillian is amazing and ensures we are always taken care of.More</t>
   </si>
   <si>
+    <t>M P</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g56463-d106480-r534180329-Courtyard_by_Marriott_Dallas_Plano_in_Legacy_Park-Plano_Texas.html</t>
   </si>
   <si>
@@ -526,6 +568,9 @@
     <t>The wife and I have stayed in many Marriott hotels and dozens of others through the years.  This one was by far the quietest we have ever experienced.  It was simply remarkable.  Even floor above us was unusually quiet even with soccer teams staying in the hotel the same weekend.  We were delighted since we were attending a nearby conference and wanted the rest each night.More</t>
   </si>
   <si>
+    <t>macomber</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g56463-d106480-r532806988-Courtyard_by_Marriott_Dallas_Plano_in_Legacy_Park-Plano_Texas.html</t>
   </si>
   <si>
@@ -550,6 +595,9 @@
     <t>We stayed here 4 nights to visit with son who lives in Plano and go to Dallas cowboys game. The hotel was very nice. Room was clean and decorated beautiful.  Bed was comfortable.  Sliding door to courtyard was difficult and noisy to open. We wish they would of had more breakfast food options.  It was very expensive.  Overall it was a great stay.More</t>
   </si>
   <si>
+    <t>Trip M</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g56463-d106480-r519812474-Courtyard_by_Marriott_Dallas_Plano_in_Legacy_Park-Plano_Texas.html</t>
   </si>
   <si>
@@ -577,6 +625,9 @@
     <t>Another comfortable Marriott Courtyard property.  The room was clean.  The facility is well maintained.  The hotel is on the access road off the toll road.  It is kind of hard to find as the area is not well lit at night.  I will be back as it is near our company headquarters.More</t>
   </si>
   <si>
+    <t>Bernardo T</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g56463-d106480-r511888441-Courtyard_by_Marriott_Dallas_Plano_in_Legacy_Park-Plano_Texas.html</t>
   </si>
   <si>
@@ -601,6 +652,9 @@
     <t>The building vibrates every hour or so, its really uncomfortable. The staff is good. There are a lot of water noise. The AC doesn't work properly. The bed is uncomfortable. I won't stay in this hotel again.More</t>
   </si>
   <si>
+    <t>Ashley S</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g56463-d106480-r499261899-Courtyard_by_Marriott_Dallas_Plano_in_Legacy_Park-Plano_Texas.html</t>
   </si>
   <si>
@@ -628,6 +682,9 @@
     <t>I appreciate the service however this property seemed to need some help.. appeared to be short staffed. Had multiple issues. (modly smell near a/c unit, locks for pool/hottub did not work, rarely had pool towels, door in our room to courtyard was very hard to open and close, etc. Positive: Housekeeping attendants were very friendly.More</t>
   </si>
   <si>
+    <t>Portia1972</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g56463-d106480-r493976792-Courtyard_by_Marriott_Dallas_Plano_in_Legacy_Park-Plano_Texas.html</t>
   </si>
   <si>
@@ -655,6 +712,9 @@
     <t>I stayed here the one night and it was a very comfortable stay. Staff are friendly and courteous. The room and facilities are clean and everything worked well. I had breakfast here and it's ok. Good value for money More</t>
   </si>
   <si>
+    <t>cfir</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g56463-d106480-r492258813-Courtyard_by_Marriott_Dallas_Plano_in_Legacy_Park-Plano_Texas.html</t>
   </si>
   <si>
@@ -682,6 +742,9 @@
     <t>Stayed here for Jimmy Buffet concert 6/10/17Closest one open when I checked , plus had free points for two nights!!It was good, clean rooms.Great staff, forgot to get the lady's name at front desk, but she was fantastic!!No restaurants with in walking distance or close, maybe three miles away driving.They do have a shuttle during the week, but not weekends, disappointing for no ride to concert.Did not try the food.Pool looked goodQuiet No real views, but not much to see in Plano except buildings.Overall great!!!  Would go back  More</t>
   </si>
   <si>
+    <t>Dr Patricia D</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g56463-d106480-r474574299-Courtyard_by_Marriott_Dallas_Plano_in_Legacy_Park-Plano_Texas.html</t>
   </si>
   <si>
@@ -707,6 +770,9 @@
   </si>
   <si>
     <t>Cute and quaint, just like I like it. Horrible service. Very noisy if facing the highway. Nice set up and room arrangement. Beautiful bathroom, BUT it was Not clean. Most uncomfy beds, and just a noisy building and settling noises in the hallway all night. The room had pipe noises and very unsettling sounds all night and during the Morning. Could not even enjoy my late checkout. Building was just to noisy. I like Courtyard, but this will Not be by my 4th or last choice. I simply did Not get a Good Nights sleep in that horrible bed. Or with all the un nerving sounds. I will Not go back again.More</t>
+  </si>
+  <si>
+    <t>Austex-D</t>
   </si>
   <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g56463-d106480-r471961758-Courtyard_by_Marriott_Dallas_Plano_in_Legacy_Park-Plano_Texas.html</t>
@@ -742,6 +808,9 @@
 After waiting for 30 minutes, still no...Customer Service is HORRIBLE. I travel a lot and have to deal with the hassles of getting receipts and submitting them for expense reports. I did not receive my receipt under my door in the morning which is typical.  No problem, I thought I will just get it at the front desk.  "Sorry, we are out of printer ink. We cannot print a receipt for you." Well, that seems pretty bad for a hotel, but, no problem, I think to myself. Please just email the receipt to me. I give the front desk clerk my new email address (they had my old one) and leave.The next day (a Saturday morning) as I sit down to knock out a bunch of expense reports so I can get on with my weekend. Guess what - no emailed receipt.   So, I call the hotel. "Oops we are sorry we sent it to your old email." So I give them the new email again. As I am waiting for this one receipt to arrive so I can finish my work and get on with my weekend, I dig out my old email account and see if the receipt has in fact been sent to the old account. You guessed it, there was no receipt there either. I thought is was strange it didn't show up since I have all my email forwarding to my new account.After waiting for 30 minutes, still no receipt. I call the hotel again. "Oops we have not sent it yet." I explain that I am trying to finish up my expense reports and this is the last receipt so I can submit everything and get on with my weekend. So, could they please send it over now. As of right now - 40 minutes later - I have still not gotten the receipt.The silver lining in this horrible customer service experience is it has given me time to submit this review advising people to stay away from this badly managed hotel.More</t>
   </si>
   <si>
+    <t>EdmondOKBeachLover</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g56463-d106480-r467941294-Courtyard_by_Marriott_Dallas_Plano_in_Legacy_Park-Plano_Texas.html</t>
   </si>
   <si>
@@ -766,6 +835,9 @@
     <t>We have stayed here multiple times while visiting Plano.  We love the location and price as it is directly off the Dallas N tollway and convenient to all the restaurants and shops in the area.  The hotel is clean and the staff is friendly. They have a good workout facility for a courtyard and the pool always seems clean and well maintained.  They offer a free shuttle to the shops of Legacy and all the restaurants which is a place.  However, on a nice weekend it is a great, short walk.More</t>
   </si>
   <si>
+    <t>johnwesleyharden</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g56463-d106480-r466358359-Courtyard_by_Marriott_Dallas_Plano_in_Legacy_Park-Plano_Texas.html</t>
   </si>
   <si>
@@ -790,6 +862,9 @@
     <t>Receptions personel excellent!  Everything else highly mediocre. I judge a hotel by its coffee,  quantity,  and packets of condiments. ( Sugar, creme )  This facility failed in this regard. One single serving of coffee, and two sugars, could you spare it?  Seriously,  I spent three nights there,  and the single serving was standard. Rooms are old, noisy and really spaced out. Forgot to mention they sell Starbucks coffee in lobby, maybe that's why coffee is rationed. You can find a lot better, and less expensive! More</t>
   </si>
   <si>
+    <t>Kevin H</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g56463-d106480-r465562013-Courtyard_by_Marriott_Dallas_Plano_in_Legacy_Park-Plano_Texas.html</t>
   </si>
   <si>
@@ -814,6 +889,9 @@
     <t>For starters I really like this Hotel. I just found one person, at the front desk who lacked Customer Service skills.I still recommend this hotel. The service in the restaurant was great. Housekeeping was awesome. I just had a not so pleasant experience.More</t>
   </si>
   <si>
+    <t>lovelulu66</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g56463-d106480-r462733651-Courtyard_by_Marriott_Dallas_Plano_in_Legacy_Park-Plano_Texas.html</t>
   </si>
   <si>
@@ -913,6 +991,9 @@
     <t>I travel extensively for work and stay are Marriott's frequently. This is an older dated hotel that does not live up to the typical Marriott, more like a Ramada inn. The only redeeming quality is that they are walking distance to the Legacy shops. This is by far the noisiest hotel ever. You can hear every door shut, people talking in the hall like they are in your room.  If you have a room towards the highway the traffic is very loud from about 530-6AM on. If you have to stay, shoot for a pool side room towards the back. Make sure you are not near the housekeeping closet or you'll hear them talking early in the morning.More</t>
   </si>
   <si>
+    <t>goldenleblanc</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g56463-d106480-r460912942-Courtyard_by_Marriott_Dallas_Plano_in_Legacy_Park-Plano_Texas.html</t>
   </si>
   <si>
@@ -937,6 +1018,9 @@
     <t>Love this Courtyard! We are Marriott exclusive, so we have stayed at many. Loved the sliding glass door out to the courtyard, pool and spa... the staff was ALL very friendly-this hotel has a good vibe... Elizabeth at the front desk Saturday morning, (and I think Friday evening) was very friendly and accommodating. Great stay.More</t>
   </si>
   <si>
+    <t>Mohamed E</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g56463-d106480-r452898302-Courtyard_by_Marriott_Dallas_Plano_in_Legacy_Park-Plano_Texas.html</t>
   </si>
   <si>
@@ -964,6 +1048,9 @@
     <t>This Courtyard is one of those that has been updated and the lobby and restaurant have been modernized and made more comfortable.  There is not a lot of parking in front so be prepared to park and come in one of the rear doors as it likely closer to your room.  Ask the front desk clerk which side your room is on and then plan on parking on that side.  You can save yourself a little bit of walking.  Great location - a short walk to the shops and restaurants at Legacy.More</t>
   </si>
   <si>
+    <t>MaireadKennedy</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g56463-d106480-r450530344-Courtyard_by_Marriott_Dallas_Plano_in_Legacy_Park-Plano_Texas.html</t>
   </si>
   <si>
@@ -991,6 +1078,9 @@
     <t>The hotel is close to all amenities in Dallas Plano. The Hotel was quiet mainly a business overnight hotel very quiet at the weekends. So would say suits the Business Traveler mainly easy access to Tollway and shops at Legacy.More</t>
   </si>
   <si>
+    <t>Soixante17</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g56463-d106480-r449773141-Courtyard_by_Marriott_Dallas_Plano_in_Legacy_Park-Plano_Texas.html</t>
   </si>
   <si>
@@ -1015,6 +1105,9 @@
     <t>This Courtyard by Marriott is low on pizzazz but comfortable and clean making it a decent enough place for a short stay. If you're looking for a slightly nicer Courtyard this is not it. The rooms are spacious and tidy but have a dated look and feel to them. But I'll give it 3-stars because of the nicely remodeled lobby and the absolutely amazing, WARM, "go out of their way to assist you" front desk staff!! Lots of Texas hospitality and it was appreciated! More</t>
   </si>
   <si>
+    <t>Duncan P</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g56463-d106480-r447991780-Courtyard_by_Marriott_Dallas_Plano_in_Legacy_Park-Plano_Texas.html</t>
   </si>
   <si>
@@ -1042,6 +1135,9 @@
     <t>Had a stop over one night. This was, as expected, a decent hotel with an efficient check--in/out. What surprised me was the restaurant ... my first experience with a courtyard lobby restaurant. Had enough options to fill a 'fuel' need. The salad was fine. More</t>
   </si>
   <si>
+    <t>Steve H</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g56463-d106480-r443891609-Courtyard_by_Marriott_Dallas_Plano_in_Legacy_Park-Plano_Texas.html</t>
   </si>
   <si>
@@ -1066,6 +1162,9 @@
     <t>Stayed here for one night. I used my points but I think the room for a Saturday in early December was around $99. It's right off the tollway but I didn't have any issue with traffic noise. That certainly makes it convenient too. There are a lot of restaurant and shopping options very close by. The area immediately around the hotel seems dead on the weekend. I'm guessing it's mainly offices. So it was quiet. The room itself was nice. Clean. Quiet. Nice small patio/porch. I was facing the pool and hot tub area. It was a little loud until about 10PM, then quiet as can be. There's a nice fitness room open 24hrs. Staff were friendly. Good shower pressure. Nice high ceilings. I was on first floor not sure if other floors are set up the same way. All-in-all a pleasant stay.More</t>
   </si>
   <si>
+    <t>_benicio_suarez</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g56463-d106480-r443628772-Courtyard_by_Marriott_Dallas_Plano_in_Legacy_Park-Plano_Texas.html</t>
   </si>
   <si>
@@ -1084,6 +1183,9 @@
     <t>I recently stayed at this courtyard-I generally stay at the Marriott Legacy Park or Marriott City Center in Dallas.  I thought I would give this place a try since I booked it by accident and did not want to cancel.  I must admit that I was shocked.  I generally don’t have issues staying at a Courtyard because some are very clean and newer than some other Marriott properties.  I was not at all impressed with this location.  It seemed run-down to me.  I requested a room in the third floor far away from the elevator so I could get a good night’s rest.  I got a room on the highest floor (3rd floor).  While my room was away from noise, I found out my air conditioning unit did not work properly.  It rattled when turned on and the rattling was very loud.  I tried to sleep through it but realized it was too noisy.  I ended up turning it off.    Unfortunately it was late when I finally found out as I had been out in a work dinner.  While I could have called and had someone try to repair it or change rooms, it was too late and I did not want to get up, pack and move.  Needless to say, I had to sleep in a room that was not adequate-I like a cold room.  When I checked out and reported this incident to the manager, she offered me...I recently stayed at this courtyard-I generally stay at the Marriott Legacy Park or Marriott City Center in Dallas.  I thought I would give this place a try since I booked it by accident and did not want to cancel.  I must admit that I was shocked.  I generally don’t have issues staying at a Courtyard because some are very clean and newer than some other Marriott properties.  I was not at all impressed with this location.  It seemed run-down to me.  I requested a room in the third floor far away from the elevator so I could get a good night’s rest.  I got a room on the highest floor (3rd floor).  While my room was away from noise, I found out my air conditioning unit did not work properly.  It rattled when turned on and the rattling was very loud.  I tried to sleep through it but realized it was too noisy.  I ended up turning it off.    Unfortunately it was late when I finally found out as I had been out in a work dinner.  While I could have called and had someone try to repair it or change rooms, it was too late and I did not want to get up, pack and move.  Needless to say, I had to sleep in a room that was not adequate-I like a cold room.  When I checked out and reported this incident to the manager, she offered me a free coffee or 1000 points for my inconvenience.  I don’t think she even looked at my profile and knew that I am a Platinum Elite member.  I will do over 100 nights this year with the Marriott.  For someone to offer me 1000 points for a sleepless night, is ridiculous and offensive.  If you’re traveling to Frisco or Plano, stay at the Marriott Legacy Park instead and avoid this place.  It is worth the extra dollars and you will get a good night’s rest.More</t>
   </si>
   <si>
+    <t>franklbanks111</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g56463-d106480-r431242810-Courtyard_by_Marriott_Dallas_Plano_in_Legacy_Park-Plano_Texas.html</t>
   </si>
   <si>
@@ -1105,6 +1207,9 @@
     <t>Event Specialist Lillian Adams was extremely professional, helpful, and was an absolute sweetheart at that. I’ve been a Marriott Member for several years and I only stay at Marriott’s when I travel because I’ve always loved and trusted you guys branded. The level of service that Lillian and her team delivered the weekend of my wedding was amazing and is a constant reminder as to why me and my wife will always love and support the Marriott brand! Even the Bar Tenders and Bar Managers were extremely pleasant and took care of all of my guests need! I want to thank you and your Marriott Team for all of your help in making my wedding weekend an amazing experience for my guest!!!More</t>
   </si>
   <si>
+    <t>NeviTales</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g56463-d106480-r424806463-Courtyard_by_Marriott_Dallas_Plano_in_Legacy_Park-Plano_Texas.html</t>
   </si>
   <si>
@@ -1144,6 +1249,9 @@
     <t>Very nice hotel. Great location. I couldn't haven happier. Service was excellent &amp; very accommodating. The hotel has passed to nearby Lifetime Fitness.Close to everything in Legacy Park. Great all around.More</t>
   </si>
   <si>
+    <t>Shelly M</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g56463-d106480-r422397665-Courtyard_by_Marriott_Dallas_Plano_in_Legacy_Park-Plano_Texas.html</t>
   </si>
   <si>
@@ -1162,6 +1270,9 @@
     <t>When I arrived, the electricity was off due to a vehicle taking out the junction box on a corner street.  Hotel management and employees did their utmost to accommodate me by offering free water and snacks while we waited for crews to repair.  Once electricity was restored, I was given a beautiful balcony room overlooking the courtyard and 5000 points for my inconvenience.  Bed was comfortable and room/bathroom was very clean!  Great hotel!More</t>
   </si>
   <si>
+    <t>susanpopewhitmire</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g56463-d106480-r418618583-Courtyard_by_Marriott_Dallas_Plano_in_Legacy_Park-Plano_Texas.html</t>
   </si>
   <si>
@@ -1180,6 +1291,9 @@
     <t>We ended up at this hotel by default.  Our original hotel was so bad, we found this one and booked it sight unseen while we were picking up our rental car at Hertz, Love Field.  No room service but they had a little bistro counter where they cooked breakfast, had lunch items and a little snack room with a microwave.  The rooms were clean, the air conditioner worked fantastic (Hey, we were in Texas, it was hot as HeXX!), the coffee was Starbucks, the staff was very friendly and the TV was large.  Met all our needs.More</t>
   </si>
   <si>
+    <t>lucycan</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g56463-d106480-r418562583-Courtyard_by_Marriott_Dallas_Plano_in_Legacy_Park-Plano_Texas.html</t>
   </si>
   <si>
@@ -1195,6 +1309,9 @@
     <t>I stayed one night.  First time at hotel.  Its your standard Courtyard for the most part.  Even though its right off the tollway it was quite quiet.  Short walk to the Legacy Town Center area with tons of shops and restaurants.  I'd stay again.More</t>
   </si>
   <si>
+    <t>Will271</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g56463-d106480-r417101222-Courtyard_by_Marriott_Dallas_Plano_in_Legacy_Park-Plano_Texas.html</t>
   </si>
   <si>
@@ -1219,6 +1336,9 @@
     <t>I stayed in this hotel last week and I found it to have everything I needed on a business trip. The bed was a perfect size, the room was constantly cleaned during my stay and there was very little noise coming from the pool area. I did find that if the air conditioning was on it was way to loud to sleep with so I would recommend turning it off. Also the restaurant has a very small menu however this hotel is in a central area and has some great restaurants around it with a very short walk to most. If your planning a trip to Plano I would recommend this hotel. They also have great staff. More</t>
   </si>
   <si>
+    <t>Carly F</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g56463-d106480-r399185700-Courtyard_by_Marriott_Dallas_Plano_in_Legacy_Park-Plano_Texas.html</t>
   </si>
   <si>
@@ -1240,6 +1360,9 @@
     <t>I will say the staff was very accommodating to our softball team. It was a good stay, I stay at Courtyards often, and this didn't change my view of them.The a/c wouldn't get below 74 and when I reported it to the front desk maintenance left a note that it was 68. It was never that cool in the room.  More</t>
   </si>
   <si>
+    <t>speightsdaddy</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g56463-d106480-r398207348-Courtyard_by_Marriott_Dallas_Plano_in_Legacy_Park-Plano_Texas.html</t>
   </si>
   <si>
@@ -1258,6 +1381,9 @@
     <t>Stayed her for one night on business. Rooms were well kept and clean. Ate breakfast the following morning.   I had the French toast and it was very good. Well presented.  The receptionist the day I checked in was very polite. No negatives to write of.More</t>
   </si>
   <si>
+    <t>jhollingsworth11</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g56463-d106480-r356384121-Courtyard_by_Marriott_Dallas_Plano_in_Legacy_Park-Plano_Texas.html</t>
   </si>
   <si>
@@ -1274,6 +1400,9 @@
   </si>
   <si>
     <t>March 2016</t>
+  </si>
+  <si>
+    <t>yobyot</t>
   </si>
   <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g56463-d106480-r350405013-Courtyard_by_Marriott_Dallas_Plano_in_Legacy_Park-Plano_Texas.html</t>
@@ -1308,6 +1437,9 @@
 I've got a client in Plano that's going to be bringing me back to this location for months -- but I won't be back at this hotel next time. You can...Try this: become a Marriott guest with acquire status. Then reserve a room at this location, specify a high floor away from the roar of the North Dallas Tollway. Arrive late. Get a room on the first floor, _facing the highway_. And that room is as plain as plain can be. I think everything you need to know about this hotel comes from the only good thing marriott.com can find to say about this place: it has a new lobby.Well, I don't sleep in the lobby. I sleep in a room, which should be as quiet as possible and which should look like it was last remodeled after 1925.For the life of me, I don't understand why hotel operators think that redoing the public spaces substitutes for redoing the rooms. Personally, I think an updated lobby sets an expectation that the rooms are going to be equally modern. When that doesn't happen, as in this hotel, a guest cannot help but be disappointed.Oh, one more thing, when I asked to be moved the front desk person wasn't impolite or any such thing. But she was "bothered" by the request. You know what I mean -- nothing is said but you just know you've asked "too much."I've got a client in Plano that's going to be bringing me back to this location for months -- but I won't be back at this hotel next time. You can find better nearby, too.More</t>
   </si>
   <si>
+    <t>Jim S</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g56463-d106480-r346643450-Courtyard_by_Marriott_Dallas_Plano_in_Legacy_Park-Plano_Texas.html</t>
   </si>
   <si>
@@ -1326,6 +1458,9 @@
     <t>February 2016</t>
   </si>
   <si>
+    <t>Jason B</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g56463-d106480-r343208757-Courtyard_by_Marriott_Dallas_Plano_in_Legacy_Park-Plano_Texas.html</t>
   </si>
   <si>
@@ -1344,6 +1479,9 @@
     <t>January 2016</t>
   </si>
   <si>
+    <t>Mike M</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g56463-d106480-r337846110-Courtyard_by_Marriott_Dallas_Plano_in_Legacy_Park-Plano_Texas.html</t>
   </si>
   <si>
@@ -1368,6 +1506,9 @@
     <t>This property is very dated. I won't call it dirty, but it is... Just dated. Old. The hvac system in the room is also very noisy. The shower is very dark and below par. I would not stay here again unless I was in a pinch. Btw... When was the last time you saw a thermostat like this in a hotel???More</t>
   </si>
   <si>
+    <t>Joyce K</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g56463-d106480-r334819745-Courtyard_by_Marriott_Dallas_Plano_in_Legacy_Park-Plano_Texas.html</t>
   </si>
   <si>
@@ -1389,6 +1530,9 @@
     <t>I'm not sure why some of the reviews are so negative - I thought it was fine and found the staff to be super nice. I got upgraded to a suite because it was a slow night for them and they had a lot of vacancy - I am a Marriott points member but don't stay much with them so it was an unexpected perk. I also asked for a few extra pillows and they were quickly delivered. At $99/night, I thought it was a great deal.Could the rooms be updated - sure. But do you want to pay more $$? I thought the room condition and decor was totally acceptable. The suite that I had had a mini fridge, microwave, and sink. I didn't use any of the amenities there e.g. swimming pool, gym, restaurant but I thought the lobby was very clean and nicely decorated.More</t>
   </si>
   <si>
+    <t>happy_soul7</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g56463-d106480-r334787047-Courtyard_by_Marriott_Dallas_Plano_in_Legacy_Park-Plano_Texas.html</t>
   </si>
   <si>
@@ -1404,6 +1548,9 @@
     <t>I stayed here for 7 days. There was complimentary breakfast where there was a breakfast menu from which we could choose 1-2 items depending on the category. There was complimentary Wi-Fi as well which had good speed and connection. Complimentary pickup or drop to office or any place within 5 miles of the hotel. The hotel was conveniently located near office and shopping and eating area.The receptionist, Lily was very friendly and helpful. Food was decently priced, competitive with nearby restaurants. One problem is they do not serve lunch. Another minor drawback I found was with the tap in the bathroom. There was only one tap from cold and hot water. So if you rotate it a little very cold water comes out. The tap has to be turned very fast to get hot water.More</t>
   </si>
   <si>
+    <t>Wade B</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g56463-d106480-r326156065-Courtyard_by_Marriott_Dallas_Plano_in_Legacy_Park-Plano_Texas.html</t>
   </si>
   <si>
@@ -1431,6 +1578,9 @@
     <t>As of today, I have spent 604 nights at Marriott properties.  It is with regret that I write that this particular hotel is not on-par with the rest of the chain.  I am used to certain comforts/exceptions that are quite regular with my loyalty that are not honored here.  This leaves me to believe that the casual guest will have a worse experience.The workout facilities are limited.  If you intend on using a treadmill at 5:30 AM, don't be surprised to see them occupied.  I have had to wait upwards of 30 minutes to see any (of the very limited) equipment become free.Furthermore, it doesn't appear that the hot tub is not well maintained.  It always looks green.The noise from the highway is extremely bad.  You would think that, after spending over 115 nights at Marriott properties this year, they would give me a peaceful room away from such noise.  I couldn't sleep due to the traffic on the highway.The showers are another issue.  I often get rooms that have little pressure through the shower head because the main spigot leaks water.  The shower curtains are sometime nasty with slimeyness.Sorry, this is an awful Marriott property that needs improvement.  Until management shows some kind of change, my rating will remain 1 star.More</t>
   </si>
   <si>
+    <t>SHWall</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g56463-d106480-r323403993-Courtyard_by_Marriott_Dallas_Plano_in_Legacy_Park-Plano_Texas.html</t>
   </si>
   <si>
@@ -1452,6 +1602,9 @@
     <t>Was here for 4 nights on a business trip.  From my first to my last encounter, I could not be happier with the staff.  They were all kind and very accommodating.  On the first morning, my thermostat stopped working.  The manager immediately offered me a new room (which I declined unless they were not able to fix it) and told me he would have the engineer check it.  When I returned from work, it was working fine.  A few days later, I returned at 9PM to find out the thermostat wasn't working again.  They told me they would send someone up with a key to the room next door and that there was no need to move my things right away. Katya, the van driver who took us to work each morning and was so kind and so helpful, arrived with the key and bottles of water for me.  My room was clean and comfortable and typical for a Courtyard.  We were within walking distance of the Shops at Legacy which included lots of restaurant choices at many price points.  Would happily stay here again!!More</t>
   </si>
   <si>
+    <t>trisha b</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g56463-d106480-r320949305-Courtyard_by_Marriott_Dallas_Plano_in_Legacy_Park-Plano_Texas.html</t>
   </si>
   <si>
@@ -1476,6 +1629,9 @@
     <t>Courtyard Dallas Plano in Legacy is an older hotel, one elevator there is a problem with the elevator door closing and to make matters worse, there was a cricket in my room.  I thought it was a roach, but it wasn't.  I contacted the front office and asked if anyone had complained about crickets and the response was no, but later admitted they have been having problems with them and asked if I wanted some to come and remove the critter and I said why because another one or more could come in because there is a wide opening at the bottom of the door. I put a towel up to the door and the next morning there was another cricket at the door.  The amenities mention breakfast from 6-9, when I went down for breakfast I was told, oh no it's no free you have to pay for breakfast. I was there for two nights but I stayed one night and canceled the next night. The bottom line, don't stay there you will be disappointed.More</t>
   </si>
   <si>
+    <t>Douglas T</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g56463-d106480-r315318806-Courtyard_by_Marriott_Dallas_Plano_in_Legacy_Park-Plano_Texas.html</t>
   </si>
   <si>
@@ -1494,6 +1650,9 @@
     <t>September 2015</t>
   </si>
   <si>
+    <t>Norman K</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g56463-d106480-r311240993-Courtyard_by_Marriott_Dallas_Plano_in_Legacy_Park-Plano_Texas.html</t>
   </si>
   <si>
@@ -1512,6 +1671,9 @@
     <t>Visited Plano for the first time and very conveniently located to the business park. Rooms are clean and some rooms even have balcony.Parking is ample and close to all the amenities. Mobile checkout and Starbucks also in the facility. Recommend.More</t>
   </si>
   <si>
+    <t>Designer2005</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g56463-d106480-r310605198-Courtyard_by_Marriott_Dallas_Plano_in_Legacy_Park-Plano_Texas.html</t>
   </si>
   <si>
@@ -1527,6 +1689,9 @@
     <t>Thanks god for this choice as I had no idea about Plano . As soon as I walked into my room I knew it was the right choice . Very clean fresh room with the best mattress and pillows . Already decided this one for my next visit . Breakfast is like a small comfy area where you can order your choice of coffee , sandwich,bagels,fresh fruits and more . Perfect for a busy day ahead !</t>
   </si>
   <si>
+    <t>missiesw</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g56463-d106480-r310031359-Courtyard_by_Marriott_Dallas_Plano_in_Legacy_Park-Plano_Texas.html</t>
   </si>
   <si>
@@ -1542,6 +1707,9 @@
     <t>We were in Plan to attend a Dallas FC game at nearby stadium.  The location was great, not only close to the stadium but also to the restaurants in Legacy Park.The staff was beyond friendly, answering my many questions and looking for alternatives when unable to give an immediate answer at times.</t>
   </si>
   <si>
+    <t>lbanda2015</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g56463-d106480-r303360949-Courtyard_by_Marriott_Dallas_Plano_in_Legacy_Park-Plano_Texas.html</t>
   </si>
   <si>
@@ -1563,6 +1731,9 @@
     <t>We are never disappointed when we stay at this location. We willdefinitely  be staying here again when we are in the Dallas area.The rooms are big and spacious and the floor was very quite. Wehad flown in from Hawaii after a long vacation. We were jet lagged andshut the curtains and were able to sleep for 6 hours with no outside noiseMore</t>
   </si>
   <si>
+    <t>tapeezarf</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g56463-d106480-r263611728-Courtyard_by_Marriott_Dallas_Plano_in_Legacy_Park-Plano_Texas.html</t>
   </si>
   <si>
@@ -1584,6 +1755,9 @@
     <t>Everything about the hotel was very nice, however, "Siri", my phone's voice direction giver, was working overtime by the time we arrived at our destination. We had driven down US-69.US-75 from NW Arkansas on our way to San Antonio and since we had driven through Plano many times, I thought the hotel would be right on the main drag. Boy was I wrong! After being directed (by "Siri") through about 9 different streets and numerous turns, we finally arrived 30 minutes after leaving US-75. The hotel is in the middle of a corporate office complex of buildings and is certainly handy to vendors, etc., who have business there, but for the casual traveler, it is a real pain to find. I realized when we finally arrived at the hotel the reason the nightly price was so reasonable was that the business crowd had moved on for the weekend and the hotel needed to fill rooms.More</t>
   </si>
   <si>
+    <t>clove91947</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g56463-d106480-r262523425-Courtyard_by_Marriott_Dallas_Plano_in_Legacy_Park-Plano_Texas.html</t>
   </si>
   <si>
@@ -1608,6 +1782,9 @@
     <t>Stayed at the Courtyard Legacy Park for two nights while traveling for business.   I have stayed  at a lot of Courtyards all across the US and this one is very nice with great employees BUT do not get a room facing the front or side it is extremely noisy due to the highway.  I cannot understand how it could actually be as noisy as it was; must be the type of windows.  You hear every noise from the road all night long.  Make sure you ask for a room facing the courtyard.More</t>
   </si>
   <si>
+    <t>Gerson C</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g56463-d106480-r259649208-Courtyard_by_Marriott_Dallas_Plano_in_Legacy_Park-Plano_Texas.html</t>
   </si>
   <si>
@@ -1626,6 +1803,9 @@
     <t>February 2015</t>
   </si>
   <si>
+    <t>Rich M</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g56463-d106480-r252827875-Courtyard_by_Marriott_Dallas_Plano_in_Legacy_Park-Plano_Texas.html</t>
   </si>
   <si>
@@ -1641,6 +1821,9 @@
     <t>If you've stayed in one Marriott courtyard you've stayed in them all.   Paying for coffee while at a hotel makes no sense to me but the rooms are clean and the lobby is open and well appointed.   I asked the front desk to look into a rattling noise in my heater and they fixed it immediately.  Great service as usual and always a great stay at a Marriott courtyard.</t>
   </si>
   <si>
+    <t>txhumminbird</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g56463-d106480-r252178054-Courtyard_by_Marriott_Dallas_Plano_in_Legacy_Park-Plano_Texas.html</t>
   </si>
   <si>
@@ -1659,6 +1842,9 @@
     <t>January 2015</t>
   </si>
   <si>
+    <t>takevtr1</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g56463-d106480-r251509236-Courtyard_by_Marriott_Dallas_Plano_in_Legacy_Park-Plano_Texas.html</t>
   </si>
   <si>
@@ -1677,6 +1863,9 @@
     <t>Hotel check-in was very quick and painless. Front desk staff were very nice and helpful in giving directions to where we had to go.While there is no official restaurant, there is a place to get some breakfast (not included) items and lunch. Not sure about dinner choices as we were always out of the hotel at dinnertime. Very nice staff at the bar. Rooms were very clean and comfortable.More</t>
   </si>
   <si>
+    <t>Mutus D</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g56463-d106480-r250704417-Courtyard_by_Marriott_Dallas_Plano_in_Legacy_Park-Plano_Texas.html</t>
   </si>
   <si>
@@ -1692,6 +1881,9 @@
     <t>Stayed there two times with not a single complaint, except that it is too expensive for what it is...  The price of almost $200 the night is just too steep for a casual, not spectacular hotel.  If you are on business and want a clean and perfect place to sleep, take a bath and see the cool 50' tv on the room...its good..</t>
   </si>
   <si>
+    <t>Katie N</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g56463-d106480-r249429671-Courtyard_by_Marriott_Dallas_Plano_in_Legacy_Park-Plano_Texas.html</t>
   </si>
   <si>
@@ -1716,6 +1908,9 @@
     <t>Very comfortable beds and pillows, friendly and professional staff, large bathroom, large TV, great food in the lobby, walking distance to all the bars &amp; restaurants. It's definitely staying there again.More</t>
   </si>
   <si>
+    <t>Susan E</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g56463-d106480-r249336469-Courtyard_by_Marriott_Dallas_Plano_in_Legacy_Park-Plano_Texas.html</t>
   </si>
   <si>
@@ -1734,6 +1929,9 @@
     <t>Since our first stay a year ago was great, we decided to stay here again.  And once again it was perfect!  Room was very clean, staff was professional and pleasant.  The Bistro in the lobby is even better than last year and now serves alcohol later in the day.  If they served it last year, I don't remember, but it was a nice surprise.  I'm not sure you can beat it for the price.More</t>
   </si>
   <si>
+    <t>GRLTRAV</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g56463-d106480-r249120171-Courtyard_by_Marriott_Dallas_Plano_in_Legacy_Park-Plano_Texas.html</t>
   </si>
   <si>
@@ -1758,6 +1956,9 @@
     <t>I landed here as other hotels in the area were sold out.The positives were that the mattress/pillows were extremely comfortable, great desk chair for sitting, Paul Mitchell products in the bathroom and it is a 2 minute drive to Legacy Place which has upscale shops and great restaurants. The negatives were that it's close to the highway and the noise is disturbing (room 265), the room smelled like onions and needed minor maintenance throughout. It really could have used a good cleaning and upgrade.More</t>
   </si>
   <si>
+    <t>George B</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g56463-d106480-r246755342-Courtyard_by_Marriott_Dallas_Plano_in_Legacy_Park-Plano_Texas.html</t>
   </si>
   <si>
@@ -1779,6 +1980,9 @@
     <t>I had an issue with check in and check out that was more of my own doing than anything else. I was pretty upset both times, but the hotel staff explained the situation and were professional in doing so. The customer service at the bistro was also good. The only other thing was there was no fridge or microwave in the room. However, the staff did put one in the room upon request.Everything thing else was fine and the location was right in the middle of all the things we wanted to do. There is a freeway in front of the hotel, but the noise was never an issue.More</t>
   </si>
   <si>
+    <t>Beowulf1966</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g56463-d106480-r242843208-Courtyard_by_Marriott_Dallas_Plano_in_Legacy_Park-Plano_Texas.html</t>
   </si>
   <si>
@@ -1806,6 +2010,9 @@
     <t>Rooms are clean!!! Bathroom is small.  We checked into this motel for a four day stay.  Canceled after one day for the following reasons:  1-- No refrigerator in room, 2-- no microwave oven in room, 3-- No complimentary coffee, 4--no complimentary breakfast, 5-- ESPN channels are not digital!!!! 6--No free high speed internet!!!!   I went to front desk to ask about digital ESPN (I love sports), and was told a TV technician was on the way!!!!! He told us that only the bar area has digital for ESPN channels-- Bar area charges $5.25 for a Coors Light.  One must pay big bucks for coffee and even more for a breakfast.   It seems that Marriott Chain wants to gouge people for all that they can gouge!!!!!More</t>
   </si>
   <si>
+    <t>Chris S</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g56463-d106480-r236707098-Courtyard_by_Marriott_Dallas_Plano_in_Legacy_Park-Plano_Texas.html</t>
   </si>
   <si>
@@ -1827,6 +2034,9 @@
     <t>Overall the hotel is quiet and the bed is comfortable. Service was great with a friendly staff who was happy to help. The location is easy to get to and parking lot felt secure. The noise was not a factor being close to the freeway and a weekend. Now the negatives. There was no refrigerator. How can a room not have one when it seems to be standard? The bathroom had no exhaust fan which made it uncomfortable at times. There was only one set of towels in the room with no spare to be found. Most rooms have at least two large ones rolled up somewhere. Overall if you are looking for a decent bed to relax for the night, it will work fine. But you may be missing some things you think would be standard.More</t>
   </si>
   <si>
+    <t>Michael J</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g56463-d106480-r235648316-Courtyard_by_Marriott_Dallas_Plano_in_Legacy_Park-Plano_Texas.html</t>
   </si>
   <si>
@@ -1851,6 +2061,9 @@
     <t>Hotel was a typical Courtyard Property.Few Negatives:Customer Service at the Barista was awfulTowels extremely thinHotel is all around pretty loud.  (Road Noise, Hear people walking around floor above)Positives:Room was cleanFront Desk staff was polite and courteousLocation is close to LegacyHad an issue with the person working at the coffee shop.  Manager contacted me via phone to apologize and said the issue would be rectified and not happen again.  I feel confident that he will take care of it and I will not experience that again in the future.  I plan on giving it another shot, but will certainly post another review if necessary.More</t>
   </si>
   <si>
+    <t>Clarkecoln</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g56463-d106480-r234385667-Courtyard_by_Marriott_Dallas_Plano_in_Legacy_Park-Plano_Texas.html</t>
   </si>
   <si>
@@ -1872,6 +2085,9 @@
     <t>I don't think I've ever experienced better service at a hotel. Upon arrival I was greeted promptly for check in. They asked if I was arriving for business with any area business partners (I was) so they adjusted my room rate to a corporate business partner rate. Then they gave a nice description of the property and amenities, and before sending me off to my room offered me a complimentary bottle of water (which was ICE cold). It was such a great experience it almost caught me off guard! Later that evening I came down to the Bistro for dinner and received the same amazing service again. And to double it up, breakfast in the Bistro was even better service than the night prior (they went to a few extra lengths for me without prompting!). The room was spacious and very comfortable and the wifi connection was fantastic. Overall, I was extremely pleased with the stay and will be sure to book here again!More</t>
   </si>
   <si>
+    <t>ignaciot79</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g56463-d106480-r234144908-Courtyard_by_Marriott_Dallas_Plano_in_Legacy_Park-Plano_Texas.html</t>
   </si>
   <si>
@@ -1888,6 +2104,9 @@
   </si>
   <si>
     <t>The rooms were very well maintained and spotless. The bar at the lobby is great, the bartenders/baristas very friendly and helpful. I was impressed by the overall quality, even on such a busy weekend.I only wish it would have provided at least a simple breakfast. The cost per night is a bit steep not to provide breakfast, at least something basic like toast, bagels, pastries and fruit.More</t>
+  </si>
+  <si>
+    <t>justjulesrtw</t>
   </si>
   <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g56463-d106480-r233155374-Courtyard_by_Marriott_Dallas_Plano_in_Legacy_Park-Plano_Texas.html</t>
@@ -1928,6 +2147,9 @@
 In summary, a very nice Courtyard primarily for...I stayed at this Courtyard by Marriott for two nights on a business trip in early October.  I traveled with my two school-age children who were along to visit relatives.  Pros:  Location:  The location was superb for navigating meetings in Addison off of Keller Springs and the Tollway and the next day up in Frisco off of Preston and Gaylord.  I also needed to be convenient to Spring Creek Pkwy and Preston in Plano.  It was actually quiet considering we were right on the Tollway.Room:  The room had a full length mirror.  TV channels were adequate. Room was clean.Staff:  The front desk agent, Katie, was super friendly and professional.  Her attitude alone made up for the few cons (see below).Cons:Beds:  The beds were doubles, not queens, which I am starting to see in more and more of this price point hotel.  Bath:  The bathroom was adequate.  A little short on the number of towels and the thickness. I always request extra towels on my Marriott profile but it didn't seem to have been honored.   I also found the bath toiletries somewhat lacking.  Internet:  The WiFi, though free, was spotty - losing connectivity on and off.  I ended up using my cell phone data service instead of my laptop which was an inconvenience.Price:  It cost more than the Courtyard in Lewisville, my guess is because of the location.In summary, a very nice Courtyard primarily for business.  The location is great.  I would definitely stay here again.More</t>
   </si>
   <si>
+    <t>924Happy</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g56463-d106480-r232151055-Courtyard_by_Marriott_Dallas_Plano_in_Legacy_Park-Plano_Texas.html</t>
   </si>
   <si>
@@ -1946,6 +2168,9 @@
     <t>Bistro in the lobby has great food at reasonable prices. Excellent breakfast options. Professional service that is very fast.Front desk person was very friendly, courteous and helpful.Room overlooked the pool and was nice and quiet.Overall, a great place to stay.More</t>
   </si>
   <si>
+    <t>FaReTX</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g56463-d106480-r229953120-Courtyard_by_Marriott_Dallas_Plano_in_Legacy_Park-Plano_Texas.html</t>
   </si>
   <si>
@@ -1967,6 +2192,9 @@
     <t>Typical Courtyard, unfortunately not much for Marriott Platinums besides upgrade, no breakfast, and thats typical for Courtyard.The hotel itself is nice, clean and recently refurb, so the cleanness is there to see. We got upgraded to a king suite, which gave enough space for a family of 4 to spread out. Close to the DNT so getting in and out was a breeze. Staff is friendly, warm and happy which is great to find, when you do. Did not use the pool, or have breakfast. Close to Legacy and Stonebriar (relatively close), where you find many eateries of all kinds and all budgets.More</t>
   </si>
   <si>
+    <t>Debrahawkins</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g56463-d106480-r226355780-Courtyard_by_Marriott_Dallas_Plano_in_Legacy_Park-Plano_Texas.html</t>
   </si>
   <si>
@@ -1982,6 +2210,9 @@
     <t>This is a nice little hotel with a great courtyard, but this trip the desk clerk gave us a room with a balcony that faced the highway and suggested that we might want to sit and count cars. First the room was west facing so the setting sun was blazing hot, and second the highway is very noisy. The good thing about the hotel is that it is walking distance to Legacy, with lots of great bars and restaurants. Breakfast is not included, not even coffee (unless you make it yourself in the room). Their on site restaurant for breakfast and light supper is over priced for the quality.</t>
   </si>
   <si>
+    <t>Rasawn Z</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g56463-d106480-r224854240-Courtyard_by_Marriott_Dallas_Plano_in_Legacy_Park-Plano_Texas.html</t>
   </si>
   <si>
@@ -2000,6 +2231,9 @@
     <t>Upon check in Zack was very helpful at the front desk. The room is also very nice bed big and comfortable. Housekeeping made sure they checked on us the next morning. Would be amazing to have breakfast included but there is an IHOP and Denny's right across the way. I definitely would recommend this location.More</t>
   </si>
   <si>
+    <t>Mark B</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g56463-d106480-r222702824-Courtyard_by_Marriott_Dallas_Plano_in_Legacy_Park-Plano_Texas.html</t>
   </si>
   <si>
@@ -2027,6 +2261,9 @@
     <t>I am a Marriott Elite member, so I stay in a lot of Marriott hotels.  This Courtyard has been updated, so the carpet is new, the lobby is great, and they have a small bistro available.  Our hallway and room smelt very musty, and seemed to have a cat litter edge to it (not sure show else to explain it).  Pool was clean and the workout facility well-equipped.  Our King bedroom was about 25% smaller than the typical hotel room, with barely enough room for two adults and two kids to walk around.  The main area for improvement for this hotel is the staffing of the front desk. It took the attendant a lot more time than average to get people checked in, resulting in a long line.  Calls to the front desk went unanswered more than half the time.  When the front desk does not pick up, the system pretty much hangs up on you.  We had to go on a 45-minute search for extra towels.  The front desk did not pick up, so we looked for a housekeeping person to get the towels, but she would not provide them (strange), then we went to the front desk and waited 20 minutes behind a long line of people, gave up on that and finally went to the pool area to get pool towels to use as bath towels.  The hotel is located within walking distance to the Shops at...I am a Marriott Elite member, so I stay in a lot of Marriott hotels.  This Courtyard has been updated, so the carpet is new, the lobby is great, and they have a small bistro available.  Our hallway and room smelt very musty, and seemed to have a cat litter edge to it (not sure show else to explain it).  Pool was clean and the workout facility well-equipped.  Our King bedroom was about 25% smaller than the typical hotel room, with barely enough room for two adults and two kids to walk around.  The main area for improvement for this hotel is the staffing of the front desk. It took the attendant a lot more time than average to get people checked in, resulting in a long line.  Calls to the front desk went unanswered more than half the time.  When the front desk does not pick up, the system pretty much hangs up on you.  We had to go on a 45-minute search for extra towels.  The front desk did not pick up, so we looked for a housekeeping person to get the towels, but she would not provide them (strange), then we went to the front desk and waited 20 minutes behind a long line of people, gave up on that and finally went to the pool area to get pool towels to use as bath towels.  The hotel is located within walking distance to the Shops at Legacy (but it's quite a walk if the weather rid hot or otherwise challenging), and you have to cross one major street to get to the south (residential) side of the Shops, and walk even further to actually get to shops.  The hotel gets four stars for being updated, but knocked a star for being understaffed up front.More</t>
   </si>
   <si>
+    <t>RollTide95</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g56463-d106480-r220637247-Courtyard_by_Marriott_Dallas_Plano_in_Legacy_Park-Plano_Texas.html</t>
   </si>
   <si>
@@ -2043,6 +2280,9 @@
   </si>
   <si>
     <t>I really lucked up on finding this location.  I just did a search   on trip advisor as I was trying to find a good place to rest overnight in Dallas area on my way to Houston. I must say that the reviews and ratings listed did not disappoint.  The service  by the hotel staff was warm and friendly upon my arrival. She gave me the choice of what floor I wanted to be on, which I truly appreciated. When I walked into the room, I was impressed by the decor and cleanliness. The bed was very comfortable and I thoroughly enjoyed a peaceful night sleep. The value of the room with my AAA discount was truly amazing. The only negative points is that the room did not come with a microwave or refrigerator. I only stayed one night so I can't say this was major. It may be possible that a refrigerator could be requested, but I did not inquire about that. Also, there is no complimentary breakfast, however, a restaurant, is conveniently located in the hotel where guests can purchase meals all day. Again, considering the low price I paid, I can understand not having those amenities included. Getting into the hotel from the Dallas Tollway is a little tricky but once you get here it's fine. The Shops at Legacy is located just a few miles away and offers a variety of dining and shopping options. All in...I really lucked up on finding this location.  I just did a search   on trip advisor as I was trying to find a good place to rest overnight in Dallas area on my way to Houston. I must say that the reviews and ratings listed did not disappoint.  The service  by the hotel staff was warm and friendly upon my arrival. She gave me the choice of what floor I wanted to be on, which I truly appreciated. When I walked into the room, I was impressed by the decor and cleanliness. The bed was very comfortable and I thoroughly enjoyed a peaceful night sleep. The value of the room with my AAA discount was truly amazing. The only negative points is that the room did not come with a microwave or refrigerator. I only stayed one night so I can't say this was major. It may be possible that a refrigerator could be requested, but I did not inquire about that. Also, there is no complimentary breakfast, however, a restaurant, is conveniently located in the hotel where guests can purchase meals all day. Again, considering the low price I paid, I can understand not having those amenities included. Getting into the hotel from the Dallas Tollway is a little tricky but once you get here it's fine. The Shops at Legacy is located just a few miles away and offers a variety of dining and shopping options. All in all, I would certainly stay here again.More</t>
+  </si>
+  <si>
+    <t>aerobik1</t>
   </si>
   <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g56463-d106480-r215081222-Courtyard_by_Marriott_Dallas_Plano_in_Legacy_Park-Plano_Texas.html</t>
@@ -2067,6 +2307,9 @@
 One afternoon after workout; the  kids wanted to go swimming.  There was a problem with the chemical levels in the pool resulting in the pool being closed for an hour.  In mere seconds, we were whisked in the hotel van to the nearby Marriott to use their pool, and given free items from the Marketplace.  This is service.  Housekeeping was asked for extra towels to accommodate the pre and post workout showers.  We only had to do this once, and every day when the...Stayed here for 1 week while family attending gymnastics camp.  From check in to checkout this property rates highly.  Upon checkin we were warmly greeted by Myriam.  Such a pleasant lady.  She could not do enough to find us a room that was a perfect match.  Even gave us a temporary room until the room she wanted to give us was cleaned.  Service above and beyond.  Rooms were standard Courtyard size but the beds seemed much more comfy than other Courtyards.  Property was spotless throughout.  They do have refrigerators if requested.  Washers and dryers were available and only .75.  We faced the courtyard away from the highway and the noise.  For quick mornings before workouts, we ate at the bistro.  Staff here was friendly and accommodating as well.  We were warmly greeted each morning by Mel who could not do enough for any of the guests, even during the breakfast rush he was engaging and pleasant.  One afternoon after workout; the  kids wanted to go swimming.  There was a problem with the chemical levels in the pool resulting in the pool being closed for an hour.  In mere seconds, we were whisked in the hotel van to the nearby Marriott to use their pool, and given free items from the Marketplace.  This is service.  Housekeeping was asked for extra towels to accommodate the pre and post workout showers.  We only had to do this once, and every day when the room was spotlessly serviced extra towels were provided without asking.  The staff even asked the kids each day how their workouts were going. The location of this property is great.  While at first glance it may look surrounded by highway, the Shops of Legacy are next door and behind the hotel.  The hotel will even provide you with complimentary on demand shuttle service to the Legacy restaurants and shops nearby if you don't feel like driving/parking or walking.  Only a 5 minute drive to Preston rd, with every store and restaurant imaginable for those who want to drive a little.I will definitely stay here again whenever the need warrants.  The staff is some of the best I have encountered at any hotel.  They take service very seriously.  I don't know who is hiring or training the staff but whatever they are doing is working flawlessly.  Comfy beds, and spotless property.  Much appreciated by this road warrior who spends upwards of 200 nights a year in a hotel.  Highly recommended.More</t>
   </si>
   <si>
+    <t>Robert H</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g56463-d106480-r208317428-Courtyard_by_Marriott_Dallas_Plano_in_Legacy_Park-Plano_Texas.html</t>
   </si>
   <si>
@@ -2094,6 +2337,9 @@
     <t>Traveling with my daughters basketball team, we stayed at the Courtyard and Lilley made all the difference in our stay. She was OUTSTANDING...exceptional from check-in to check-out, as she was there to greet us Saturday night and back again bright and early Sunday am. Very friendly and accommodated our every need with such a pleasant disposition. We enjoyed the lobby, which is clean, modern...has many distinct spaces to enjoy time with family and friends, plenty of tvs to watch and computers to browse the internet. The rooms clean, smelled great, the beds very comfortable, pillows soft. The bath vanity is a little on the small side, but the overall stay a 10! Wouldn't hesitate to stay here on future trips.Bistro type of breakfast available for purchase.More</t>
   </si>
   <si>
+    <t>CherylSatelliteBeach</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g56463-d106480-r207852317-Courtyard_by_Marriott_Dallas_Plano_in_Legacy_Park-Plano_Texas.html</t>
   </si>
   <si>
@@ -2139,6 +2385,9 @@
     <t>As I can see the upgrades to this hotel were flawless modern look with a home comfort great bistro! Staff is polite the prices are reasonable the breakfast is amazing all I can say is it's time to book your stay the courtyard Marriott is stepping it up in 2014More</t>
   </si>
   <si>
+    <t>George0903</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g56463-d106480-r200344786-Courtyard_by_Marriott_Dallas_Plano_in_Legacy_Park-Plano_Texas.html</t>
   </si>
   <si>
@@ -2166,6 +2415,9 @@
     <t>The room was fine, clean, comfortable bed, good (free) Wi-Fi, coffee maker, no fridge, good shower: If this were all I was reviewing I would give the hotel 5 stars. Downstairs id the Bistro, which provides good snacks (albeit expensive in my estimation) but, other than breakfast, no real meals. I had planned to have lunch there before I left for the airport, but it was not open till 5pm. There is a small shop, with a selection of instant food available which needed heating - and I had checked out at 12:00. (no microwave in room, so unless they only need hot water from the coffee-maker, they would not have been much good). Any of the staff I spoke to were lovely. The nearest eatery that I found is about a mile away.More</t>
   </si>
   <si>
+    <t>Bart M</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g56463-d106480-r193286400-Courtyard_by_Marriott_Dallas_Plano_in_Legacy_Park-Plano_Texas.html</t>
   </si>
   <si>
@@ -2193,6 +2445,9 @@
     <t>This Courtyard hotel in Plano is up to date and very much in line with the new standards for the brand. The check-in staff was very friendly, and the room was in excellent condition. Parking was ample and traffic very light on a weekend, although on a weekday I can imagine it would be much heavier due to all of the businesses in the area.More</t>
   </si>
   <si>
+    <t>Katie L</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g56463-d106480-r192980305-Courtyard_by_Marriott_Dallas_Plano_in_Legacy_Park-Plano_Texas.html</t>
   </si>
   <si>
@@ -2217,6 +2472,9 @@
     <t>I went down for the NDSU D-1 FCS Football Championship game and was treated like royalty. We were greeted at the door with a huge smile and a welcoming staff. (They were even wearing our school colors!) Rooms were very clean and beds were comfortable. Rooms had a HUGE TV so we could catch up on the other football games going on. Excellent location next to the Legacy mall where we had drinks &amp; supper each night. I highly recommend this hotel.More</t>
   </si>
   <si>
+    <t>PickeeMe</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g56463-d106480-r192675433-Courtyard_by_Marriott_Dallas_Plano_in_Legacy_Park-Plano_Texas.html</t>
   </si>
   <si>
@@ -2262,6 +2520,9 @@
     <t>This hotel was exceptional!  The employees were very friendly and helpful with our questions about the area.  Our room was very clean and the bed was very comfortable.  Excellent bedding and spacious.  Loved the location near all the restaurants and shops.  The breakfast in the lobby café was very good as well!  I will definitely stay here again.More</t>
   </si>
   <si>
+    <t>UberAnalyst</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g56463-d106480-r191288070-Courtyard_by_Marriott_Dallas_Plano_in_Legacy_Park-Plano_Texas.html</t>
   </si>
   <si>
@@ -2286,6 +2547,9 @@
     <t>Rooms and lobby renovated within last year and a half. I've stayed at 5 or so Courtyards in DFW over the last several years - mainly for a night away from the house, for "mattress runs" to apply to Marriott's generous promotions, or to attain status. This is the best. Some of the Courtyards in DFW are a bit tired, but this one is nice and fresh. I actually prefer renovated courtyards to brand new courtyards. Some of the new courtyards don't even have a "courtyard." The newer ones also tend to have smaller rooms, at least in my experience.If you have business in West Plano or Frisco, this is a great option. The weekend rates are also quite competitive. The hotel is really close to the Shops at Legacy. I'm thinking it's quite walkable, but you'd have to cross a crosswalk at Tennyson. Stonebriar in Frisco and the Shops at Willow Bend are less than 10 minutes by car - probably closer to 5 in light traffic.Awesome treatment for platinums. Upgrades are relatively rare at Courtyards, but I had the fortune of snagging an upgrade. Definitely helped that it was a weekend stay. I'm sure there are plenty of plats and golds staying here during the week, so your upgrade chances during the week would be much slimmer.More</t>
   </si>
   <si>
+    <t>Jazman59</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g56463-d106480-r183221564-Courtyard_by_Marriott_Dallas_Plano_in_Legacy_Park-Plano_Texas.html</t>
   </si>
   <si>
@@ -2313,6 +2577,9 @@
     <t>I booked a room several weeks before my stay and had a confirmed reservation. When I arrived at the hotel, they told me they had no room and had no choice but to move me to another Marriott 10 miles away. I booked this hotel to be close to my office so moving me much further away was not acceptable. Even though they didn't charge me for the room, I found this surprise unaccceptable. In 30 years of business travel, I have never had a hotel give my room away. This has changed my opinion of the Marriott brand as an unreliable business partner.More</t>
   </si>
   <si>
+    <t>Will J</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g56463-d106480-r182947273-Courtyard_by_Marriott_Dallas_Plano_in_Legacy_Park-Plano_Texas.html</t>
   </si>
   <si>
@@ -2337,6 +2604,9 @@
     <t>Associates are always very pleasant and welcoming. Surprisingly good food. Have never had a problem with the rooms. The breakfast associates even remembered my order from the previous day. The guys at the bar were fun, had a burger one night and ribs the next. Will definitely be staying here again when I am in town.More</t>
   </si>
   <si>
+    <t>mmfirmin</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g56463-d106480-r180703016-Courtyard_by_Marriott_Dallas_Plano_in_Legacy_Park-Plano_Texas.html</t>
   </si>
   <si>
@@ -2361,6 +2631,9 @@
     <t>We stayed here for 5 days on a business trip. The hotel is very conveniently located, the rooms are clean and comfortable and the food is limited but tasty. The staff is the tops. Very pleasant, friendly and helpful. top marks to Lily at the front desk and Alexandra from housekeeping. I'll stay here and again and I highly recommend this hotel. More</t>
   </si>
   <si>
+    <t>Bilal A</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g56463-d106480-r176669530-Courtyard_by_Marriott_Dallas_Plano_in_Legacy_Park-Plano_Texas.html</t>
   </si>
   <si>
@@ -2382,6 +2655,9 @@
     <t>I recently had a house fire and my family of 5 stayed at this hotel. The staff was amazing, Lucinda, the general manager, made sure we were very comfortable and was very accomodating during our stay.  During this extremely stressfull time the staff at Courtyard Marriott Plano did their very best to make sure that our living situation was the least of our worry's. Loved the fresh strawberries every morning!!! I would absuletly stay here again.More</t>
   </si>
   <si>
+    <t>lovestotravel894</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g56463-d106480-r165268410-Courtyard_by_Marriott_Dallas_Plano_in_Legacy_Park-Plano_Texas.html</t>
   </si>
   <si>
@@ -2431,6 +2707,9 @@
   </si>
   <si>
     <t>We have stayed at this hotel several times.  Overall a very nice place to stay, if I had any complaints it would be there is no free coffee in the lobby, you have to purchase it at the Bistro.  You have a coffee maker in your room, but I enjoy going to the lobby and having coffee there when I stay.  I don't mind paying for coffee but seems a little outdated as most hotels now days do not make you pay for coffee.More</t>
+  </si>
+  <si>
+    <t>Linda R</t>
   </si>
   <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g56463-d106480-r151345729-Courtyard_by_Marriott_Dallas_Plano_in_Legacy_Park-Plano_Texas.html</t>
@@ -2959,43 +3238,47 @@
       <c r="A2" t="n">
         <v>37377</v>
       </c>
-      <c r="B2" t="s"/>
-      <c r="C2" t="s"/>
+      <c r="B2" t="n">
+        <v>127129</v>
+      </c>
+      <c r="C2" t="s">
+        <v>44</v>
+      </c>
       <c r="D2" t="n">
         <v>1</v>
       </c>
       <c r="E2" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F2" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="G2" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H2" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I2" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="J2" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="K2" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="L2" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="M2" t="n">
         <v>4</v>
       </c>
       <c r="N2" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="O2" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="P2" t="n">
         <v>3</v>
@@ -3013,56 +3296,60 @@
         <v>0</v>
       </c>
       <c r="W2" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="X2" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="Y2" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="n">
         <v>37377</v>
       </c>
-      <c r="B3" t="s"/>
-      <c r="C3" t="s"/>
+      <c r="B3" t="n">
+        <v>3071</v>
+      </c>
+      <c r="C3" t="s">
+        <v>58</v>
+      </c>
       <c r="D3" t="n">
         <v>2</v>
       </c>
       <c r="E3" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F3" t="s">
-        <v>57</v>
+        <v>59</v>
       </c>
       <c r="G3" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H3" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I3" t="s">
-        <v>58</v>
+        <v>60</v>
       </c>
       <c r="J3" t="s">
-        <v>59</v>
+        <v>61</v>
       </c>
       <c r="K3" t="s">
-        <v>60</v>
+        <v>62</v>
       </c>
       <c r="L3" t="s">
-        <v>61</v>
+        <v>63</v>
       </c>
       <c r="M3" t="n">
         <v>4</v>
       </c>
       <c r="N3" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="O3" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="P3" t="s"/>
       <c r="Q3" t="n">
@@ -3082,50 +3369,54 @@
       <c r="W3" t="s"/>
       <c r="X3" t="s"/>
       <c r="Y3" t="s">
-        <v>61</v>
+        <v>63</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="n">
         <v>37377</v>
       </c>
-      <c r="B4" t="s"/>
-      <c r="C4" t="s"/>
+      <c r="B4" t="n">
+        <v>127130</v>
+      </c>
+      <c r="C4" t="s">
+        <v>64</v>
+      </c>
       <c r="D4" t="n">
         <v>3</v>
       </c>
       <c r="E4" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F4" t="s">
-        <v>62</v>
+        <v>65</v>
       </c>
       <c r="G4" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H4" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I4" t="s">
-        <v>63</v>
+        <v>66</v>
       </c>
       <c r="J4" t="s">
-        <v>64</v>
+        <v>67</v>
       </c>
       <c r="K4" t="s">
-        <v>65</v>
+        <v>68</v>
       </c>
       <c r="L4" t="s">
-        <v>66</v>
+        <v>69</v>
       </c>
       <c r="M4" t="n">
         <v>4</v>
       </c>
       <c r="N4" t="s">
-        <v>67</v>
+        <v>70</v>
       </c>
       <c r="O4" t="s">
-        <v>68</v>
+        <v>71</v>
       </c>
       <c r="P4" t="s"/>
       <c r="Q4" t="s"/>
@@ -3137,56 +3428,60 @@
         <v>0</v>
       </c>
       <c r="W4" t="s">
-        <v>69</v>
+        <v>72</v>
       </c>
       <c r="X4" t="s">
-        <v>70</v>
+        <v>73</v>
       </c>
       <c r="Y4" t="s">
-        <v>71</v>
+        <v>74</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="n">
         <v>37377</v>
       </c>
-      <c r="B5" t="s"/>
-      <c r="C5" t="s"/>
+      <c r="B5" t="n">
+        <v>66883</v>
+      </c>
+      <c r="C5" t="s">
+        <v>75</v>
+      </c>
       <c r="D5" t="n">
         <v>4</v>
       </c>
       <c r="E5" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F5" t="s">
-        <v>72</v>
+        <v>76</v>
       </c>
       <c r="G5" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H5" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I5" t="s">
-        <v>73</v>
+        <v>77</v>
       </c>
       <c r="J5" t="s">
-        <v>74</v>
+        <v>78</v>
       </c>
       <c r="K5" t="s">
-        <v>75</v>
+        <v>79</v>
       </c>
       <c r="L5" t="s">
-        <v>76</v>
+        <v>80</v>
       </c>
       <c r="M5" t="n">
         <v>2</v>
       </c>
       <c r="N5" t="s">
-        <v>77</v>
+        <v>81</v>
       </c>
       <c r="O5" t="s">
-        <v>78</v>
+        <v>82</v>
       </c>
       <c r="P5" t="s"/>
       <c r="Q5" t="s"/>
@@ -3204,56 +3499,60 @@
         <v>0</v>
       </c>
       <c r="W5" t="s">
-        <v>79</v>
+        <v>83</v>
       </c>
       <c r="X5" t="s">
-        <v>80</v>
+        <v>84</v>
       </c>
       <c r="Y5" t="s">
-        <v>81</v>
+        <v>85</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="n">
         <v>37377</v>
       </c>
-      <c r="B6" t="s"/>
-      <c r="C6" t="s"/>
+      <c r="B6" t="n">
+        <v>127131</v>
+      </c>
+      <c r="C6" t="s">
+        <v>86</v>
+      </c>
       <c r="D6" t="n">
         <v>5</v>
       </c>
       <c r="E6" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F6" t="s">
+        <v>87</v>
+      </c>
+      <c r="G6" t="s">
+        <v>47</v>
+      </c>
+      <c r="H6" t="s">
+        <v>48</v>
+      </c>
+      <c r="I6" t="s">
+        <v>88</v>
+      </c>
+      <c r="J6" t="s">
+        <v>89</v>
+      </c>
+      <c r="K6" t="s">
+        <v>90</v>
+      </c>
+      <c r="L6" t="s">
+        <v>91</v>
+      </c>
+      <c r="M6" t="n">
+        <v>5</v>
+      </c>
+      <c r="N6" t="s">
+        <v>92</v>
+      </c>
+      <c r="O6" t="s">
         <v>82</v>
-      </c>
-      <c r="G6" t="s">
-        <v>46</v>
-      </c>
-      <c r="H6" t="s">
-        <v>47</v>
-      </c>
-      <c r="I6" t="s">
-        <v>83</v>
-      </c>
-      <c r="J6" t="s">
-        <v>84</v>
-      </c>
-      <c r="K6" t="s">
-        <v>85</v>
-      </c>
-      <c r="L6" t="s">
-        <v>86</v>
-      </c>
-      <c r="M6" t="n">
-        <v>5</v>
-      </c>
-      <c r="N6" t="s">
-        <v>87</v>
-      </c>
-      <c r="O6" t="s">
-        <v>78</v>
       </c>
       <c r="P6" t="s"/>
       <c r="Q6" t="s"/>
@@ -3265,56 +3564,60 @@
         <v>0</v>
       </c>
       <c r="W6" t="s">
-        <v>88</v>
+        <v>93</v>
       </c>
       <c r="X6" t="s">
-        <v>89</v>
+        <v>94</v>
       </c>
       <c r="Y6" t="s">
-        <v>90</v>
+        <v>95</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="n">
         <v>37377</v>
       </c>
-      <c r="B7" t="s"/>
-      <c r="C7" t="s"/>
+      <c r="B7" t="n">
+        <v>127132</v>
+      </c>
+      <c r="C7" t="s">
+        <v>96</v>
+      </c>
       <c r="D7" t="n">
         <v>6</v>
       </c>
       <c r="E7" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F7" t="s">
-        <v>91</v>
+        <v>97</v>
       </c>
       <c r="G7" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H7" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I7" t="s">
+        <v>98</v>
+      </c>
+      <c r="J7" t="s">
+        <v>99</v>
+      </c>
+      <c r="K7" t="s">
+        <v>100</v>
+      </c>
+      <c r="L7" t="s">
+        <v>101</v>
+      </c>
+      <c r="M7" t="n">
+        <v>4</v>
+      </c>
+      <c r="N7" t="s">
         <v>92</v>
       </c>
-      <c r="J7" t="s">
-        <v>93</v>
-      </c>
-      <c r="K7" t="s">
-        <v>94</v>
-      </c>
-      <c r="L7" t="s">
-        <v>95</v>
-      </c>
-      <c r="M7" t="n">
-        <v>4</v>
-      </c>
-      <c r="N7" t="s">
-        <v>87</v>
-      </c>
       <c r="O7" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="P7" t="s"/>
       <c r="Q7" t="n">
@@ -3332,56 +3635,60 @@
         <v>0</v>
       </c>
       <c r="W7" t="s">
-        <v>96</v>
+        <v>102</v>
       </c>
       <c r="X7" t="s">
-        <v>97</v>
+        <v>103</v>
       </c>
       <c r="Y7" t="s">
-        <v>98</v>
+        <v>104</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="n">
         <v>37377</v>
       </c>
-      <c r="B8" t="s"/>
-      <c r="C8" t="s"/>
+      <c r="B8" t="n">
+        <v>127133</v>
+      </c>
+      <c r="C8" t="s">
+        <v>105</v>
+      </c>
       <c r="D8" t="n">
         <v>7</v>
       </c>
       <c r="E8" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F8" t="s">
-        <v>99</v>
+        <v>106</v>
       </c>
       <c r="G8" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H8" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I8" t="s">
-        <v>100</v>
+        <v>107</v>
       </c>
       <c r="J8" t="s">
-        <v>101</v>
+        <v>108</v>
       </c>
       <c r="K8" t="s">
-        <v>102</v>
+        <v>109</v>
       </c>
       <c r="L8" t="s">
-        <v>103</v>
+        <v>110</v>
       </c>
       <c r="M8" t="n">
         <v>5</v>
       </c>
       <c r="N8" t="s">
-        <v>87</v>
+        <v>92</v>
       </c>
       <c r="O8" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="P8" t="n">
         <v>4</v>
@@ -3399,56 +3706,60 @@
         <v>0</v>
       </c>
       <c r="W8" t="s">
-        <v>104</v>
+        <v>111</v>
       </c>
       <c r="X8" t="s">
-        <v>105</v>
+        <v>112</v>
       </c>
       <c r="Y8" t="s">
-        <v>106</v>
+        <v>113</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="n">
         <v>37377</v>
       </c>
-      <c r="B9" t="s"/>
-      <c r="C9" t="s"/>
+      <c r="B9" t="n">
+        <v>95129</v>
+      </c>
+      <c r="C9" t="s">
+        <v>114</v>
+      </c>
       <c r="D9" t="n">
         <v>8</v>
       </c>
       <c r="E9" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F9" t="s">
-        <v>107</v>
+        <v>115</v>
       </c>
       <c r="G9" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H9" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I9" t="s">
-        <v>108</v>
+        <v>116</v>
       </c>
       <c r="J9" t="s">
-        <v>109</v>
+        <v>117</v>
       </c>
       <c r="K9" t="s">
-        <v>110</v>
+        <v>118</v>
       </c>
       <c r="L9" t="s">
-        <v>111</v>
+        <v>119</v>
       </c>
       <c r="M9" t="n">
         <v>3</v>
       </c>
       <c r="N9" t="s">
-        <v>112</v>
+        <v>120</v>
       </c>
       <c r="O9" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="P9" t="n">
         <v>3</v>
@@ -3464,56 +3775,60 @@
         <v>0</v>
       </c>
       <c r="W9" t="s">
-        <v>113</v>
+        <v>121</v>
       </c>
       <c r="X9" t="s">
-        <v>114</v>
+        <v>122</v>
       </c>
       <c r="Y9" t="s">
-        <v>115</v>
+        <v>123</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="n">
         <v>37377</v>
       </c>
-      <c r="B10" t="s"/>
-      <c r="C10" t="s"/>
+      <c r="B10" t="n">
+        <v>127134</v>
+      </c>
+      <c r="C10" t="s">
+        <v>124</v>
+      </c>
       <c r="D10" t="n">
         <v>9</v>
       </c>
       <c r="E10" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F10" t="s">
-        <v>116</v>
+        <v>125</v>
       </c>
       <c r="G10" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H10" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I10" t="s">
-        <v>117</v>
+        <v>126</v>
       </c>
       <c r="J10" t="s">
-        <v>118</v>
+        <v>127</v>
       </c>
       <c r="K10" t="s">
-        <v>119</v>
+        <v>128</v>
       </c>
       <c r="L10" t="s">
-        <v>120</v>
+        <v>129</v>
       </c>
       <c r="M10" t="n">
         <v>4</v>
       </c>
       <c r="N10" t="s">
-        <v>121</v>
+        <v>130</v>
       </c>
       <c r="O10" t="s">
-        <v>78</v>
+        <v>82</v>
       </c>
       <c r="P10" t="s"/>
       <c r="Q10" t="s"/>
@@ -3525,56 +3840,60 @@
         <v>0</v>
       </c>
       <c r="W10" t="s">
-        <v>122</v>
+        <v>131</v>
       </c>
       <c r="X10" t="s">
-        <v>123</v>
+        <v>132</v>
       </c>
       <c r="Y10" t="s">
-        <v>124</v>
+        <v>133</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="n">
         <v>37377</v>
       </c>
-      <c r="B11" t="s"/>
-      <c r="C11" t="s"/>
+      <c r="B11" t="n">
+        <v>127135</v>
+      </c>
+      <c r="C11" t="s">
+        <v>134</v>
+      </c>
       <c r="D11" t="n">
         <v>10</v>
       </c>
       <c r="E11" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F11" t="s">
-        <v>125</v>
+        <v>135</v>
       </c>
       <c r="G11" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H11" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I11" t="s">
-        <v>126</v>
+        <v>136</v>
       </c>
       <c r="J11" t="s">
-        <v>127</v>
+        <v>137</v>
       </c>
       <c r="K11" t="s">
-        <v>128</v>
+        <v>138</v>
       </c>
       <c r="L11" t="s">
-        <v>129</v>
+        <v>139</v>
       </c>
       <c r="M11" t="n">
         <v>5</v>
       </c>
       <c r="N11" t="s">
-        <v>121</v>
+        <v>130</v>
       </c>
       <c r="O11" t="s">
-        <v>68</v>
+        <v>71</v>
       </c>
       <c r="P11" t="s"/>
       <c r="Q11" t="n">
@@ -3592,56 +3911,60 @@
         <v>0</v>
       </c>
       <c r="W11" t="s">
-        <v>130</v>
+        <v>140</v>
       </c>
       <c r="X11" t="s">
-        <v>131</v>
+        <v>141</v>
       </c>
       <c r="Y11" t="s">
-        <v>132</v>
+        <v>142</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="n">
         <v>37377</v>
       </c>
-      <c r="B12" t="s"/>
-      <c r="C12" t="s"/>
+      <c r="B12" t="n">
+        <v>87654</v>
+      </c>
+      <c r="C12" t="s">
+        <v>143</v>
+      </c>
       <c r="D12" t="n">
         <v>11</v>
       </c>
       <c r="E12" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F12" t="s">
-        <v>133</v>
+        <v>144</v>
       </c>
       <c r="G12" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H12" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I12" t="s">
-        <v>134</v>
+        <v>145</v>
       </c>
       <c r="J12" t="s">
-        <v>135</v>
+        <v>146</v>
       </c>
       <c r="K12" t="s">
-        <v>136</v>
+        <v>147</v>
       </c>
       <c r="L12" t="s">
-        <v>137</v>
+        <v>148</v>
       </c>
       <c r="M12" t="n">
         <v>4</v>
       </c>
       <c r="N12" t="s">
-        <v>121</v>
+        <v>130</v>
       </c>
       <c r="O12" t="s">
-        <v>78</v>
+        <v>82</v>
       </c>
       <c r="P12" t="s"/>
       <c r="Q12" t="s"/>
@@ -3653,56 +3976,60 @@
         <v>0</v>
       </c>
       <c r="W12" t="s">
-        <v>138</v>
+        <v>149</v>
       </c>
       <c r="X12" t="s">
-        <v>139</v>
+        <v>150</v>
       </c>
       <c r="Y12" t="s">
-        <v>140</v>
+        <v>151</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" t="n">
         <v>37377</v>
       </c>
-      <c r="B13" t="s"/>
-      <c r="C13" t="s"/>
+      <c r="B13" t="n">
+        <v>127136</v>
+      </c>
+      <c r="C13" t="s">
+        <v>152</v>
+      </c>
       <c r="D13" t="n">
         <v>12</v>
       </c>
       <c r="E13" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F13" t="s">
-        <v>141</v>
+        <v>153</v>
       </c>
       <c r="G13" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H13" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I13" t="s">
-        <v>142</v>
+        <v>154</v>
       </c>
       <c r="J13" t="s">
-        <v>143</v>
+        <v>155</v>
       </c>
       <c r="K13" t="s">
-        <v>144</v>
+        <v>156</v>
       </c>
       <c r="L13" t="s">
-        <v>145</v>
+        <v>157</v>
       </c>
       <c r="M13" t="n">
         <v>5</v>
       </c>
       <c r="N13" t="s">
-        <v>146</v>
+        <v>158</v>
       </c>
       <c r="O13" t="s">
-        <v>68</v>
+        <v>71</v>
       </c>
       <c r="P13" t="n">
         <v>5</v>
@@ -3718,56 +4045,60 @@
         <v>0</v>
       </c>
       <c r="W13" t="s">
-        <v>147</v>
+        <v>159</v>
       </c>
       <c r="X13" t="s">
-        <v>148</v>
+        <v>160</v>
       </c>
       <c r="Y13" t="s">
-        <v>149</v>
+        <v>161</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" t="n">
         <v>37377</v>
       </c>
-      <c r="B14" t="s"/>
-      <c r="C14" t="s"/>
+      <c r="B14" t="n">
+        <v>127137</v>
+      </c>
+      <c r="C14" t="s">
+        <v>162</v>
+      </c>
       <c r="D14" t="n">
         <v>13</v>
       </c>
       <c r="E14" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F14" t="s">
-        <v>150</v>
+        <v>163</v>
       </c>
       <c r="G14" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H14" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I14" t="s">
-        <v>151</v>
+        <v>164</v>
       </c>
       <c r="J14" t="s">
-        <v>143</v>
+        <v>155</v>
       </c>
       <c r="K14" t="s">
-        <v>152</v>
+        <v>165</v>
       </c>
       <c r="L14" t="s">
-        <v>153</v>
+        <v>166</v>
       </c>
       <c r="M14" t="n">
         <v>5</v>
       </c>
       <c r="N14" t="s">
-        <v>154</v>
+        <v>167</v>
       </c>
       <c r="O14" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="P14" t="s"/>
       <c r="Q14" t="n">
@@ -3785,47 +4116,51 @@
         <v>0</v>
       </c>
       <c r="W14" t="s">
-        <v>147</v>
+        <v>159</v>
       </c>
       <c r="X14" t="s">
-        <v>148</v>
+        <v>160</v>
       </c>
       <c r="Y14" t="s">
-        <v>155</v>
+        <v>168</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" t="n">
         <v>37377</v>
       </c>
-      <c r="B15" t="s"/>
-      <c r="C15" t="s"/>
+      <c r="B15" t="n">
+        <v>53674</v>
+      </c>
+      <c r="C15" t="s">
+        <v>169</v>
+      </c>
       <c r="D15" t="n">
         <v>14</v>
       </c>
       <c r="E15" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F15" t="s">
-        <v>156</v>
+        <v>170</v>
       </c>
       <c r="G15" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H15" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I15" t="s">
-        <v>157</v>
+        <v>171</v>
       </c>
       <c r="J15" t="s">
-        <v>158</v>
+        <v>172</v>
       </c>
       <c r="K15" t="s">
-        <v>159</v>
+        <v>173</v>
       </c>
       <c r="L15" t="s">
-        <v>160</v>
+        <v>174</v>
       </c>
       <c r="M15" t="n">
         <v>5</v>
@@ -3842,56 +4177,60 @@
         <v>0</v>
       </c>
       <c r="W15" t="s">
-        <v>161</v>
+        <v>175</v>
       </c>
       <c r="X15" t="s">
-        <v>162</v>
+        <v>176</v>
       </c>
       <c r="Y15" t="s">
-        <v>163</v>
+        <v>177</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" t="n">
         <v>37377</v>
       </c>
-      <c r="B16" t="s"/>
-      <c r="C16" t="s"/>
+      <c r="B16" t="n">
+        <v>127138</v>
+      </c>
+      <c r="C16" t="s">
+        <v>178</v>
+      </c>
       <c r="D16" t="n">
         <v>15</v>
       </c>
       <c r="E16" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F16" t="s">
-        <v>164</v>
+        <v>179</v>
       </c>
       <c r="G16" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H16" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I16" t="s">
-        <v>165</v>
+        <v>180</v>
       </c>
       <c r="J16" t="s">
-        <v>166</v>
+        <v>181</v>
       </c>
       <c r="K16" t="s">
-        <v>167</v>
+        <v>182</v>
       </c>
       <c r="L16" t="s">
-        <v>168</v>
+        <v>183</v>
       </c>
       <c r="M16" t="n">
         <v>4</v>
       </c>
       <c r="N16" t="s">
-        <v>146</v>
+        <v>158</v>
       </c>
       <c r="O16" t="s">
-        <v>78</v>
+        <v>82</v>
       </c>
       <c r="P16" t="n">
         <v>3</v>
@@ -3907,56 +4246,60 @@
         <v>0</v>
       </c>
       <c r="W16" t="s">
-        <v>169</v>
+        <v>184</v>
       </c>
       <c r="X16" t="s">
-        <v>170</v>
+        <v>185</v>
       </c>
       <c r="Y16" t="s">
-        <v>171</v>
+        <v>186</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" t="n">
         <v>37377</v>
       </c>
-      <c r="B17" t="s"/>
-      <c r="C17" t="s"/>
+      <c r="B17" t="n">
+        <v>15365</v>
+      </c>
+      <c r="C17" t="s">
+        <v>187</v>
+      </c>
       <c r="D17" t="n">
         <v>16</v>
       </c>
       <c r="E17" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F17" t="s">
-        <v>172</v>
+        <v>188</v>
       </c>
       <c r="G17" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H17" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I17" t="s">
-        <v>173</v>
+        <v>189</v>
       </c>
       <c r="J17" t="s">
-        <v>174</v>
+        <v>190</v>
       </c>
       <c r="K17" t="s">
-        <v>175</v>
+        <v>191</v>
       </c>
       <c r="L17" t="s">
-        <v>176</v>
+        <v>192</v>
       </c>
       <c r="M17" t="n">
         <v>4</v>
       </c>
       <c r="N17" t="s">
-        <v>177</v>
+        <v>193</v>
       </c>
       <c r="O17" t="s">
-        <v>68</v>
+        <v>71</v>
       </c>
       <c r="P17" t="s"/>
       <c r="Q17" t="n">
@@ -3974,56 +4317,60 @@
         <v>0</v>
       </c>
       <c r="W17" t="s">
-        <v>178</v>
+        <v>194</v>
       </c>
       <c r="X17" t="s">
-        <v>179</v>
+        <v>195</v>
       </c>
       <c r="Y17" t="s">
-        <v>180</v>
+        <v>196</v>
       </c>
     </row>
     <row r="18">
       <c r="A18" t="n">
         <v>37377</v>
       </c>
-      <c r="B18" t="s"/>
-      <c r="C18" t="s"/>
+      <c r="B18" t="n">
+        <v>127139</v>
+      </c>
+      <c r="C18" t="s">
+        <v>197</v>
+      </c>
       <c r="D18" t="n">
         <v>17</v>
       </c>
       <c r="E18" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F18" t="s">
-        <v>181</v>
+        <v>198</v>
       </c>
       <c r="G18" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H18" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I18" t="s">
-        <v>182</v>
+        <v>199</v>
       </c>
       <c r="J18" t="s">
-        <v>183</v>
+        <v>200</v>
       </c>
       <c r="K18" t="s">
-        <v>184</v>
+        <v>201</v>
       </c>
       <c r="L18" t="s">
-        <v>185</v>
+        <v>202</v>
       </c>
       <c r="M18" t="n">
         <v>2</v>
       </c>
       <c r="N18" t="s">
-        <v>177</v>
+        <v>193</v>
       </c>
       <c r="O18" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="P18" t="s"/>
       <c r="Q18" t="s"/>
@@ -4041,56 +4388,60 @@
         <v>0</v>
       </c>
       <c r="W18" t="s">
-        <v>186</v>
+        <v>203</v>
       </c>
       <c r="X18" t="s">
-        <v>187</v>
+        <v>204</v>
       </c>
       <c r="Y18" t="s">
-        <v>188</v>
+        <v>205</v>
       </c>
     </row>
     <row r="19">
       <c r="A19" t="n">
         <v>37377</v>
       </c>
-      <c r="B19" t="s"/>
-      <c r="C19" t="s"/>
+      <c r="B19" t="n">
+        <v>24000</v>
+      </c>
+      <c r="C19" t="s">
+        <v>206</v>
+      </c>
       <c r="D19" t="n">
         <v>18</v>
       </c>
       <c r="E19" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F19" t="s">
-        <v>189</v>
+        <v>207</v>
       </c>
       <c r="G19" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H19" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I19" t="s">
-        <v>190</v>
+        <v>208</v>
       </c>
       <c r="J19" t="s">
-        <v>191</v>
+        <v>209</v>
       </c>
       <c r="K19" t="s">
-        <v>192</v>
+        <v>210</v>
       </c>
       <c r="L19" t="s">
-        <v>193</v>
+        <v>211</v>
       </c>
       <c r="M19" t="n">
         <v>3</v>
       </c>
       <c r="N19" t="s">
-        <v>194</v>
+        <v>212</v>
       </c>
       <c r="O19" t="s">
-        <v>78</v>
+        <v>82</v>
       </c>
       <c r="P19" t="s"/>
       <c r="Q19" t="s"/>
@@ -4106,56 +4457,60 @@
         <v>0</v>
       </c>
       <c r="W19" t="s">
-        <v>195</v>
+        <v>213</v>
       </c>
       <c r="X19" t="s">
-        <v>196</v>
+        <v>214</v>
       </c>
       <c r="Y19" t="s">
-        <v>197</v>
+        <v>215</v>
       </c>
     </row>
     <row r="20">
       <c r="A20" t="n">
         <v>37377</v>
       </c>
-      <c r="B20" t="s"/>
-      <c r="C20" t="s"/>
+      <c r="B20" t="n">
+        <v>5126</v>
+      </c>
+      <c r="C20" t="s">
+        <v>216</v>
+      </c>
       <c r="D20" t="n">
         <v>19</v>
       </c>
       <c r="E20" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F20" t="s">
-        <v>198</v>
+        <v>217</v>
       </c>
       <c r="G20" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H20" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I20" t="s">
-        <v>199</v>
+        <v>218</v>
       </c>
       <c r="J20" t="s">
-        <v>200</v>
+        <v>219</v>
       </c>
       <c r="K20" t="s">
-        <v>201</v>
+        <v>220</v>
       </c>
       <c r="L20" t="s">
-        <v>202</v>
+        <v>221</v>
       </c>
       <c r="M20" t="n">
         <v>4</v>
       </c>
       <c r="N20" t="s">
-        <v>203</v>
+        <v>222</v>
       </c>
       <c r="O20" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="P20" t="s"/>
       <c r="Q20" t="s"/>
@@ -4167,56 +4522,60 @@
         <v>0</v>
       </c>
       <c r="W20" t="s">
-        <v>204</v>
+        <v>223</v>
       </c>
       <c r="X20" t="s">
-        <v>205</v>
+        <v>224</v>
       </c>
       <c r="Y20" t="s">
-        <v>206</v>
+        <v>225</v>
       </c>
     </row>
     <row r="21">
       <c r="A21" t="n">
         <v>37377</v>
       </c>
-      <c r="B21" t="s"/>
-      <c r="C21" t="s"/>
+      <c r="B21" t="n">
+        <v>127140</v>
+      </c>
+      <c r="C21" t="s">
+        <v>226</v>
+      </c>
       <c r="D21" t="n">
         <v>20</v>
       </c>
       <c r="E21" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F21" t="s">
-        <v>207</v>
+        <v>227</v>
       </c>
       <c r="G21" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H21" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I21" t="s">
-        <v>208</v>
+        <v>228</v>
       </c>
       <c r="J21" t="s">
-        <v>209</v>
+        <v>229</v>
       </c>
       <c r="K21" t="s">
-        <v>210</v>
+        <v>230</v>
       </c>
       <c r="L21" t="s">
-        <v>211</v>
+        <v>231</v>
       </c>
       <c r="M21" t="n">
         <v>4</v>
       </c>
       <c r="N21" t="s">
-        <v>203</v>
+        <v>222</v>
       </c>
       <c r="O21" t="s">
-        <v>212</v>
+        <v>232</v>
       </c>
       <c r="P21" t="s"/>
       <c r="Q21" t="s"/>
@@ -4228,56 +4587,60 @@
         <v>0</v>
       </c>
       <c r="W21" t="s">
-        <v>213</v>
+        <v>233</v>
       </c>
       <c r="X21" t="s">
-        <v>214</v>
+        <v>234</v>
       </c>
       <c r="Y21" t="s">
-        <v>215</v>
+        <v>235</v>
       </c>
     </row>
     <row r="22">
       <c r="A22" t="n">
         <v>37377</v>
       </c>
-      <c r="B22" t="s"/>
-      <c r="C22" t="s"/>
+      <c r="B22" t="n">
+        <v>127141</v>
+      </c>
+      <c r="C22" t="s">
+        <v>236</v>
+      </c>
       <c r="D22" t="n">
         <v>21</v>
       </c>
       <c r="E22" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F22" t="s">
-        <v>216</v>
+        <v>237</v>
       </c>
       <c r="G22" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H22" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I22" t="s">
-        <v>217</v>
+        <v>238</v>
       </c>
       <c r="J22" t="s">
-        <v>218</v>
+        <v>239</v>
       </c>
       <c r="K22" t="s">
-        <v>219</v>
+        <v>240</v>
       </c>
       <c r="L22" t="s">
-        <v>220</v>
+        <v>241</v>
       </c>
       <c r="M22" t="n">
         <v>3</v>
       </c>
       <c r="N22" t="s">
-        <v>221</v>
+        <v>242</v>
       </c>
       <c r="O22" t="s">
-        <v>212</v>
+        <v>232</v>
       </c>
       <c r="P22" t="n">
         <v>2</v>
@@ -4295,56 +4658,60 @@
         <v>0</v>
       </c>
       <c r="W22" t="s">
-        <v>222</v>
+        <v>243</v>
       </c>
       <c r="X22" t="s">
-        <v>223</v>
+        <v>244</v>
       </c>
       <c r="Y22" t="s">
-        <v>224</v>
+        <v>245</v>
       </c>
     </row>
     <row r="23">
       <c r="A23" t="n">
         <v>37377</v>
       </c>
-      <c r="B23" t="s"/>
-      <c r="C23" t="s"/>
+      <c r="B23" t="n">
+        <v>127142</v>
+      </c>
+      <c r="C23" t="s">
+        <v>246</v>
+      </c>
       <c r="D23" t="n">
         <v>22</v>
       </c>
       <c r="E23" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F23" t="s">
-        <v>225</v>
+        <v>247</v>
       </c>
       <c r="G23" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H23" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I23" t="s">
-        <v>226</v>
+        <v>248</v>
       </c>
       <c r="J23" t="s">
-        <v>227</v>
+        <v>249</v>
       </c>
       <c r="K23" t="s">
-        <v>228</v>
+        <v>250</v>
       </c>
       <c r="L23" t="s">
-        <v>229</v>
+        <v>251</v>
       </c>
       <c r="M23" t="n">
         <v>1</v>
       </c>
       <c r="N23" t="s">
-        <v>230</v>
+        <v>252</v>
       </c>
       <c r="O23" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="P23" t="s"/>
       <c r="Q23" t="s"/>
@@ -4356,56 +4723,60 @@
         <v>0</v>
       </c>
       <c r="W23" t="s">
-        <v>231</v>
+        <v>253</v>
       </c>
       <c r="X23" t="s">
-        <v>232</v>
+        <v>254</v>
       </c>
       <c r="Y23" t="s">
-        <v>233</v>
+        <v>255</v>
       </c>
     </row>
     <row r="24">
       <c r="A24" t="n">
         <v>37377</v>
       </c>
-      <c r="B24" t="s"/>
-      <c r="C24" t="s"/>
+      <c r="B24" t="n">
+        <v>127143</v>
+      </c>
+      <c r="C24" t="s">
+        <v>256</v>
+      </c>
       <c r="D24" t="n">
         <v>23</v>
       </c>
       <c r="E24" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F24" t="s">
-        <v>234</v>
+        <v>257</v>
       </c>
       <c r="G24" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H24" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I24" t="s">
-        <v>235</v>
+        <v>258</v>
       </c>
       <c r="J24" t="s">
-        <v>236</v>
+        <v>259</v>
       </c>
       <c r="K24" t="s">
-        <v>237</v>
+        <v>260</v>
       </c>
       <c r="L24" t="s">
-        <v>238</v>
+        <v>261</v>
       </c>
       <c r="M24" t="n">
         <v>4</v>
       </c>
       <c r="N24" t="s">
-        <v>230</v>
+        <v>252</v>
       </c>
       <c r="O24" t="s">
-        <v>212</v>
+        <v>232</v>
       </c>
       <c r="P24" t="s"/>
       <c r="Q24" t="s"/>
@@ -4421,56 +4792,60 @@
         <v>0</v>
       </c>
       <c r="W24" t="s">
-        <v>239</v>
+        <v>262</v>
       </c>
       <c r="X24" t="s">
-        <v>240</v>
+        <v>263</v>
       </c>
       <c r="Y24" t="s">
-        <v>241</v>
+        <v>264</v>
       </c>
     </row>
     <row r="25">
       <c r="A25" t="n">
         <v>37377</v>
       </c>
-      <c r="B25" t="s"/>
-      <c r="C25" t="s"/>
+      <c r="B25" t="n">
+        <v>127144</v>
+      </c>
+      <c r="C25" t="s">
+        <v>265</v>
+      </c>
       <c r="D25" t="n">
         <v>24</v>
       </c>
       <c r="E25" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F25" t="s">
-        <v>242</v>
+        <v>266</v>
       </c>
       <c r="G25" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H25" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I25" t="s">
-        <v>243</v>
+        <v>267</v>
       </c>
       <c r="J25" t="s">
-        <v>244</v>
+        <v>268</v>
       </c>
       <c r="K25" t="s">
-        <v>245</v>
+        <v>269</v>
       </c>
       <c r="L25" t="s">
-        <v>246</v>
+        <v>270</v>
       </c>
       <c r="M25" t="n">
         <v>2</v>
       </c>
       <c r="N25" t="s">
-        <v>230</v>
+        <v>252</v>
       </c>
       <c r="O25" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="P25" t="s"/>
       <c r="Q25" t="s"/>
@@ -4482,56 +4857,60 @@
         <v>0</v>
       </c>
       <c r="W25" t="s">
-        <v>247</v>
+        <v>271</v>
       </c>
       <c r="X25" t="s">
-        <v>248</v>
+        <v>272</v>
       </c>
       <c r="Y25" t="s">
-        <v>249</v>
+        <v>273</v>
       </c>
     </row>
     <row r="26">
       <c r="A26" t="n">
         <v>37377</v>
       </c>
-      <c r="B26" t="s"/>
-      <c r="C26" t="s"/>
+      <c r="B26" t="n">
+        <v>639</v>
+      </c>
+      <c r="C26" t="s">
+        <v>274</v>
+      </c>
       <c r="D26" t="n">
         <v>25</v>
       </c>
       <c r="E26" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F26" t="s">
-        <v>250</v>
+        <v>275</v>
       </c>
       <c r="G26" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H26" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I26" t="s">
-        <v>251</v>
+        <v>276</v>
       </c>
       <c r="J26" t="s">
-        <v>252</v>
+        <v>277</v>
       </c>
       <c r="K26" t="s">
-        <v>253</v>
+        <v>278</v>
       </c>
       <c r="L26" t="s">
-        <v>254</v>
+        <v>279</v>
       </c>
       <c r="M26" t="n">
         <v>3</v>
       </c>
       <c r="N26" t="s">
-        <v>230</v>
+        <v>252</v>
       </c>
       <c r="O26" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="P26" t="s"/>
       <c r="Q26" t="s"/>
@@ -4543,56 +4922,60 @@
         <v>0</v>
       </c>
       <c r="W26" t="s">
-        <v>255</v>
+        <v>280</v>
       </c>
       <c r="X26" t="s">
-        <v>256</v>
+        <v>281</v>
       </c>
       <c r="Y26" t="s">
-        <v>257</v>
+        <v>282</v>
       </c>
     </row>
     <row r="27">
       <c r="A27" t="n">
         <v>37377</v>
       </c>
-      <c r="B27" t="s"/>
-      <c r="C27" t="s"/>
+      <c r="B27" t="n">
+        <v>127145</v>
+      </c>
+      <c r="C27" t="s">
+        <v>283</v>
+      </c>
       <c r="D27" t="n">
         <v>26</v>
       </c>
       <c r="E27" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F27" t="s">
-        <v>258</v>
+        <v>284</v>
       </c>
       <c r="G27" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H27" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I27" t="s">
-        <v>259</v>
+        <v>285</v>
       </c>
       <c r="J27" t="s">
-        <v>260</v>
+        <v>286</v>
       </c>
       <c r="K27" t="s">
-        <v>261</v>
+        <v>287</v>
       </c>
       <c r="L27" t="s">
-        <v>262</v>
+        <v>288</v>
       </c>
       <c r="M27" t="n">
         <v>3</v>
       </c>
       <c r="N27" t="s">
-        <v>263</v>
+        <v>289</v>
       </c>
       <c r="O27" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="P27" t="n">
         <v>2</v>
@@ -4610,13 +4993,13 @@
         <v>0</v>
       </c>
       <c r="W27" t="s">
-        <v>264</v>
+        <v>290</v>
       </c>
       <c r="X27" t="s">
-        <v>265</v>
+        <v>291</v>
       </c>
       <c r="Y27" t="s">
-        <v>266</v>
+        <v>292</v>
       </c>
     </row>
     <row r="28">
@@ -4629,37 +5012,37 @@
         <v>27</v>
       </c>
       <c r="E28" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F28" t="s">
-        <v>267</v>
+        <v>293</v>
       </c>
       <c r="G28" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H28" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I28" t="s">
-        <v>268</v>
+        <v>294</v>
       </c>
       <c r="J28" t="s">
-        <v>269</v>
+        <v>295</v>
       </c>
       <c r="K28" t="s">
-        <v>270</v>
+        <v>296</v>
       </c>
       <c r="L28" t="s">
-        <v>271</v>
+        <v>297</v>
       </c>
       <c r="M28" t="n">
         <v>4</v>
       </c>
       <c r="N28" t="s">
-        <v>263</v>
+        <v>289</v>
       </c>
       <c r="O28" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="P28" t="n">
         <v>5</v>
@@ -4677,13 +5060,13 @@
         <v>0</v>
       </c>
       <c r="W28" t="s">
-        <v>272</v>
+        <v>298</v>
       </c>
       <c r="X28" t="s">
-        <v>273</v>
+        <v>299</v>
       </c>
       <c r="Y28" t="s">
-        <v>274</v>
+        <v>300</v>
       </c>
     </row>
     <row r="29">
@@ -4696,37 +5079,37 @@
         <v>28</v>
       </c>
       <c r="E29" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F29" t="s">
-        <v>275</v>
+        <v>301</v>
       </c>
       <c r="G29" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H29" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I29" t="s">
-        <v>276</v>
+        <v>302</v>
       </c>
       <c r="J29" t="s">
-        <v>277</v>
+        <v>303</v>
       </c>
       <c r="K29" t="s">
-        <v>278</v>
+        <v>304</v>
       </c>
       <c r="L29" t="s">
-        <v>279</v>
+        <v>305</v>
       </c>
       <c r="M29" t="n">
         <v>3</v>
       </c>
       <c r="N29" t="s">
-        <v>263</v>
+        <v>289</v>
       </c>
       <c r="O29" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="P29" t="n">
         <v>3</v>
@@ -4742,13 +5125,13 @@
         <v>0</v>
       </c>
       <c r="W29" t="s">
-        <v>280</v>
+        <v>306</v>
       </c>
       <c r="X29" t="s">
-        <v>281</v>
+        <v>307</v>
       </c>
       <c r="Y29" t="s">
-        <v>282</v>
+        <v>308</v>
       </c>
     </row>
     <row r="30">
@@ -4761,37 +5144,37 @@
         <v>29</v>
       </c>
       <c r="E30" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F30" t="s">
-        <v>283</v>
+        <v>309</v>
       </c>
       <c r="G30" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H30" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I30" t="s">
-        <v>284</v>
+        <v>310</v>
       </c>
       <c r="J30" t="s">
-        <v>285</v>
+        <v>311</v>
       </c>
       <c r="K30" t="s">
-        <v>286</v>
+        <v>312</v>
       </c>
       <c r="L30" t="s">
-        <v>287</v>
+        <v>313</v>
       </c>
       <c r="M30" t="n">
         <v>1</v>
       </c>
       <c r="N30" t="s">
-        <v>263</v>
+        <v>289</v>
       </c>
       <c r="O30" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="P30" t="n">
         <v>3</v>
@@ -4809,56 +5192,60 @@
         <v>0</v>
       </c>
       <c r="W30" t="s">
-        <v>288</v>
+        <v>314</v>
       </c>
       <c r="X30" t="s">
-        <v>289</v>
+        <v>315</v>
       </c>
       <c r="Y30" t="s">
-        <v>290</v>
+        <v>316</v>
       </c>
     </row>
     <row r="31">
       <c r="A31" t="n">
         <v>37377</v>
       </c>
-      <c r="B31" t="s"/>
-      <c r="C31" t="s"/>
+      <c r="B31" t="n">
+        <v>127146</v>
+      </c>
+      <c r="C31" t="s">
+        <v>317</v>
+      </c>
       <c r="D31" t="n">
         <v>30</v>
       </c>
       <c r="E31" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F31" t="s">
-        <v>291</v>
+        <v>318</v>
       </c>
       <c r="G31" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H31" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I31" t="s">
-        <v>292</v>
+        <v>319</v>
       </c>
       <c r="J31" t="s">
-        <v>293</v>
+        <v>320</v>
       </c>
       <c r="K31" t="s">
-        <v>294</v>
+        <v>321</v>
       </c>
       <c r="L31" t="s">
-        <v>295</v>
+        <v>322</v>
       </c>
       <c r="M31" t="n">
         <v>5</v>
       </c>
       <c r="N31" t="s">
-        <v>263</v>
+        <v>289</v>
       </c>
       <c r="O31" t="s">
-        <v>78</v>
+        <v>82</v>
       </c>
       <c r="P31" t="s"/>
       <c r="Q31" t="s"/>
@@ -4870,56 +5257,60 @@
         <v>0</v>
       </c>
       <c r="W31" t="s">
-        <v>296</v>
+        <v>323</v>
       </c>
       <c r="X31" t="s">
-        <v>297</v>
+        <v>324</v>
       </c>
       <c r="Y31" t="s">
-        <v>298</v>
+        <v>325</v>
       </c>
     </row>
     <row r="32">
       <c r="A32" t="n">
         <v>37377</v>
       </c>
-      <c r="B32" t="s"/>
-      <c r="C32" t="s"/>
+      <c r="B32" t="n">
+        <v>14690</v>
+      </c>
+      <c r="C32" t="s">
+        <v>326</v>
+      </c>
       <c r="D32" t="n">
         <v>31</v>
       </c>
       <c r="E32" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F32" t="s">
-        <v>299</v>
+        <v>327</v>
       </c>
       <c r="G32" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H32" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I32" t="s">
-        <v>300</v>
+        <v>328</v>
       </c>
       <c r="J32" t="s">
-        <v>301</v>
+        <v>329</v>
       </c>
       <c r="K32" t="s">
-        <v>302</v>
+        <v>330</v>
       </c>
       <c r="L32" t="s">
-        <v>303</v>
+        <v>331</v>
       </c>
       <c r="M32" t="n">
         <v>5</v>
       </c>
       <c r="N32" t="s">
-        <v>304</v>
+        <v>332</v>
       </c>
       <c r="O32" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="P32" t="n">
         <v>5</v>
@@ -4937,56 +5328,60 @@
         <v>0</v>
       </c>
       <c r="W32" t="s">
-        <v>305</v>
+        <v>333</v>
       </c>
       <c r="X32" t="s">
-        <v>306</v>
+        <v>334</v>
       </c>
       <c r="Y32" t="s">
-        <v>307</v>
+        <v>335</v>
       </c>
     </row>
     <row r="33">
       <c r="A33" t="n">
         <v>37377</v>
       </c>
-      <c r="B33" t="s"/>
-      <c r="C33" t="s"/>
+      <c r="B33" t="n">
+        <v>127147</v>
+      </c>
+      <c r="C33" t="s">
+        <v>336</v>
+      </c>
       <c r="D33" t="n">
         <v>32</v>
       </c>
       <c r="E33" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F33" t="s">
-        <v>308</v>
+        <v>337</v>
       </c>
       <c r="G33" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H33" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I33" t="s">
-        <v>309</v>
+        <v>338</v>
       </c>
       <c r="J33" t="s">
-        <v>310</v>
+        <v>339</v>
       </c>
       <c r="K33" t="s">
-        <v>311</v>
+        <v>340</v>
       </c>
       <c r="L33" t="s">
-        <v>312</v>
+        <v>341</v>
       </c>
       <c r="M33" t="n">
         <v>4</v>
       </c>
       <c r="N33" t="s">
-        <v>313</v>
+        <v>342</v>
       </c>
       <c r="O33" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="P33" t="s"/>
       <c r="Q33" t="n">
@@ -5004,56 +5399,60 @@
         <v>0</v>
       </c>
       <c r="W33" t="s">
-        <v>314</v>
+        <v>343</v>
       </c>
       <c r="X33" t="s">
-        <v>315</v>
+        <v>344</v>
       </c>
       <c r="Y33" t="s">
-        <v>316</v>
+        <v>345</v>
       </c>
     </row>
     <row r="34">
       <c r="A34" t="n">
         <v>37377</v>
       </c>
-      <c r="B34" t="s"/>
-      <c r="C34" t="s"/>
+      <c r="B34" t="n">
+        <v>127148</v>
+      </c>
+      <c r="C34" t="s">
+        <v>346</v>
+      </c>
       <c r="D34" t="n">
         <v>33</v>
       </c>
       <c r="E34" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F34" t="s">
-        <v>317</v>
+        <v>347</v>
       </c>
       <c r="G34" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H34" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I34" t="s">
-        <v>318</v>
+        <v>348</v>
       </c>
       <c r="J34" t="s">
-        <v>319</v>
+        <v>349</v>
       </c>
       <c r="K34" t="s">
-        <v>320</v>
+        <v>350</v>
       </c>
       <c r="L34" t="s">
-        <v>321</v>
+        <v>351</v>
       </c>
       <c r="M34" t="n">
         <v>3</v>
       </c>
       <c r="N34" t="s">
-        <v>304</v>
+        <v>332</v>
       </c>
       <c r="O34" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="P34" t="s"/>
       <c r="Q34" t="s"/>
@@ -5065,56 +5464,60 @@
         <v>0</v>
       </c>
       <c r="W34" t="s">
-        <v>322</v>
+        <v>352</v>
       </c>
       <c r="X34" t="s">
-        <v>323</v>
+        <v>353</v>
       </c>
       <c r="Y34" t="s">
-        <v>324</v>
+        <v>354</v>
       </c>
     </row>
     <row r="35">
       <c r="A35" t="n">
         <v>37377</v>
       </c>
-      <c r="B35" t="s"/>
-      <c r="C35" t="s"/>
+      <c r="B35" t="n">
+        <v>127149</v>
+      </c>
+      <c r="C35" t="s">
+        <v>355</v>
+      </c>
       <c r="D35" t="n">
         <v>34</v>
       </c>
       <c r="E35" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F35" t="s">
-        <v>325</v>
+        <v>356</v>
       </c>
       <c r="G35" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H35" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I35" t="s">
-        <v>326</v>
+        <v>357</v>
       </c>
       <c r="J35" t="s">
-        <v>327</v>
+        <v>358</v>
       </c>
       <c r="K35" t="s">
-        <v>328</v>
+        <v>359</v>
       </c>
       <c r="L35" t="s">
-        <v>329</v>
+        <v>360</v>
       </c>
       <c r="M35" t="n">
         <v>4</v>
       </c>
       <c r="N35" t="s">
-        <v>330</v>
+        <v>361</v>
       </c>
       <c r="O35" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="P35" t="s"/>
       <c r="Q35" t="s"/>
@@ -5126,56 +5529,60 @@
         <v>0</v>
       </c>
       <c r="W35" t="s">
-        <v>331</v>
+        <v>362</v>
       </c>
       <c r="X35" t="s">
-        <v>332</v>
+        <v>363</v>
       </c>
       <c r="Y35" t="s">
-        <v>333</v>
+        <v>364</v>
       </c>
     </row>
     <row r="36">
       <c r="A36" t="n">
         <v>37377</v>
       </c>
-      <c r="B36" t="s"/>
-      <c r="C36" t="s"/>
+      <c r="B36" t="n">
+        <v>7500</v>
+      </c>
+      <c r="C36" t="s">
+        <v>365</v>
+      </c>
       <c r="D36" t="n">
         <v>35</v>
       </c>
       <c r="E36" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F36" t="s">
-        <v>334</v>
+        <v>366</v>
       </c>
       <c r="G36" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H36" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I36" t="s">
-        <v>335</v>
+        <v>367</v>
       </c>
       <c r="J36" t="s">
-        <v>336</v>
+        <v>368</v>
       </c>
       <c r="K36" t="s">
-        <v>337</v>
+        <v>369</v>
       </c>
       <c r="L36" t="s">
-        <v>338</v>
+        <v>370</v>
       </c>
       <c r="M36" t="n">
         <v>4</v>
       </c>
       <c r="N36" t="s">
-        <v>313</v>
+        <v>342</v>
       </c>
       <c r="O36" t="s">
-        <v>68</v>
+        <v>71</v>
       </c>
       <c r="P36" t="s"/>
       <c r="Q36" t="s"/>
@@ -5191,56 +5598,60 @@
         <v>0</v>
       </c>
       <c r="W36" t="s">
-        <v>339</v>
+        <v>371</v>
       </c>
       <c r="X36" t="s">
-        <v>340</v>
+        <v>372</v>
       </c>
       <c r="Y36" t="s">
-        <v>341</v>
+        <v>373</v>
       </c>
     </row>
     <row r="37">
       <c r="A37" t="n">
         <v>37377</v>
       </c>
-      <c r="B37" t="s"/>
-      <c r="C37" t="s"/>
+      <c r="B37" t="n">
+        <v>127150</v>
+      </c>
+      <c r="C37" t="s">
+        <v>374</v>
+      </c>
       <c r="D37" t="n">
         <v>36</v>
       </c>
       <c r="E37" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F37" t="s">
-        <v>342</v>
+        <v>375</v>
       </c>
       <c r="G37" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H37" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I37" t="s">
-        <v>343</v>
+        <v>376</v>
       </c>
       <c r="J37" t="s">
-        <v>344</v>
+        <v>377</v>
       </c>
       <c r="K37" t="s">
-        <v>345</v>
+        <v>378</v>
       </c>
       <c r="L37" t="s">
-        <v>346</v>
+        <v>379</v>
       </c>
       <c r="M37" t="n">
         <v>2</v>
       </c>
       <c r="N37" t="s">
-        <v>313</v>
+        <v>342</v>
       </c>
       <c r="O37" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="P37" t="s"/>
       <c r="Q37" t="n">
@@ -5256,56 +5667,60 @@
         <v>0</v>
       </c>
       <c r="W37" t="s">
-        <v>339</v>
+        <v>371</v>
       </c>
       <c r="X37" t="s">
-        <v>340</v>
+        <v>372</v>
       </c>
       <c r="Y37" t="s">
-        <v>347</v>
+        <v>380</v>
       </c>
     </row>
     <row r="38">
       <c r="A38" t="n">
         <v>37377</v>
       </c>
-      <c r="B38" t="s"/>
-      <c r="C38" t="s"/>
+      <c r="B38" t="n">
+        <v>127151</v>
+      </c>
+      <c r="C38" t="s">
+        <v>381</v>
+      </c>
       <c r="D38" t="n">
         <v>37</v>
       </c>
       <c r="E38" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F38" t="s">
-        <v>348</v>
+        <v>382</v>
       </c>
       <c r="G38" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H38" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I38" t="s">
-        <v>349</v>
+        <v>383</v>
       </c>
       <c r="J38" t="s">
-        <v>350</v>
+        <v>384</v>
       </c>
       <c r="K38" t="s">
-        <v>351</v>
+        <v>385</v>
       </c>
       <c r="L38" t="s">
-        <v>352</v>
+        <v>386</v>
       </c>
       <c r="M38" t="n">
         <v>5</v>
       </c>
       <c r="N38" t="s">
-        <v>353</v>
+        <v>387</v>
       </c>
       <c r="O38" t="s">
-        <v>78</v>
+        <v>82</v>
       </c>
       <c r="P38" t="n">
         <v>5</v>
@@ -5323,56 +5738,60 @@
         <v>0</v>
       </c>
       <c r="W38" t="s">
-        <v>339</v>
+        <v>371</v>
       </c>
       <c r="X38" t="s">
-        <v>340</v>
+        <v>372</v>
       </c>
       <c r="Y38" t="s">
-        <v>354</v>
+        <v>388</v>
       </c>
     </row>
     <row r="39">
       <c r="A39" t="n">
         <v>37377</v>
       </c>
-      <c r="B39" t="s"/>
-      <c r="C39" t="s"/>
+      <c r="B39" t="n">
+        <v>127152</v>
+      </c>
+      <c r="C39" t="s">
+        <v>389</v>
+      </c>
       <c r="D39" t="n">
         <v>38</v>
       </c>
       <c r="E39" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F39" t="s">
-        <v>355</v>
+        <v>390</v>
       </c>
       <c r="G39" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H39" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I39" t="s">
-        <v>356</v>
+        <v>391</v>
       </c>
       <c r="J39" t="s">
-        <v>357</v>
+        <v>392</v>
       </c>
       <c r="K39" t="s">
-        <v>358</v>
+        <v>393</v>
       </c>
       <c r="L39" t="s">
-        <v>359</v>
+        <v>394</v>
       </c>
       <c r="M39" t="n">
         <v>4</v>
       </c>
       <c r="N39" t="s">
-        <v>360</v>
+        <v>395</v>
       </c>
       <c r="O39" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="P39" t="n">
         <v>5</v>
@@ -5390,56 +5809,60 @@
         <v>0</v>
       </c>
       <c r="W39" t="s">
-        <v>339</v>
+        <v>371</v>
       </c>
       <c r="X39" t="s">
-        <v>340</v>
+        <v>372</v>
       </c>
       <c r="Y39" t="s">
-        <v>361</v>
+        <v>396</v>
       </c>
     </row>
     <row r="40">
       <c r="A40" t="n">
         <v>37377</v>
       </c>
-      <c r="B40" t="s"/>
-      <c r="C40" t="s"/>
+      <c r="B40" t="n">
+        <v>639</v>
+      </c>
+      <c r="C40" t="s">
+        <v>274</v>
+      </c>
       <c r="D40" t="n">
         <v>39</v>
       </c>
       <c r="E40" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F40" t="s">
-        <v>362</v>
+        <v>397</v>
       </c>
       <c r="G40" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H40" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I40" t="s">
-        <v>363</v>
+        <v>398</v>
       </c>
       <c r="J40" t="s">
-        <v>364</v>
+        <v>399</v>
       </c>
       <c r="K40" t="s">
-        <v>365</v>
+        <v>400</v>
       </c>
       <c r="L40" t="s">
-        <v>366</v>
+        <v>401</v>
       </c>
       <c r="M40" t="n">
         <v>5</v>
       </c>
       <c r="N40" t="s">
-        <v>360</v>
+        <v>395</v>
       </c>
       <c r="O40" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="P40" t="s"/>
       <c r="Q40" t="s"/>
@@ -5451,56 +5874,60 @@
         <v>0</v>
       </c>
       <c r="W40" t="s">
-        <v>339</v>
+        <v>371</v>
       </c>
       <c r="X40" t="s">
-        <v>340</v>
+        <v>372</v>
       </c>
       <c r="Y40" t="s">
-        <v>367</v>
+        <v>402</v>
       </c>
     </row>
     <row r="41">
       <c r="A41" t="n">
         <v>37377</v>
       </c>
-      <c r="B41" t="s"/>
-      <c r="C41" t="s"/>
+      <c r="B41" t="n">
+        <v>113571</v>
+      </c>
+      <c r="C41" t="s">
+        <v>403</v>
+      </c>
       <c r="D41" t="n">
         <v>40</v>
       </c>
       <c r="E41" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F41" t="s">
-        <v>368</v>
+        <v>404</v>
       </c>
       <c r="G41" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H41" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I41" t="s">
-        <v>369</v>
+        <v>405</v>
       </c>
       <c r="J41" t="s">
-        <v>370</v>
+        <v>406</v>
       </c>
       <c r="K41" t="s">
-        <v>371</v>
+        <v>407</v>
       </c>
       <c r="L41" t="s">
-        <v>372</v>
+        <v>408</v>
       </c>
       <c r="M41" t="n">
         <v>5</v>
       </c>
       <c r="N41" t="s">
-        <v>360</v>
+        <v>395</v>
       </c>
       <c r="O41" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="P41" t="s"/>
       <c r="Q41" t="s"/>
@@ -5512,56 +5939,60 @@
         <v>0</v>
       </c>
       <c r="W41" t="s">
-        <v>331</v>
+        <v>362</v>
       </c>
       <c r="X41" t="s">
-        <v>332</v>
+        <v>363</v>
       </c>
       <c r="Y41" t="s">
-        <v>373</v>
+        <v>409</v>
       </c>
     </row>
     <row r="42">
       <c r="A42" t="n">
         <v>37377</v>
       </c>
-      <c r="B42" t="s"/>
-      <c r="C42" t="s"/>
+      <c r="B42" t="n">
+        <v>127153</v>
+      </c>
+      <c r="C42" t="s">
+        <v>410</v>
+      </c>
       <c r="D42" t="n">
         <v>41</v>
       </c>
       <c r="E42" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F42" t="s">
-        <v>374</v>
+        <v>411</v>
       </c>
       <c r="G42" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H42" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I42" t="s">
-        <v>375</v>
+        <v>412</v>
       </c>
       <c r="J42" t="s">
-        <v>376</v>
+        <v>413</v>
       </c>
       <c r="K42" t="s">
-        <v>377</v>
+        <v>414</v>
       </c>
       <c r="L42" t="s">
-        <v>378</v>
+        <v>415</v>
       </c>
       <c r="M42" t="n">
         <v>5</v>
       </c>
       <c r="N42" t="s">
-        <v>360</v>
+        <v>395</v>
       </c>
       <c r="O42" t="s">
-        <v>78</v>
+        <v>82</v>
       </c>
       <c r="P42" t="n">
         <v>5</v>
@@ -5579,56 +6010,60 @@
         <v>0</v>
       </c>
       <c r="W42" t="s">
-        <v>331</v>
+        <v>362</v>
       </c>
       <c r="X42" t="s">
-        <v>332</v>
+        <v>363</v>
       </c>
       <c r="Y42" t="s">
-        <v>379</v>
+        <v>416</v>
       </c>
     </row>
     <row r="43">
       <c r="A43" t="n">
         <v>37377</v>
       </c>
-      <c r="B43" t="s"/>
-      <c r="C43" t="s"/>
+      <c r="B43" t="n">
+        <v>127154</v>
+      </c>
+      <c r="C43" t="s">
+        <v>417</v>
+      </c>
       <c r="D43" t="n">
         <v>42</v>
       </c>
       <c r="E43" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F43" t="s">
-        <v>380</v>
+        <v>418</v>
       </c>
       <c r="G43" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H43" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I43" t="s">
-        <v>381</v>
+        <v>419</v>
       </c>
       <c r="J43" t="s">
-        <v>376</v>
+        <v>413</v>
       </c>
       <c r="K43" t="s">
-        <v>382</v>
+        <v>420</v>
       </c>
       <c r="L43" t="s">
-        <v>383</v>
+        <v>421</v>
       </c>
       <c r="M43" t="n">
         <v>4</v>
       </c>
       <c r="N43" t="s">
-        <v>360</v>
+        <v>395</v>
       </c>
       <c r="O43" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="P43" t="s"/>
       <c r="Q43" t="s"/>
@@ -5646,56 +6081,60 @@
         <v>0</v>
       </c>
       <c r="W43" t="s">
-        <v>331</v>
+        <v>362</v>
       </c>
       <c r="X43" t="s">
-        <v>332</v>
+        <v>363</v>
       </c>
       <c r="Y43" t="s">
-        <v>384</v>
+        <v>422</v>
       </c>
     </row>
     <row r="44">
       <c r="A44" t="n">
         <v>37377</v>
       </c>
-      <c r="B44" t="s"/>
-      <c r="C44" t="s"/>
+      <c r="B44" t="n">
+        <v>127155</v>
+      </c>
+      <c r="C44" t="s">
+        <v>423</v>
+      </c>
       <c r="D44" t="n">
         <v>43</v>
       </c>
       <c r="E44" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F44" t="s">
-        <v>385</v>
+        <v>424</v>
       </c>
       <c r="G44" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H44" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I44" t="s">
-        <v>386</v>
+        <v>425</v>
       </c>
       <c r="J44" t="s">
-        <v>387</v>
+        <v>426</v>
       </c>
       <c r="K44" t="s">
-        <v>388</v>
+        <v>427</v>
       </c>
       <c r="L44" t="s">
-        <v>389</v>
+        <v>428</v>
       </c>
       <c r="M44" t="n">
         <v>4</v>
       </c>
       <c r="N44" t="s">
-        <v>360</v>
+        <v>395</v>
       </c>
       <c r="O44" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="P44" t="s"/>
       <c r="Q44" t="s"/>
@@ -5707,56 +6146,60 @@
         <v>0</v>
       </c>
       <c r="W44" t="s">
-        <v>390</v>
+        <v>429</v>
       </c>
       <c r="X44" t="s">
-        <v>391</v>
+        <v>430</v>
       </c>
       <c r="Y44" t="s">
-        <v>392</v>
+        <v>431</v>
       </c>
     </row>
     <row r="45">
       <c r="A45" t="n">
         <v>37377</v>
       </c>
-      <c r="B45" t="s"/>
-      <c r="C45" t="s"/>
+      <c r="B45" t="n">
+        <v>127156</v>
+      </c>
+      <c r="C45" t="s">
+        <v>432</v>
+      </c>
       <c r="D45" t="n">
         <v>44</v>
       </c>
       <c r="E45" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F45" t="s">
-        <v>393</v>
+        <v>433</v>
       </c>
       <c r="G45" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H45" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I45" t="s">
-        <v>394</v>
+        <v>434</v>
       </c>
       <c r="J45" t="s">
-        <v>395</v>
+        <v>435</v>
       </c>
       <c r="K45" t="s">
-        <v>396</v>
+        <v>436</v>
       </c>
       <c r="L45" t="s">
-        <v>397</v>
+        <v>437</v>
       </c>
       <c r="M45" t="n">
         <v>4</v>
       </c>
       <c r="N45" t="s">
-        <v>330</v>
+        <v>361</v>
       </c>
       <c r="O45" t="s">
-        <v>398</v>
+        <v>438</v>
       </c>
       <c r="P45" t="s"/>
       <c r="Q45" t="s"/>
@@ -5768,56 +6211,60 @@
         <v>0</v>
       </c>
       <c r="W45" t="s">
-        <v>390</v>
+        <v>429</v>
       </c>
       <c r="X45" t="s">
-        <v>391</v>
+        <v>430</v>
       </c>
       <c r="Y45" t="s">
-        <v>399</v>
+        <v>439</v>
       </c>
     </row>
     <row r="46">
       <c r="A46" t="n">
         <v>37377</v>
       </c>
-      <c r="B46" t="s"/>
-      <c r="C46" t="s"/>
+      <c r="B46" t="n">
+        <v>127157</v>
+      </c>
+      <c r="C46" t="s">
+        <v>440</v>
+      </c>
       <c r="D46" t="n">
         <v>45</v>
       </c>
       <c r="E46" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F46" t="s">
-        <v>400</v>
+        <v>441</v>
       </c>
       <c r="G46" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H46" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I46" t="s">
-        <v>401</v>
+        <v>442</v>
       </c>
       <c r="J46" t="s">
-        <v>402</v>
+        <v>443</v>
       </c>
       <c r="K46" t="s">
-        <v>403</v>
+        <v>444</v>
       </c>
       <c r="L46" t="s">
-        <v>404</v>
+        <v>445</v>
       </c>
       <c r="M46" t="n">
         <v>4</v>
       </c>
       <c r="N46" t="s">
-        <v>330</v>
+        <v>361</v>
       </c>
       <c r="O46" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="P46" t="s"/>
       <c r="Q46" t="s"/>
@@ -5829,56 +6276,60 @@
         <v>0</v>
       </c>
       <c r="W46" t="s">
-        <v>390</v>
+        <v>429</v>
       </c>
       <c r="X46" t="s">
-        <v>391</v>
+        <v>430</v>
       </c>
       <c r="Y46" t="s">
-        <v>405</v>
+        <v>446</v>
       </c>
     </row>
     <row r="47">
       <c r="A47" t="n">
         <v>37377</v>
       </c>
-      <c r="B47" t="s"/>
-      <c r="C47" t="s"/>
+      <c r="B47" t="n">
+        <v>17745</v>
+      </c>
+      <c r="C47" t="s">
+        <v>447</v>
+      </c>
       <c r="D47" t="n">
         <v>46</v>
       </c>
       <c r="E47" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F47" t="s">
-        <v>406</v>
+        <v>448</v>
       </c>
       <c r="G47" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H47" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I47" t="s">
-        <v>407</v>
+        <v>449</v>
       </c>
       <c r="J47" t="s">
-        <v>408</v>
+        <v>450</v>
       </c>
       <c r="K47" t="s">
-        <v>409</v>
+        <v>451</v>
       </c>
       <c r="L47" t="s">
-        <v>410</v>
+        <v>452</v>
       </c>
       <c r="M47" t="n">
         <v>4</v>
       </c>
       <c r="N47" t="s">
-        <v>411</v>
+        <v>453</v>
       </c>
       <c r="O47" t="s">
-        <v>78</v>
+        <v>82</v>
       </c>
       <c r="P47" t="n">
         <v>3</v>
@@ -5898,41 +6349,45 @@
       <c r="W47" t="s"/>
       <c r="X47" t="s"/>
       <c r="Y47" t="s">
-        <v>410</v>
+        <v>452</v>
       </c>
     </row>
     <row r="48">
       <c r="A48" t="n">
         <v>37377</v>
       </c>
-      <c r="B48" t="s"/>
-      <c r="C48" t="s"/>
+      <c r="B48" t="n">
+        <v>127158</v>
+      </c>
+      <c r="C48" t="s">
+        <v>454</v>
+      </c>
       <c r="D48" t="n">
         <v>47</v>
       </c>
       <c r="E48" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F48" t="s">
-        <v>412</v>
+        <v>455</v>
       </c>
       <c r="G48" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H48" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I48" t="s">
-        <v>413</v>
+        <v>456</v>
       </c>
       <c r="J48" t="s">
-        <v>414</v>
+        <v>457</v>
       </c>
       <c r="K48" t="s">
-        <v>415</v>
+        <v>458</v>
       </c>
       <c r="L48" t="s">
-        <v>416</v>
+        <v>459</v>
       </c>
       <c r="M48" t="n">
         <v>3</v>
@@ -5949,56 +6404,60 @@
         <v>0</v>
       </c>
       <c r="W48" t="s">
-        <v>417</v>
+        <v>460</v>
       </c>
       <c r="X48" t="s">
-        <v>418</v>
+        <v>461</v>
       </c>
       <c r="Y48" t="s">
-        <v>419</v>
+        <v>462</v>
       </c>
     </row>
     <row r="49">
       <c r="A49" t="n">
         <v>37377</v>
       </c>
-      <c r="B49" t="s"/>
-      <c r="C49" t="s"/>
+      <c r="B49" t="n">
+        <v>2907</v>
+      </c>
+      <c r="C49" t="s">
+        <v>463</v>
+      </c>
       <c r="D49" t="n">
         <v>48</v>
       </c>
       <c r="E49" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F49" t="s">
-        <v>420</v>
+        <v>464</v>
       </c>
       <c r="G49" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H49" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I49" t="s">
-        <v>421</v>
+        <v>465</v>
       </c>
       <c r="J49" t="s">
-        <v>422</v>
+        <v>466</v>
       </c>
       <c r="K49" t="s">
-        <v>423</v>
+        <v>467</v>
       </c>
       <c r="L49" t="s">
-        <v>424</v>
+        <v>468</v>
       </c>
       <c r="M49" t="n">
         <v>4</v>
       </c>
       <c r="N49" t="s">
-        <v>425</v>
+        <v>469</v>
       </c>
       <c r="O49" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="P49" t="s"/>
       <c r="Q49" t="s"/>
@@ -6016,50 +6475,54 @@
       <c r="W49" t="s"/>
       <c r="X49" t="s"/>
       <c r="Y49" t="s">
-        <v>424</v>
+        <v>468</v>
       </c>
     </row>
     <row r="50">
       <c r="A50" t="n">
         <v>37377</v>
       </c>
-      <c r="B50" t="s"/>
-      <c r="C50" t="s"/>
+      <c r="B50" t="n">
+        <v>14931</v>
+      </c>
+      <c r="C50" t="s">
+        <v>470</v>
+      </c>
       <c r="D50" t="n">
         <v>49</v>
       </c>
       <c r="E50" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F50" t="s">
-        <v>426</v>
+        <v>471</v>
       </c>
       <c r="G50" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H50" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I50" t="s">
-        <v>427</v>
+        <v>472</v>
       </c>
       <c r="J50" t="s">
-        <v>428</v>
+        <v>473</v>
       </c>
       <c r="K50" t="s">
-        <v>429</v>
+        <v>474</v>
       </c>
       <c r="L50" t="s">
-        <v>430</v>
+        <v>475</v>
       </c>
       <c r="M50" t="n">
         <v>4</v>
       </c>
       <c r="N50" t="s">
-        <v>431</v>
+        <v>476</v>
       </c>
       <c r="O50" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="P50" t="s"/>
       <c r="Q50" t="s"/>
@@ -6073,50 +6536,54 @@
       <c r="W50" t="s"/>
       <c r="X50" t="s"/>
       <c r="Y50" t="s">
-        <v>430</v>
+        <v>475</v>
       </c>
     </row>
     <row r="51">
       <c r="A51" t="n">
         <v>37377</v>
       </c>
-      <c r="B51" t="s"/>
-      <c r="C51" t="s"/>
+      <c r="B51" t="n">
+        <v>3220</v>
+      </c>
+      <c r="C51" t="s">
+        <v>477</v>
+      </c>
       <c r="D51" t="n">
         <v>50</v>
       </c>
       <c r="E51" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F51" t="s">
-        <v>432</v>
+        <v>478</v>
       </c>
       <c r="G51" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H51" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I51" t="s">
-        <v>433</v>
+        <v>479</v>
       </c>
       <c r="J51" t="s">
-        <v>434</v>
+        <v>480</v>
       </c>
       <c r="K51" t="s">
-        <v>435</v>
+        <v>481</v>
       </c>
       <c r="L51" t="s">
-        <v>436</v>
+        <v>482</v>
       </c>
       <c r="M51" t="n">
         <v>2</v>
       </c>
       <c r="N51" t="s">
-        <v>431</v>
+        <v>476</v>
       </c>
       <c r="O51" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="P51" t="s"/>
       <c r="Q51" t="s"/>
@@ -6128,56 +6595,60 @@
         <v>0</v>
       </c>
       <c r="W51" t="s">
-        <v>437</v>
+        <v>483</v>
       </c>
       <c r="X51" t="s">
-        <v>438</v>
+        <v>484</v>
       </c>
       <c r="Y51" t="s">
-        <v>439</v>
+        <v>485</v>
       </c>
     </row>
     <row r="52">
       <c r="A52" t="n">
         <v>37377</v>
       </c>
-      <c r="B52" t="s"/>
-      <c r="C52" t="s"/>
+      <c r="B52" t="n">
+        <v>33595</v>
+      </c>
+      <c r="C52" t="s">
+        <v>486</v>
+      </c>
       <c r="D52" t="n">
         <v>51</v>
       </c>
       <c r="E52" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F52" t="s">
-        <v>440</v>
+        <v>487</v>
       </c>
       <c r="G52" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H52" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I52" t="s">
-        <v>441</v>
+        <v>488</v>
       </c>
       <c r="J52" t="s">
-        <v>442</v>
+        <v>489</v>
       </c>
       <c r="K52" t="s">
-        <v>443</v>
+        <v>490</v>
       </c>
       <c r="L52" t="s">
-        <v>444</v>
+        <v>491</v>
       </c>
       <c r="M52" t="n">
         <v>4</v>
       </c>
       <c r="N52" t="s">
-        <v>445</v>
+        <v>492</v>
       </c>
       <c r="O52" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="P52" t="s"/>
       <c r="Q52" t="s"/>
@@ -6191,50 +6662,54 @@
       <c r="W52" t="s"/>
       <c r="X52" t="s"/>
       <c r="Y52" t="s">
-        <v>446</v>
+        <v>493</v>
       </c>
     </row>
     <row r="53">
       <c r="A53" t="n">
         <v>37377</v>
       </c>
-      <c r="B53" t="s"/>
-      <c r="C53" t="s"/>
+      <c r="B53" t="n">
+        <v>127159</v>
+      </c>
+      <c r="C53" t="s">
+        <v>494</v>
+      </c>
       <c r="D53" t="n">
         <v>52</v>
       </c>
       <c r="E53" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F53" t="s">
-        <v>447</v>
+        <v>495</v>
       </c>
       <c r="G53" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H53" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I53" t="s">
-        <v>448</v>
+        <v>496</v>
       </c>
       <c r="J53" t="s">
-        <v>442</v>
+        <v>489</v>
       </c>
       <c r="K53" t="s">
-        <v>449</v>
+        <v>497</v>
       </c>
       <c r="L53" t="s">
-        <v>450</v>
+        <v>498</v>
       </c>
       <c r="M53" t="n">
         <v>4</v>
       </c>
       <c r="N53" t="s">
-        <v>445</v>
+        <v>492</v>
       </c>
       <c r="O53" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="P53" t="s"/>
       <c r="Q53" t="s"/>
@@ -6252,50 +6727,54 @@
       <c r="W53" t="s"/>
       <c r="X53" t="s"/>
       <c r="Y53" t="s">
-        <v>451</v>
+        <v>499</v>
       </c>
     </row>
     <row r="54">
       <c r="A54" t="n">
         <v>37377</v>
       </c>
-      <c r="B54" t="s"/>
-      <c r="C54" t="s"/>
+      <c r="B54" t="n">
+        <v>1685</v>
+      </c>
+      <c r="C54" t="s">
+        <v>500</v>
+      </c>
       <c r="D54" t="n">
         <v>53</v>
       </c>
       <c r="E54" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F54" t="s">
-        <v>452</v>
+        <v>501</v>
       </c>
       <c r="G54" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H54" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I54" t="s">
-        <v>453</v>
+        <v>502</v>
       </c>
       <c r="J54" t="s">
-        <v>454</v>
+        <v>503</v>
       </c>
       <c r="K54" t="s">
-        <v>455</v>
+        <v>504</v>
       </c>
       <c r="L54" t="s">
-        <v>456</v>
+        <v>505</v>
       </c>
       <c r="M54" t="n">
         <v>1</v>
       </c>
       <c r="N54" t="s">
-        <v>457</v>
+        <v>506</v>
       </c>
       <c r="O54" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="P54" t="s"/>
       <c r="Q54" t="s"/>
@@ -6307,56 +6786,60 @@
         <v>0</v>
       </c>
       <c r="W54" t="s">
-        <v>458</v>
+        <v>507</v>
       </c>
       <c r="X54" t="s">
-        <v>459</v>
+        <v>508</v>
       </c>
       <c r="Y54" t="s">
-        <v>460</v>
+        <v>509</v>
       </c>
     </row>
     <row r="55">
       <c r="A55" t="n">
         <v>37377</v>
       </c>
-      <c r="B55" t="s"/>
-      <c r="C55" t="s"/>
+      <c r="B55" t="n">
+        <v>127160</v>
+      </c>
+      <c r="C55" t="s">
+        <v>510</v>
+      </c>
       <c r="D55" t="n">
         <v>54</v>
       </c>
       <c r="E55" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F55" t="s">
-        <v>461</v>
+        <v>511</v>
       </c>
       <c r="G55" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H55" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I55" t="s">
-        <v>462</v>
+        <v>512</v>
       </c>
       <c r="J55" t="s">
-        <v>463</v>
+        <v>513</v>
       </c>
       <c r="K55" t="s">
-        <v>464</v>
+        <v>514</v>
       </c>
       <c r="L55" t="s">
-        <v>465</v>
+        <v>515</v>
       </c>
       <c r="M55" t="n">
         <v>4</v>
       </c>
       <c r="N55" t="s">
-        <v>466</v>
+        <v>516</v>
       </c>
       <c r="O55" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="P55" t="s"/>
       <c r="Q55" t="n">
@@ -6376,50 +6859,54 @@
       <c r="W55" t="s"/>
       <c r="X55" t="s"/>
       <c r="Y55" t="s">
-        <v>467</v>
+        <v>517</v>
       </c>
     </row>
     <row r="56">
       <c r="A56" t="n">
         <v>37377</v>
       </c>
-      <c r="B56" t="s"/>
-      <c r="C56" t="s"/>
+      <c r="B56" t="n">
+        <v>127161</v>
+      </c>
+      <c r="C56" t="s">
+        <v>518</v>
+      </c>
       <c r="D56" t="n">
         <v>55</v>
       </c>
       <c r="E56" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F56" t="s">
-        <v>468</v>
+        <v>519</v>
       </c>
       <c r="G56" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H56" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I56" t="s">
-        <v>469</v>
+        <v>520</v>
       </c>
       <c r="J56" t="s">
-        <v>470</v>
+        <v>521</v>
       </c>
       <c r="K56" t="s">
-        <v>471</v>
+        <v>522</v>
       </c>
       <c r="L56" t="s">
-        <v>472</v>
+        <v>523</v>
       </c>
       <c r="M56" t="n">
         <v>1</v>
       </c>
       <c r="N56" t="s">
-        <v>466</v>
+        <v>516</v>
       </c>
       <c r="O56" t="s">
-        <v>68</v>
+        <v>71</v>
       </c>
       <c r="P56" t="n">
         <v>2</v>
@@ -6437,56 +6924,60 @@
         <v>0</v>
       </c>
       <c r="W56" t="s">
-        <v>473</v>
+        <v>524</v>
       </c>
       <c r="X56" t="s">
-        <v>474</v>
+        <v>525</v>
       </c>
       <c r="Y56" t="s">
-        <v>475</v>
+        <v>526</v>
       </c>
     </row>
     <row r="57">
       <c r="A57" t="n">
         <v>37377</v>
       </c>
-      <c r="B57" t="s"/>
-      <c r="C57" t="s"/>
+      <c r="B57" t="n">
+        <v>127162</v>
+      </c>
+      <c r="C57" t="s">
+        <v>527</v>
+      </c>
       <c r="D57" t="n">
         <v>56</v>
       </c>
       <c r="E57" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F57" t="s">
-        <v>476</v>
+        <v>528</v>
       </c>
       <c r="G57" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H57" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I57" t="s">
-        <v>477</v>
+        <v>529</v>
       </c>
       <c r="J57" t="s">
-        <v>478</v>
+        <v>530</v>
       </c>
       <c r="K57" t="s">
-        <v>479</v>
+        <v>531</v>
       </c>
       <c r="L57" t="s">
-        <v>480</v>
+        <v>532</v>
       </c>
       <c r="M57" t="n">
         <v>4</v>
       </c>
       <c r="N57" t="s">
-        <v>481</v>
+        <v>533</v>
       </c>
       <c r="O57" t="s">
-        <v>212</v>
+        <v>232</v>
       </c>
       <c r="P57" t="s"/>
       <c r="Q57" t="n">
@@ -6506,50 +6997,54 @@
       <c r="W57" t="s"/>
       <c r="X57" t="s"/>
       <c r="Y57" t="s">
-        <v>480</v>
+        <v>532</v>
       </c>
     </row>
     <row r="58">
       <c r="A58" t="n">
         <v>37377</v>
       </c>
-      <c r="B58" t="s"/>
-      <c r="C58" t="s"/>
+      <c r="B58" t="n">
+        <v>127163</v>
+      </c>
+      <c r="C58" t="s">
+        <v>534</v>
+      </c>
       <c r="D58" t="n">
         <v>57</v>
       </c>
       <c r="E58" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F58" t="s">
-        <v>482</v>
+        <v>535</v>
       </c>
       <c r="G58" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H58" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I58" t="s">
-        <v>483</v>
+        <v>536</v>
       </c>
       <c r="J58" t="s">
-        <v>484</v>
+        <v>537</v>
       </c>
       <c r="K58" t="s">
-        <v>485</v>
+        <v>538</v>
       </c>
       <c r="L58" t="s">
-        <v>486</v>
+        <v>539</v>
       </c>
       <c r="M58" t="n">
         <v>5</v>
       </c>
       <c r="N58" t="s">
-        <v>481</v>
+        <v>533</v>
       </c>
       <c r="O58" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="P58" t="s"/>
       <c r="Q58" t="s"/>
@@ -6561,56 +7056,60 @@
         <v>0</v>
       </c>
       <c r="W58" t="s">
-        <v>473</v>
+        <v>524</v>
       </c>
       <c r="X58" t="s">
-        <v>474</v>
+        <v>525</v>
       </c>
       <c r="Y58" t="s">
-        <v>487</v>
+        <v>540</v>
       </c>
     </row>
     <row r="59">
       <c r="A59" t="n">
         <v>37377</v>
       </c>
-      <c r="B59" t="s"/>
-      <c r="C59" t="s"/>
+      <c r="B59" t="n">
+        <v>127164</v>
+      </c>
+      <c r="C59" t="s">
+        <v>541</v>
+      </c>
       <c r="D59" t="n">
         <v>58</v>
       </c>
       <c r="E59" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F59" t="s">
-        <v>488</v>
+        <v>542</v>
       </c>
       <c r="G59" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H59" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I59" t="s">
-        <v>489</v>
+        <v>543</v>
       </c>
       <c r="J59" t="s">
-        <v>490</v>
+        <v>544</v>
       </c>
       <c r="K59" t="s">
-        <v>491</v>
+        <v>545</v>
       </c>
       <c r="L59" t="s">
-        <v>492</v>
+        <v>546</v>
       </c>
       <c r="M59" t="n">
         <v>4</v>
       </c>
       <c r="N59" t="s">
-        <v>481</v>
+        <v>533</v>
       </c>
       <c r="O59" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="P59" t="s"/>
       <c r="Q59" t="n">
@@ -6630,50 +7129,54 @@
       <c r="W59" t="s"/>
       <c r="X59" t="s"/>
       <c r="Y59" t="s">
-        <v>492</v>
+        <v>546</v>
       </c>
     </row>
     <row r="60">
       <c r="A60" t="n">
         <v>37377</v>
       </c>
-      <c r="B60" t="s"/>
-      <c r="C60" t="s"/>
+      <c r="B60" t="n">
+        <v>127165</v>
+      </c>
+      <c r="C60" t="s">
+        <v>547</v>
+      </c>
       <c r="D60" t="n">
         <v>59</v>
       </c>
       <c r="E60" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F60" t="s">
-        <v>493</v>
+        <v>548</v>
       </c>
       <c r="G60" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H60" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I60" t="s">
-        <v>494</v>
+        <v>549</v>
       </c>
       <c r="J60" t="s">
-        <v>495</v>
+        <v>550</v>
       </c>
       <c r="K60" t="s">
-        <v>496</v>
+        <v>551</v>
       </c>
       <c r="L60" t="s">
-        <v>497</v>
+        <v>552</v>
       </c>
       <c r="M60" t="n">
         <v>4</v>
       </c>
       <c r="N60" t="s">
-        <v>481</v>
+        <v>533</v>
       </c>
       <c r="O60" t="s">
-        <v>78</v>
+        <v>82</v>
       </c>
       <c r="P60" t="n">
         <v>4</v>
@@ -6693,50 +7196,54 @@
       <c r="W60" t="s"/>
       <c r="X60" t="s"/>
       <c r="Y60" t="s">
-        <v>497</v>
+        <v>552</v>
       </c>
     </row>
     <row r="61">
       <c r="A61" t="n">
         <v>37377</v>
       </c>
-      <c r="B61" t="s"/>
-      <c r="C61" t="s"/>
+      <c r="B61" t="n">
+        <v>127166</v>
+      </c>
+      <c r="C61" t="s">
+        <v>553</v>
+      </c>
       <c r="D61" t="n">
         <v>60</v>
       </c>
       <c r="E61" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F61" t="s">
-        <v>498</v>
+        <v>554</v>
       </c>
       <c r="G61" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H61" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I61" t="s">
-        <v>499</v>
+        <v>555</v>
       </c>
       <c r="J61" t="s">
-        <v>500</v>
+        <v>556</v>
       </c>
       <c r="K61" t="s">
-        <v>501</v>
+        <v>557</v>
       </c>
       <c r="L61" t="s">
-        <v>502</v>
+        <v>558</v>
       </c>
       <c r="M61" t="n">
         <v>5</v>
       </c>
       <c r="N61" t="s">
-        <v>503</v>
+        <v>559</v>
       </c>
       <c r="O61" t="s">
-        <v>212</v>
+        <v>232</v>
       </c>
       <c r="P61" t="s"/>
       <c r="Q61" t="n">
@@ -6754,56 +7261,60 @@
         <v>0</v>
       </c>
       <c r="W61" t="s">
-        <v>473</v>
+        <v>524</v>
       </c>
       <c r="X61" t="s">
-        <v>474</v>
+        <v>525</v>
       </c>
       <c r="Y61" t="s">
-        <v>504</v>
+        <v>560</v>
       </c>
     </row>
     <row r="62">
       <c r="A62" t="n">
         <v>37377</v>
       </c>
-      <c r="B62" t="s"/>
-      <c r="C62" t="s"/>
+      <c r="B62" t="n">
+        <v>127167</v>
+      </c>
+      <c r="C62" t="s">
+        <v>561</v>
+      </c>
       <c r="D62" t="n">
         <v>61</v>
       </c>
       <c r="E62" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F62" t="s">
-        <v>505</v>
+        <v>562</v>
       </c>
       <c r="G62" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H62" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I62" t="s">
-        <v>506</v>
+        <v>563</v>
       </c>
       <c r="J62" t="s">
-        <v>507</v>
+        <v>564</v>
       </c>
       <c r="K62" t="s">
-        <v>508</v>
+        <v>565</v>
       </c>
       <c r="L62" t="s">
-        <v>509</v>
+        <v>566</v>
       </c>
       <c r="M62" t="n">
         <v>4</v>
       </c>
       <c r="N62" t="s">
-        <v>510</v>
+        <v>567</v>
       </c>
       <c r="O62" t="s">
-        <v>212</v>
+        <v>232</v>
       </c>
       <c r="P62" t="s"/>
       <c r="Q62" t="n">
@@ -6821,50 +7332,54 @@
       <c r="W62" t="s"/>
       <c r="X62" t="s"/>
       <c r="Y62" t="s">
-        <v>511</v>
+        <v>568</v>
       </c>
     </row>
     <row r="63">
       <c r="A63" t="n">
         <v>37377</v>
       </c>
-      <c r="B63" t="s"/>
-      <c r="C63" t="s"/>
+      <c r="B63" t="n">
+        <v>127168</v>
+      </c>
+      <c r="C63" t="s">
+        <v>569</v>
+      </c>
       <c r="D63" t="n">
         <v>62</v>
       </c>
       <c r="E63" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F63" t="s">
-        <v>512</v>
+        <v>570</v>
       </c>
       <c r="G63" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H63" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I63" t="s">
-        <v>513</v>
+        <v>571</v>
       </c>
       <c r="J63" t="s">
-        <v>514</v>
+        <v>572</v>
       </c>
       <c r="K63" t="s">
-        <v>515</v>
+        <v>573</v>
       </c>
       <c r="L63" t="s">
-        <v>516</v>
+        <v>574</v>
       </c>
       <c r="M63" t="n">
         <v>3</v>
       </c>
       <c r="N63" t="s">
-        <v>510</v>
+        <v>567</v>
       </c>
       <c r="O63" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="P63" t="s"/>
       <c r="Q63" t="n">
@@ -6882,56 +7397,60 @@
         <v>0</v>
       </c>
       <c r="W63" t="s">
-        <v>517</v>
+        <v>575</v>
       </c>
       <c r="X63" t="s">
-        <v>518</v>
+        <v>576</v>
       </c>
       <c r="Y63" t="s">
-        <v>519</v>
+        <v>577</v>
       </c>
     </row>
     <row r="64">
       <c r="A64" t="n">
         <v>37377</v>
       </c>
-      <c r="B64" t="s"/>
-      <c r="C64" t="s"/>
+      <c r="B64" t="n">
+        <v>127169</v>
+      </c>
+      <c r="C64" t="s">
+        <v>578</v>
+      </c>
       <c r="D64" t="n">
         <v>63</v>
       </c>
       <c r="E64" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F64" t="s">
-        <v>520</v>
+        <v>579</v>
       </c>
       <c r="G64" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H64" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I64" t="s">
-        <v>521</v>
+        <v>580</v>
       </c>
       <c r="J64" t="s">
-        <v>522</v>
+        <v>581</v>
       </c>
       <c r="K64" t="s">
-        <v>523</v>
+        <v>582</v>
       </c>
       <c r="L64" t="s">
-        <v>524</v>
+        <v>583</v>
       </c>
       <c r="M64" t="n">
         <v>4</v>
       </c>
       <c r="N64" t="s">
-        <v>525</v>
+        <v>584</v>
       </c>
       <c r="O64" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="P64" t="n">
         <v>5</v>
@@ -6949,41 +7468,45 @@
       <c r="W64" t="s"/>
       <c r="X64" t="s"/>
       <c r="Y64" t="s">
-        <v>524</v>
+        <v>583</v>
       </c>
     </row>
     <row r="65">
       <c r="A65" t="n">
         <v>37377</v>
       </c>
-      <c r="B65" t="s"/>
-      <c r="C65" t="s"/>
+      <c r="B65" t="n">
+        <v>2897</v>
+      </c>
+      <c r="C65" t="s">
+        <v>585</v>
+      </c>
       <c r="D65" t="n">
         <v>64</v>
       </c>
       <c r="E65" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F65" t="s">
-        <v>526</v>
+        <v>586</v>
       </c>
       <c r="G65" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H65" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I65" t="s">
-        <v>527</v>
+        <v>587</v>
       </c>
       <c r="J65" t="s">
-        <v>528</v>
+        <v>588</v>
       </c>
       <c r="K65" t="s">
-        <v>529</v>
+        <v>589</v>
       </c>
       <c r="L65" t="s">
-        <v>530</v>
+        <v>590</v>
       </c>
       <c r="M65" t="n">
         <v>4</v>
@@ -7002,50 +7525,54 @@
       <c r="W65" t="s"/>
       <c r="X65" t="s"/>
       <c r="Y65" t="s">
-        <v>530</v>
+        <v>590</v>
       </c>
     </row>
     <row r="66">
       <c r="A66" t="n">
         <v>37377</v>
       </c>
-      <c r="B66" t="s"/>
-      <c r="C66" t="s"/>
+      <c r="B66" t="n">
+        <v>127170</v>
+      </c>
+      <c r="C66" t="s">
+        <v>591</v>
+      </c>
       <c r="D66" t="n">
         <v>65</v>
       </c>
       <c r="E66" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F66" t="s">
-        <v>531</v>
+        <v>592</v>
       </c>
       <c r="G66" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H66" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I66" t="s">
-        <v>532</v>
+        <v>593</v>
       </c>
       <c r="J66" t="s">
-        <v>533</v>
+        <v>594</v>
       </c>
       <c r="K66" t="s">
-        <v>534</v>
+        <v>595</v>
       </c>
       <c r="L66" t="s">
-        <v>535</v>
+        <v>596</v>
       </c>
       <c r="M66" t="n">
         <v>4</v>
       </c>
       <c r="N66" t="s">
-        <v>536</v>
+        <v>597</v>
       </c>
       <c r="O66" t="s">
-        <v>78</v>
+        <v>82</v>
       </c>
       <c r="P66" t="n">
         <v>5</v>
@@ -7065,50 +7592,54 @@
       <c r="W66" t="s"/>
       <c r="X66" t="s"/>
       <c r="Y66" t="s">
-        <v>535</v>
+        <v>596</v>
       </c>
     </row>
     <row r="67">
       <c r="A67" t="n">
         <v>37377</v>
       </c>
-      <c r="B67" t="s"/>
-      <c r="C67" t="s"/>
+      <c r="B67" t="n">
+        <v>127171</v>
+      </c>
+      <c r="C67" t="s">
+        <v>598</v>
+      </c>
       <c r="D67" t="n">
         <v>66</v>
       </c>
       <c r="E67" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F67" t="s">
-        <v>537</v>
+        <v>599</v>
       </c>
       <c r="G67" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H67" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I67" t="s">
-        <v>538</v>
+        <v>600</v>
       </c>
       <c r="J67" t="s">
-        <v>539</v>
+        <v>601</v>
       </c>
       <c r="K67" t="s">
-        <v>540</v>
+        <v>602</v>
       </c>
       <c r="L67" t="s">
-        <v>541</v>
+        <v>603</v>
       </c>
       <c r="M67" t="n">
         <v>5</v>
       </c>
       <c r="N67" t="s">
-        <v>536</v>
+        <v>597</v>
       </c>
       <c r="O67" t="s">
-        <v>78</v>
+        <v>82</v>
       </c>
       <c r="P67" t="n">
         <v>5</v>
@@ -7126,47 +7657,51 @@
         <v>0</v>
       </c>
       <c r="W67" t="s">
-        <v>517</v>
+        <v>575</v>
       </c>
       <c r="X67" t="s">
-        <v>518</v>
+        <v>576</v>
       </c>
       <c r="Y67" t="s">
-        <v>542</v>
+        <v>604</v>
       </c>
     </row>
     <row r="68">
       <c r="A68" t="n">
         <v>37377</v>
       </c>
-      <c r="B68" t="s"/>
-      <c r="C68" t="s"/>
+      <c r="B68" t="n">
+        <v>127172</v>
+      </c>
+      <c r="C68" t="s">
+        <v>605</v>
+      </c>
       <c r="D68" t="n">
         <v>67</v>
       </c>
       <c r="E68" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F68" t="s">
-        <v>543</v>
+        <v>606</v>
       </c>
       <c r="G68" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H68" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I68" t="s">
-        <v>544</v>
+        <v>607</v>
       </c>
       <c r="J68" t="s">
-        <v>545</v>
+        <v>608</v>
       </c>
       <c r="K68" t="s">
-        <v>546</v>
+        <v>609</v>
       </c>
       <c r="L68" t="s">
-        <v>547</v>
+        <v>610</v>
       </c>
       <c r="M68" t="n">
         <v>4</v>
@@ -7185,50 +7720,54 @@
       <c r="W68" t="s"/>
       <c r="X68" t="s"/>
       <c r="Y68" t="s">
-        <v>547</v>
+        <v>610</v>
       </c>
     </row>
     <row r="69">
       <c r="A69" t="n">
         <v>37377</v>
       </c>
-      <c r="B69" t="s"/>
-      <c r="C69" t="s"/>
+      <c r="B69" t="n">
+        <v>84157</v>
+      </c>
+      <c r="C69" t="s">
+        <v>611</v>
+      </c>
       <c r="D69" t="n">
         <v>68</v>
       </c>
       <c r="E69" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F69" t="s">
-        <v>548</v>
+        <v>612</v>
       </c>
       <c r="G69" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H69" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I69" t="s">
-        <v>549</v>
+        <v>613</v>
       </c>
       <c r="J69" t="s">
-        <v>550</v>
+        <v>614</v>
       </c>
       <c r="K69" t="s">
-        <v>551</v>
+        <v>615</v>
       </c>
       <c r="L69" t="s">
-        <v>552</v>
+        <v>616</v>
       </c>
       <c r="M69" t="n">
         <v>5</v>
       </c>
       <c r="N69" t="s">
-        <v>536</v>
+        <v>597</v>
       </c>
       <c r="O69" t="s">
-        <v>398</v>
+        <v>438</v>
       </c>
       <c r="P69" t="n">
         <v>4</v>
@@ -7244,56 +7783,60 @@
         <v>0</v>
       </c>
       <c r="W69" t="s">
-        <v>553</v>
+        <v>617</v>
       </c>
       <c r="X69" t="s">
-        <v>554</v>
+        <v>618</v>
       </c>
       <c r="Y69" t="s">
-        <v>555</v>
+        <v>619</v>
       </c>
     </row>
     <row r="70">
       <c r="A70" t="n">
         <v>37377</v>
       </c>
-      <c r="B70" t="s"/>
-      <c r="C70" t="s"/>
+      <c r="B70" t="n">
+        <v>44690</v>
+      </c>
+      <c r="C70" t="s">
+        <v>620</v>
+      </c>
       <c r="D70" t="n">
         <v>69</v>
       </c>
       <c r="E70" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F70" t="s">
-        <v>556</v>
+        <v>621</v>
       </c>
       <c r="G70" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H70" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I70" t="s">
-        <v>557</v>
+        <v>622</v>
       </c>
       <c r="J70" t="s">
-        <v>558</v>
+        <v>623</v>
       </c>
       <c r="K70" t="s">
-        <v>559</v>
+        <v>624</v>
       </c>
       <c r="L70" t="s">
-        <v>560</v>
+        <v>625</v>
       </c>
       <c r="M70" t="n">
         <v>5</v>
       </c>
       <c r="N70" t="s">
-        <v>536</v>
+        <v>597</v>
       </c>
       <c r="O70" t="s">
-        <v>398</v>
+        <v>438</v>
       </c>
       <c r="P70" t="n">
         <v>5</v>
@@ -7311,56 +7854,60 @@
         <v>0</v>
       </c>
       <c r="W70" t="s">
-        <v>553</v>
+        <v>617</v>
       </c>
       <c r="X70" t="s">
-        <v>554</v>
+        <v>618</v>
       </c>
       <c r="Y70" t="s">
-        <v>561</v>
+        <v>626</v>
       </c>
     </row>
     <row r="71">
       <c r="A71" t="n">
         <v>37377</v>
       </c>
-      <c r="B71" t="s"/>
-      <c r="C71" t="s"/>
+      <c r="B71" t="n">
+        <v>127173</v>
+      </c>
+      <c r="C71" t="s">
+        <v>627</v>
+      </c>
       <c r="D71" t="n">
         <v>70</v>
       </c>
       <c r="E71" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F71" t="s">
-        <v>562</v>
+        <v>628</v>
       </c>
       <c r="G71" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H71" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I71" t="s">
-        <v>563</v>
+        <v>629</v>
       </c>
       <c r="J71" t="s">
-        <v>564</v>
+        <v>630</v>
       </c>
       <c r="K71" t="s">
-        <v>565</v>
+        <v>631</v>
       </c>
       <c r="L71" t="s">
-        <v>566</v>
+        <v>632</v>
       </c>
       <c r="M71" t="n">
         <v>3</v>
       </c>
       <c r="N71" t="s">
-        <v>536</v>
+        <v>597</v>
       </c>
       <c r="O71" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="P71" t="n">
         <v>2</v>
@@ -7378,56 +7925,60 @@
         <v>0</v>
       </c>
       <c r="W71" t="s">
-        <v>567</v>
+        <v>633</v>
       </c>
       <c r="X71" t="s">
-        <v>568</v>
+        <v>634</v>
       </c>
       <c r="Y71" t="s">
-        <v>569</v>
+        <v>635</v>
       </c>
     </row>
     <row r="72">
       <c r="A72" t="n">
         <v>37377</v>
       </c>
-      <c r="B72" t="s"/>
-      <c r="C72" t="s"/>
+      <c r="B72" t="n">
+        <v>30718</v>
+      </c>
+      <c r="C72" t="s">
+        <v>636</v>
+      </c>
       <c r="D72" t="n">
         <v>71</v>
       </c>
       <c r="E72" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F72" t="s">
-        <v>570</v>
+        <v>637</v>
       </c>
       <c r="G72" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H72" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I72" t="s">
-        <v>571</v>
+        <v>638</v>
       </c>
       <c r="J72" t="s">
-        <v>572</v>
+        <v>639</v>
       </c>
       <c r="K72" t="s">
-        <v>573</v>
+        <v>640</v>
       </c>
       <c r="L72" t="s">
-        <v>574</v>
+        <v>641</v>
       </c>
       <c r="M72" t="n">
         <v>5</v>
       </c>
       <c r="N72" t="s">
-        <v>575</v>
+        <v>642</v>
       </c>
       <c r="O72" t="s">
-        <v>212</v>
+        <v>232</v>
       </c>
       <c r="P72" t="s"/>
       <c r="Q72" t="n">
@@ -7445,56 +7996,60 @@
         <v>0</v>
       </c>
       <c r="W72" t="s">
-        <v>567</v>
+        <v>633</v>
       </c>
       <c r="X72" t="s">
-        <v>568</v>
+        <v>634</v>
       </c>
       <c r="Y72" t="s">
-        <v>576</v>
+        <v>643</v>
       </c>
     </row>
     <row r="73">
       <c r="A73" t="n">
         <v>37377</v>
       </c>
-      <c r="B73" t="s"/>
-      <c r="C73" t="s"/>
+      <c r="B73" t="n">
+        <v>127174</v>
+      </c>
+      <c r="C73" t="s">
+        <v>644</v>
+      </c>
       <c r="D73" t="n">
         <v>72</v>
       </c>
       <c r="E73" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F73" t="s">
-        <v>577</v>
+        <v>645</v>
       </c>
       <c r="G73" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H73" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I73" t="s">
-        <v>578</v>
+        <v>646</v>
       </c>
       <c r="J73" t="s">
-        <v>579</v>
+        <v>647</v>
       </c>
       <c r="K73" t="s">
-        <v>580</v>
+        <v>648</v>
       </c>
       <c r="L73" t="s">
-        <v>581</v>
+        <v>649</v>
       </c>
       <c r="M73" t="n">
         <v>2</v>
       </c>
       <c r="N73" t="s">
-        <v>582</v>
+        <v>650</v>
       </c>
       <c r="O73" t="s">
-        <v>78</v>
+        <v>82</v>
       </c>
       <c r="P73" t="n">
         <v>1</v>
@@ -7510,56 +8065,60 @@
         <v>0</v>
       </c>
       <c r="W73" t="s">
-        <v>583</v>
+        <v>651</v>
       </c>
       <c r="X73" t="s">
-        <v>584</v>
+        <v>652</v>
       </c>
       <c r="Y73" t="s">
-        <v>585</v>
+        <v>653</v>
       </c>
     </row>
     <row r="74">
       <c r="A74" t="n">
         <v>37377</v>
       </c>
-      <c r="B74" t="s"/>
-      <c r="C74" t="s"/>
+      <c r="B74" t="n">
+        <v>1652</v>
+      </c>
+      <c r="C74" t="s">
+        <v>654</v>
+      </c>
       <c r="D74" t="n">
         <v>73</v>
       </c>
       <c r="E74" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F74" t="s">
-        <v>586</v>
+        <v>655</v>
       </c>
       <c r="G74" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H74" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I74" t="s">
-        <v>587</v>
+        <v>656</v>
       </c>
       <c r="J74" t="s">
-        <v>588</v>
+        <v>657</v>
       </c>
       <c r="K74" t="s">
-        <v>589</v>
+        <v>658</v>
       </c>
       <c r="L74" t="s">
-        <v>590</v>
+        <v>659</v>
       </c>
       <c r="M74" t="n">
         <v>3</v>
       </c>
       <c r="N74" t="s">
-        <v>591</v>
+        <v>660</v>
       </c>
       <c r="O74" t="s">
-        <v>78</v>
+        <v>82</v>
       </c>
       <c r="P74" t="s"/>
       <c r="Q74" t="s"/>
@@ -7575,56 +8134,60 @@
         <v>0</v>
       </c>
       <c r="W74" t="s">
-        <v>583</v>
+        <v>651</v>
       </c>
       <c r="X74" t="s">
-        <v>584</v>
+        <v>652</v>
       </c>
       <c r="Y74" t="s">
-        <v>592</v>
+        <v>661</v>
       </c>
     </row>
     <row r="75">
       <c r="A75" t="n">
         <v>37377</v>
       </c>
-      <c r="B75" t="s"/>
-      <c r="C75" t="s"/>
+      <c r="B75" t="n">
+        <v>15601</v>
+      </c>
+      <c r="C75" t="s">
+        <v>662</v>
+      </c>
       <c r="D75" t="n">
         <v>74</v>
       </c>
       <c r="E75" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F75" t="s">
-        <v>593</v>
+        <v>663</v>
       </c>
       <c r="G75" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H75" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I75" t="s">
-        <v>594</v>
+        <v>664</v>
       </c>
       <c r="J75" t="s">
-        <v>595</v>
+        <v>665</v>
       </c>
       <c r="K75" t="s">
-        <v>596</v>
+        <v>666</v>
       </c>
       <c r="L75" t="s">
-        <v>597</v>
+        <v>667</v>
       </c>
       <c r="M75" t="n">
         <v>3</v>
       </c>
       <c r="N75" t="s">
-        <v>591</v>
+        <v>660</v>
       </c>
       <c r="O75" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="P75" t="n">
         <v>3</v>
@@ -7640,56 +8203,60 @@
         <v>0</v>
       </c>
       <c r="W75" t="s">
-        <v>598</v>
+        <v>668</v>
       </c>
       <c r="X75" t="s">
-        <v>599</v>
+        <v>669</v>
       </c>
       <c r="Y75" t="s">
-        <v>600</v>
+        <v>670</v>
       </c>
     </row>
     <row r="76">
       <c r="A76" t="n">
         <v>37377</v>
       </c>
-      <c r="B76" t="s"/>
-      <c r="C76" t="s"/>
+      <c r="B76" t="n">
+        <v>127175</v>
+      </c>
+      <c r="C76" t="s">
+        <v>671</v>
+      </c>
       <c r="D76" t="n">
         <v>75</v>
       </c>
       <c r="E76" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F76" t="s">
-        <v>601</v>
+        <v>672</v>
       </c>
       <c r="G76" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H76" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I76" t="s">
-        <v>602</v>
+        <v>673</v>
       </c>
       <c r="J76" t="s">
-        <v>603</v>
+        <v>674</v>
       </c>
       <c r="K76" t="s">
-        <v>604</v>
+        <v>675</v>
       </c>
       <c r="L76" t="s">
-        <v>605</v>
+        <v>676</v>
       </c>
       <c r="M76" t="n">
         <v>4</v>
       </c>
       <c r="N76" t="s">
-        <v>606</v>
+        <v>677</v>
       </c>
       <c r="O76" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="P76" t="s"/>
       <c r="Q76" t="n">
@@ -7707,56 +8274,60 @@
         <v>0</v>
       </c>
       <c r="W76" t="s">
-        <v>583</v>
+        <v>651</v>
       </c>
       <c r="X76" t="s">
-        <v>584</v>
+        <v>652</v>
       </c>
       <c r="Y76" t="s">
-        <v>607</v>
+        <v>678</v>
       </c>
     </row>
     <row r="77">
       <c r="A77" t="n">
         <v>37377</v>
       </c>
-      <c r="B77" t="s"/>
-      <c r="C77" t="s"/>
+      <c r="B77" t="n">
+        <v>127176</v>
+      </c>
+      <c r="C77" t="s">
+        <v>679</v>
+      </c>
       <c r="D77" t="n">
         <v>76</v>
       </c>
       <c r="E77" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F77" t="s">
-        <v>608</v>
+        <v>680</v>
       </c>
       <c r="G77" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H77" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I77" t="s">
-        <v>609</v>
+        <v>681</v>
       </c>
       <c r="J77" t="s">
-        <v>610</v>
+        <v>682</v>
       </c>
       <c r="K77" t="s">
-        <v>611</v>
+        <v>683</v>
       </c>
       <c r="L77" t="s">
-        <v>612</v>
+        <v>684</v>
       </c>
       <c r="M77" t="n">
         <v>5</v>
       </c>
       <c r="N77" t="s">
-        <v>591</v>
+        <v>660</v>
       </c>
       <c r="O77" t="s">
-        <v>212</v>
+        <v>232</v>
       </c>
       <c r="P77" t="s"/>
       <c r="Q77" t="n">
@@ -7774,56 +8345,60 @@
         <v>0</v>
       </c>
       <c r="W77" t="s">
-        <v>583</v>
+        <v>651</v>
       </c>
       <c r="X77" t="s">
-        <v>584</v>
+        <v>652</v>
       </c>
       <c r="Y77" t="s">
-        <v>613</v>
+        <v>685</v>
       </c>
     </row>
     <row r="78">
       <c r="A78" t="n">
         <v>37377</v>
       </c>
-      <c r="B78" t="s"/>
-      <c r="C78" t="s"/>
+      <c r="B78" t="n">
+        <v>127177</v>
+      </c>
+      <c r="C78" t="s">
+        <v>686</v>
+      </c>
       <c r="D78" t="n">
         <v>77</v>
       </c>
       <c r="E78" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F78" t="s">
-        <v>614</v>
+        <v>687</v>
       </c>
       <c r="G78" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H78" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I78" t="s">
-        <v>615</v>
+        <v>688</v>
       </c>
       <c r="J78" t="s">
-        <v>616</v>
+        <v>689</v>
       </c>
       <c r="K78" t="s">
-        <v>617</v>
+        <v>690</v>
       </c>
       <c r="L78" t="s">
-        <v>618</v>
+        <v>691</v>
       </c>
       <c r="M78" t="n">
         <v>4</v>
       </c>
       <c r="N78" t="s">
-        <v>591</v>
+        <v>660</v>
       </c>
       <c r="O78" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="P78" t="s"/>
       <c r="Q78" t="s"/>
@@ -7843,41 +8418,45 @@
       <c r="W78" t="s"/>
       <c r="X78" t="s"/>
       <c r="Y78" t="s">
-        <v>619</v>
+        <v>692</v>
       </c>
     </row>
     <row r="79">
       <c r="A79" t="n">
         <v>37377</v>
       </c>
-      <c r="B79" t="s"/>
-      <c r="C79" t="s"/>
+      <c r="B79" t="n">
+        <v>127178</v>
+      </c>
+      <c r="C79" t="s">
+        <v>693</v>
+      </c>
       <c r="D79" t="n">
         <v>78</v>
       </c>
       <c r="E79" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F79" t="s">
-        <v>620</v>
+        <v>694</v>
       </c>
       <c r="G79" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H79" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I79" t="s">
-        <v>621</v>
+        <v>695</v>
       </c>
       <c r="J79" t="s">
-        <v>622</v>
+        <v>696</v>
       </c>
       <c r="K79" t="s">
-        <v>623</v>
+        <v>697</v>
       </c>
       <c r="L79" t="s">
-        <v>624</v>
+        <v>698</v>
       </c>
       <c r="M79" t="n">
         <v>5</v>
@@ -7904,56 +8483,60 @@
         <v>0</v>
       </c>
       <c r="W79" t="s">
-        <v>583</v>
+        <v>651</v>
       </c>
       <c r="X79" t="s">
-        <v>584</v>
+        <v>652</v>
       </c>
       <c r="Y79" t="s">
-        <v>625</v>
+        <v>699</v>
       </c>
     </row>
     <row r="80">
       <c r="A80" t="n">
         <v>37377</v>
       </c>
-      <c r="B80" t="s"/>
-      <c r="C80" t="s"/>
+      <c r="B80" t="n">
+        <v>127179</v>
+      </c>
+      <c r="C80" t="s">
+        <v>700</v>
+      </c>
       <c r="D80" t="n">
         <v>79</v>
       </c>
       <c r="E80" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F80" t="s">
-        <v>626</v>
+        <v>701</v>
       </c>
       <c r="G80" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H80" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I80" t="s">
-        <v>627</v>
+        <v>702</v>
       </c>
       <c r="J80" t="s">
-        <v>628</v>
+        <v>703</v>
       </c>
       <c r="K80" t="s">
-        <v>629</v>
+        <v>704</v>
       </c>
       <c r="L80" t="s">
-        <v>630</v>
+        <v>705</v>
       </c>
       <c r="M80" t="n">
         <v>5</v>
       </c>
       <c r="N80" t="s">
-        <v>631</v>
+        <v>706</v>
       </c>
       <c r="O80" t="s">
-        <v>78</v>
+        <v>82</v>
       </c>
       <c r="P80" t="n">
         <v>5</v>
@@ -7969,56 +8552,60 @@
         <v>0</v>
       </c>
       <c r="W80" t="s">
-        <v>583</v>
+        <v>651</v>
       </c>
       <c r="X80" t="s">
-        <v>584</v>
+        <v>652</v>
       </c>
       <c r="Y80" t="s">
-        <v>632</v>
+        <v>707</v>
       </c>
     </row>
     <row r="81">
       <c r="A81" t="n">
         <v>37377</v>
       </c>
-      <c r="B81" t="s"/>
-      <c r="C81" t="s"/>
+      <c r="B81" t="n">
+        <v>2609</v>
+      </c>
+      <c r="C81" t="s">
+        <v>708</v>
+      </c>
       <c r="D81" t="n">
         <v>80</v>
       </c>
       <c r="E81" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F81" t="s">
-        <v>633</v>
+        <v>709</v>
       </c>
       <c r="G81" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H81" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I81" t="s">
-        <v>634</v>
+        <v>710</v>
       </c>
       <c r="J81" t="s">
-        <v>635</v>
+        <v>711</v>
       </c>
       <c r="K81" t="s">
-        <v>636</v>
+        <v>712</v>
       </c>
       <c r="L81" t="s">
-        <v>637</v>
+        <v>713</v>
       </c>
       <c r="M81" t="n">
         <v>4</v>
       </c>
       <c r="N81" t="s">
-        <v>631</v>
+        <v>706</v>
       </c>
       <c r="O81" t="s">
-        <v>212</v>
+        <v>232</v>
       </c>
       <c r="P81" t="n">
         <v>5</v>
@@ -8038,50 +8625,54 @@
       <c r="W81" t="s"/>
       <c r="X81" t="s"/>
       <c r="Y81" t="s">
-        <v>637</v>
+        <v>713</v>
       </c>
     </row>
     <row r="82">
       <c r="A82" t="n">
         <v>37377</v>
       </c>
-      <c r="B82" t="s"/>
-      <c r="C82" t="s"/>
+      <c r="B82" t="n">
+        <v>127180</v>
+      </c>
+      <c r="C82" t="s">
+        <v>714</v>
+      </c>
       <c r="D82" t="n">
         <v>81</v>
       </c>
       <c r="E82" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F82" t="s">
-        <v>638</v>
+        <v>715</v>
       </c>
       <c r="G82" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H82" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I82" t="s">
-        <v>639</v>
+        <v>716</v>
       </c>
       <c r="J82" t="s">
-        <v>640</v>
+        <v>717</v>
       </c>
       <c r="K82" t="s">
-        <v>641</v>
+        <v>718</v>
       </c>
       <c r="L82" t="s">
-        <v>642</v>
+        <v>719</v>
       </c>
       <c r="M82" t="n">
         <v>5</v>
       </c>
       <c r="N82" t="s">
-        <v>631</v>
+        <v>706</v>
       </c>
       <c r="O82" t="s">
-        <v>212</v>
+        <v>232</v>
       </c>
       <c r="P82" t="s"/>
       <c r="Q82" t="s"/>
@@ -8093,56 +8684,60 @@
         <v>0</v>
       </c>
       <c r="W82" t="s">
-        <v>583</v>
+        <v>651</v>
       </c>
       <c r="X82" t="s">
-        <v>584</v>
+        <v>652</v>
       </c>
       <c r="Y82" t="s">
-        <v>643</v>
+        <v>720</v>
       </c>
     </row>
     <row r="83">
       <c r="A83" t="n">
         <v>37377</v>
       </c>
-      <c r="B83" t="s"/>
-      <c r="C83" t="s"/>
+      <c r="B83" t="n">
+        <v>2433</v>
+      </c>
+      <c r="C83" t="s">
+        <v>721</v>
+      </c>
       <c r="D83" t="n">
         <v>82</v>
       </c>
       <c r="E83" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F83" t="s">
-        <v>644</v>
+        <v>722</v>
       </c>
       <c r="G83" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H83" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I83" t="s">
-        <v>645</v>
+        <v>723</v>
       </c>
       <c r="J83" t="s">
-        <v>646</v>
+        <v>724</v>
       </c>
       <c r="K83" t="s">
-        <v>647</v>
+        <v>725</v>
       </c>
       <c r="L83" t="s">
-        <v>648</v>
+        <v>726</v>
       </c>
       <c r="M83" t="n">
         <v>3</v>
       </c>
       <c r="N83" t="s">
-        <v>649</v>
+        <v>727</v>
       </c>
       <c r="O83" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="P83" t="s"/>
       <c r="Q83" t="s"/>
@@ -8160,56 +8755,60 @@
         <v>0</v>
       </c>
       <c r="W83" t="s">
-        <v>650</v>
+        <v>728</v>
       </c>
       <c r="X83" t="s">
-        <v>651</v>
+        <v>729</v>
       </c>
       <c r="Y83" t="s">
-        <v>652</v>
+        <v>730</v>
       </c>
     </row>
     <row r="84">
       <c r="A84" t="n">
         <v>37377</v>
       </c>
-      <c r="B84" t="s"/>
-      <c r="C84" t="s"/>
+      <c r="B84" t="n">
+        <v>127181</v>
+      </c>
+      <c r="C84" t="s">
+        <v>731</v>
+      </c>
       <c r="D84" t="n">
         <v>83</v>
       </c>
       <c r="E84" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F84" t="s">
-        <v>653</v>
+        <v>732</v>
       </c>
       <c r="G84" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H84" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I84" t="s">
-        <v>654</v>
+        <v>733</v>
       </c>
       <c r="J84" t="s">
-        <v>655</v>
+        <v>734</v>
       </c>
       <c r="K84" t="s">
-        <v>656</v>
+        <v>735</v>
       </c>
       <c r="L84" t="s">
-        <v>657</v>
+        <v>736</v>
       </c>
       <c r="M84" t="n">
         <v>5</v>
       </c>
       <c r="N84" t="s">
-        <v>631</v>
+        <v>706</v>
       </c>
       <c r="O84" t="s">
-        <v>68</v>
+        <v>71</v>
       </c>
       <c r="P84" t="n">
         <v>5</v>
@@ -8227,56 +8826,60 @@
         <v>0</v>
       </c>
       <c r="W84" t="s">
-        <v>473</v>
+        <v>524</v>
       </c>
       <c r="X84" t="s">
-        <v>474</v>
+        <v>525</v>
       </c>
       <c r="Y84" t="s">
-        <v>658</v>
+        <v>737</v>
       </c>
     </row>
     <row r="85">
       <c r="A85" t="n">
         <v>37377</v>
       </c>
-      <c r="B85" t="s"/>
-      <c r="C85" t="s"/>
+      <c r="B85" t="n">
+        <v>127182</v>
+      </c>
+      <c r="C85" t="s">
+        <v>738</v>
+      </c>
       <c r="D85" t="n">
         <v>84</v>
       </c>
       <c r="E85" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F85" t="s">
-        <v>659</v>
+        <v>739</v>
       </c>
       <c r="G85" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H85" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I85" t="s">
-        <v>660</v>
+        <v>740</v>
       </c>
       <c r="J85" t="s">
-        <v>661</v>
+        <v>741</v>
       </c>
       <c r="K85" t="s">
-        <v>662</v>
+        <v>742</v>
       </c>
       <c r="L85" t="s">
-        <v>663</v>
+        <v>743</v>
       </c>
       <c r="M85" t="n">
         <v>5</v>
       </c>
       <c r="N85" t="s">
-        <v>649</v>
+        <v>727</v>
       </c>
       <c r="O85" t="s">
-        <v>78</v>
+        <v>82</v>
       </c>
       <c r="P85" t="n">
         <v>5</v>
@@ -8296,50 +8899,54 @@
       <c r="W85" t="s"/>
       <c r="X85" t="s"/>
       <c r="Y85" t="s">
-        <v>664</v>
+        <v>744</v>
       </c>
     </row>
     <row r="86">
       <c r="A86" t="n">
         <v>37377</v>
       </c>
-      <c r="B86" t="s"/>
-      <c r="C86" t="s"/>
+      <c r="B86" t="n">
+        <v>8062</v>
+      </c>
+      <c r="C86" t="s">
+        <v>745</v>
+      </c>
       <c r="D86" t="n">
         <v>85</v>
       </c>
       <c r="E86" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F86" t="s">
-        <v>665</v>
+        <v>746</v>
       </c>
       <c r="G86" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H86" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I86" t="s">
-        <v>666</v>
+        <v>747</v>
       </c>
       <c r="J86" t="s">
-        <v>667</v>
+        <v>748</v>
       </c>
       <c r="K86" t="s">
-        <v>668</v>
+        <v>749</v>
       </c>
       <c r="L86" t="s">
-        <v>669</v>
+        <v>750</v>
       </c>
       <c r="M86" t="n">
         <v>5</v>
       </c>
       <c r="N86" t="s">
-        <v>670</v>
+        <v>751</v>
       </c>
       <c r="O86" t="s">
-        <v>78</v>
+        <v>82</v>
       </c>
       <c r="P86" t="n">
         <v>5</v>
@@ -8361,56 +8968,60 @@
         <v>0</v>
       </c>
       <c r="W86" t="s">
-        <v>671</v>
+        <v>752</v>
       </c>
       <c r="X86" t="s">
-        <v>672</v>
+        <v>753</v>
       </c>
       <c r="Y86" t="s">
-        <v>673</v>
+        <v>754</v>
       </c>
     </row>
     <row r="87">
       <c r="A87" t="n">
         <v>37377</v>
       </c>
-      <c r="B87" t="s"/>
-      <c r="C87" t="s"/>
+      <c r="B87" t="n">
+        <v>127183</v>
+      </c>
+      <c r="C87" t="s">
+        <v>755</v>
+      </c>
       <c r="D87" t="n">
         <v>86</v>
       </c>
       <c r="E87" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F87" t="s">
-        <v>674</v>
+        <v>756</v>
       </c>
       <c r="G87" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H87" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I87" t="s">
-        <v>675</v>
+        <v>757</v>
       </c>
       <c r="J87" t="s">
-        <v>676</v>
+        <v>758</v>
       </c>
       <c r="K87" t="s">
-        <v>677</v>
+        <v>759</v>
       </c>
       <c r="L87" t="s">
-        <v>678</v>
+        <v>760</v>
       </c>
       <c r="M87" t="n">
         <v>5</v>
       </c>
       <c r="N87" t="s">
-        <v>679</v>
+        <v>761</v>
       </c>
       <c r="O87" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="P87" t="n">
         <v>5</v>
@@ -8432,13 +9043,13 @@
         <v>0</v>
       </c>
       <c r="W87" t="s">
-        <v>473</v>
+        <v>524</v>
       </c>
       <c r="X87" t="s">
-        <v>474</v>
+        <v>525</v>
       </c>
       <c r="Y87" t="s">
-        <v>680</v>
+        <v>762</v>
       </c>
     </row>
     <row r="88">
@@ -8451,28 +9062,28 @@
         <v>87</v>
       </c>
       <c r="E88" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F88" t="s">
-        <v>681</v>
+        <v>763</v>
       </c>
       <c r="G88" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H88" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I88" t="s">
-        <v>682</v>
+        <v>764</v>
       </c>
       <c r="J88" t="s">
-        <v>683</v>
+        <v>765</v>
       </c>
       <c r="K88" t="s">
-        <v>684</v>
+        <v>766</v>
       </c>
       <c r="L88" t="s">
-        <v>685</v>
+        <v>767</v>
       </c>
       <c r="M88" t="n">
         <v>5</v>
@@ -8499,56 +9110,60 @@
         <v>0</v>
       </c>
       <c r="W88" t="s">
-        <v>686</v>
+        <v>768</v>
       </c>
       <c r="X88" t="s">
-        <v>687</v>
+        <v>769</v>
       </c>
       <c r="Y88" t="s">
-        <v>688</v>
+        <v>770</v>
       </c>
     </row>
     <row r="89">
       <c r="A89" t="n">
         <v>37377</v>
       </c>
-      <c r="B89" t="s"/>
-      <c r="C89" t="s"/>
+      <c r="B89" t="n">
+        <v>127184</v>
+      </c>
+      <c r="C89" t="s">
+        <v>771</v>
+      </c>
       <c r="D89" t="n">
         <v>88</v>
       </c>
       <c r="E89" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F89" t="s">
-        <v>689</v>
+        <v>772</v>
       </c>
       <c r="G89" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H89" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I89" t="s">
-        <v>690</v>
+        <v>773</v>
       </c>
       <c r="J89" t="s">
-        <v>691</v>
+        <v>774</v>
       </c>
       <c r="K89" t="s">
-        <v>692</v>
+        <v>775</v>
       </c>
       <c r="L89" t="s">
-        <v>693</v>
+        <v>776</v>
       </c>
       <c r="M89" t="n">
         <v>3</v>
       </c>
       <c r="N89" t="s">
-        <v>694</v>
+        <v>777</v>
       </c>
       <c r="O89" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="P89" t="n">
         <v>3</v>
@@ -8570,56 +9185,60 @@
         <v>0</v>
       </c>
       <c r="W89" t="s">
-        <v>695</v>
+        <v>778</v>
       </c>
       <c r="X89" t="s">
-        <v>696</v>
+        <v>779</v>
       </c>
       <c r="Y89" t="s">
-        <v>697</v>
+        <v>780</v>
       </c>
     </row>
     <row r="90">
       <c r="A90" t="n">
         <v>37377</v>
       </c>
-      <c r="B90" t="s"/>
-      <c r="C90" t="s"/>
+      <c r="B90" t="n">
+        <v>127185</v>
+      </c>
+      <c r="C90" t="s">
+        <v>781</v>
+      </c>
       <c r="D90" t="n">
         <v>89</v>
       </c>
       <c r="E90" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F90" t="s">
-        <v>698</v>
+        <v>782</v>
       </c>
       <c r="G90" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H90" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I90" t="s">
-        <v>699</v>
+        <v>783</v>
       </c>
       <c r="J90" t="s">
-        <v>700</v>
+        <v>784</v>
       </c>
       <c r="K90" t="s">
-        <v>701</v>
+        <v>785</v>
       </c>
       <c r="L90" t="s">
-        <v>702</v>
+        <v>786</v>
       </c>
       <c r="M90" t="n">
         <v>4</v>
       </c>
       <c r="N90" t="s">
-        <v>703</v>
+        <v>787</v>
       </c>
       <c r="O90" t="s">
-        <v>212</v>
+        <v>232</v>
       </c>
       <c r="P90" t="n">
         <v>4</v>
@@ -8641,56 +9260,60 @@
         <v>0</v>
       </c>
       <c r="W90" t="s">
-        <v>704</v>
+        <v>788</v>
       </c>
       <c r="X90" t="s">
-        <v>705</v>
+        <v>789</v>
       </c>
       <c r="Y90" t="s">
-        <v>706</v>
+        <v>790</v>
       </c>
     </row>
     <row r="91">
       <c r="A91" t="n">
         <v>37377</v>
       </c>
-      <c r="B91" t="s"/>
-      <c r="C91" t="s"/>
+      <c r="B91" t="n">
+        <v>2052</v>
+      </c>
+      <c r="C91" t="s">
+        <v>791</v>
+      </c>
       <c r="D91" t="n">
         <v>90</v>
       </c>
       <c r="E91" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F91" t="s">
-        <v>707</v>
+        <v>792</v>
       </c>
       <c r="G91" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H91" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I91" t="s">
-        <v>708</v>
+        <v>793</v>
       </c>
       <c r="J91" t="s">
-        <v>709</v>
+        <v>794</v>
       </c>
       <c r="K91" t="s">
-        <v>710</v>
+        <v>795</v>
       </c>
       <c r="L91" t="s">
-        <v>711</v>
+        <v>796</v>
       </c>
       <c r="M91" t="n">
         <v>5</v>
       </c>
       <c r="N91" t="s">
-        <v>703</v>
+        <v>787</v>
       </c>
       <c r="O91" t="s">
-        <v>212</v>
+        <v>232</v>
       </c>
       <c r="P91" t="n">
         <v>4</v>
@@ -8712,56 +9335,60 @@
         <v>0</v>
       </c>
       <c r="W91" t="s">
-        <v>712</v>
+        <v>797</v>
       </c>
       <c r="X91" t="s">
-        <v>713</v>
+        <v>798</v>
       </c>
       <c r="Y91" t="s">
-        <v>714</v>
+        <v>799</v>
       </c>
     </row>
     <row r="92">
       <c r="A92" t="n">
         <v>37377</v>
       </c>
-      <c r="B92" t="s"/>
-      <c r="C92" t="s"/>
+      <c r="B92" t="n">
+        <v>127186</v>
+      </c>
+      <c r="C92" t="s">
+        <v>800</v>
+      </c>
       <c r="D92" t="n">
         <v>91</v>
       </c>
       <c r="E92" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F92" t="s">
-        <v>715</v>
+        <v>801</v>
       </c>
       <c r="G92" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H92" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I92" t="s">
-        <v>716</v>
+        <v>802</v>
       </c>
       <c r="J92" t="s">
-        <v>717</v>
+        <v>803</v>
       </c>
       <c r="K92" t="s">
-        <v>718</v>
+        <v>804</v>
       </c>
       <c r="L92" t="s">
-        <v>719</v>
+        <v>805</v>
       </c>
       <c r="M92" t="n">
         <v>5</v>
       </c>
       <c r="N92" t="s">
-        <v>720</v>
+        <v>806</v>
       </c>
       <c r="O92" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="P92" t="n">
         <v>5</v>
@@ -8781,56 +9408,60 @@
         <v>0</v>
       </c>
       <c r="W92" t="s">
-        <v>721</v>
+        <v>807</v>
       </c>
       <c r="X92" t="s">
-        <v>722</v>
+        <v>808</v>
       </c>
       <c r="Y92" t="s">
-        <v>723</v>
+        <v>809</v>
       </c>
     </row>
     <row r="93">
       <c r="A93" t="n">
         <v>37377</v>
       </c>
-      <c r="B93" t="s"/>
-      <c r="C93" t="s"/>
+      <c r="B93" t="n">
+        <v>44690</v>
+      </c>
+      <c r="C93" t="s">
+        <v>620</v>
+      </c>
       <c r="D93" t="n">
         <v>92</v>
       </c>
       <c r="E93" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F93" t="s">
-        <v>724</v>
+        <v>810</v>
       </c>
       <c r="G93" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H93" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I93" t="s">
-        <v>725</v>
+        <v>811</v>
       </c>
       <c r="J93" t="s">
-        <v>726</v>
+        <v>812</v>
       </c>
       <c r="K93" t="s">
-        <v>727</v>
+        <v>813</v>
       </c>
       <c r="L93" t="s">
-        <v>728</v>
+        <v>814</v>
       </c>
       <c r="M93" t="n">
         <v>5</v>
       </c>
       <c r="N93" t="s">
-        <v>720</v>
+        <v>806</v>
       </c>
       <c r="O93" t="s">
-        <v>398</v>
+        <v>438</v>
       </c>
       <c r="P93" t="n">
         <v>5</v>
@@ -8852,56 +9483,60 @@
         <v>0</v>
       </c>
       <c r="W93" t="s">
-        <v>721</v>
+        <v>807</v>
       </c>
       <c r="X93" t="s">
-        <v>722</v>
+        <v>808</v>
       </c>
       <c r="Y93" t="s">
-        <v>729</v>
+        <v>815</v>
       </c>
     </row>
     <row r="94">
       <c r="A94" t="n">
         <v>37377</v>
       </c>
-      <c r="B94" t="s"/>
-      <c r="C94" t="s"/>
+      <c r="B94" t="n">
+        <v>127187</v>
+      </c>
+      <c r="C94" t="s">
+        <v>816</v>
+      </c>
       <c r="D94" t="n">
         <v>93</v>
       </c>
       <c r="E94" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F94" t="s">
-        <v>730</v>
+        <v>817</v>
       </c>
       <c r="G94" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H94" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I94" t="s">
-        <v>731</v>
+        <v>818</v>
       </c>
       <c r="J94" t="s">
-        <v>732</v>
+        <v>819</v>
       </c>
       <c r="K94" t="s">
-        <v>733</v>
+        <v>820</v>
       </c>
       <c r="L94" t="s">
-        <v>734</v>
+        <v>821</v>
       </c>
       <c r="M94" t="n">
         <v>5</v>
       </c>
       <c r="N94" t="s">
-        <v>720</v>
+        <v>806</v>
       </c>
       <c r="O94" t="s">
-        <v>212</v>
+        <v>232</v>
       </c>
       <c r="P94" t="s"/>
       <c r="Q94" t="s"/>
@@ -8913,56 +9548,60 @@
         <v>0</v>
       </c>
       <c r="W94" t="s">
-        <v>735</v>
+        <v>822</v>
       </c>
       <c r="X94" t="s">
-        <v>736</v>
+        <v>823</v>
       </c>
       <c r="Y94" t="s">
-        <v>737</v>
+        <v>824</v>
       </c>
     </row>
     <row r="95">
       <c r="A95" t="n">
         <v>37377</v>
       </c>
-      <c r="B95" t="s"/>
-      <c r="C95" t="s"/>
+      <c r="B95" t="n">
+        <v>127188</v>
+      </c>
+      <c r="C95" t="s">
+        <v>825</v>
+      </c>
       <c r="D95" t="n">
         <v>94</v>
       </c>
       <c r="E95" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F95" t="s">
-        <v>738</v>
+        <v>826</v>
       </c>
       <c r="G95" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H95" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I95" t="s">
-        <v>739</v>
+        <v>827</v>
       </c>
       <c r="J95" t="s">
-        <v>740</v>
+        <v>828</v>
       </c>
       <c r="K95" t="s">
-        <v>741</v>
+        <v>829</v>
       </c>
       <c r="L95" t="s">
-        <v>742</v>
+        <v>830</v>
       </c>
       <c r="M95" t="n">
         <v>2</v>
       </c>
       <c r="N95" t="s">
-        <v>743</v>
+        <v>831</v>
       </c>
       <c r="O95" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="P95" t="s"/>
       <c r="Q95" t="s"/>
@@ -8976,56 +9615,60 @@
         <v>0</v>
       </c>
       <c r="W95" t="s">
-        <v>744</v>
+        <v>832</v>
       </c>
       <c r="X95" t="s">
-        <v>745</v>
+        <v>833</v>
       </c>
       <c r="Y95" t="s">
-        <v>746</v>
+        <v>834</v>
       </c>
     </row>
     <row r="96">
       <c r="A96" t="n">
         <v>37377</v>
       </c>
-      <c r="B96" t="s"/>
-      <c r="C96" t="s"/>
+      <c r="B96" t="n">
+        <v>57640</v>
+      </c>
+      <c r="C96" t="s">
+        <v>835</v>
+      </c>
       <c r="D96" t="n">
         <v>95</v>
       </c>
       <c r="E96" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F96" t="s">
-        <v>747</v>
+        <v>836</v>
       </c>
       <c r="G96" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H96" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I96" t="s">
-        <v>748</v>
+        <v>837</v>
       </c>
       <c r="J96" t="s">
-        <v>749</v>
+        <v>838</v>
       </c>
       <c r="K96" t="s">
-        <v>750</v>
+        <v>839</v>
       </c>
       <c r="L96" t="s">
-        <v>751</v>
+        <v>840</v>
       </c>
       <c r="M96" t="n">
         <v>5</v>
       </c>
       <c r="N96" t="s">
-        <v>743</v>
+        <v>831</v>
       </c>
       <c r="O96" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="P96" t="n">
         <v>4</v>
@@ -9047,47 +9690,51 @@
         <v>0</v>
       </c>
       <c r="W96" t="s">
-        <v>752</v>
+        <v>841</v>
       </c>
       <c r="X96" t="s">
-        <v>753</v>
+        <v>842</v>
       </c>
       <c r="Y96" t="s">
-        <v>754</v>
+        <v>843</v>
       </c>
     </row>
     <row r="97">
       <c r="A97" t="n">
         <v>37377</v>
       </c>
-      <c r="B97" t="s"/>
-      <c r="C97" t="s"/>
+      <c r="B97" t="n">
+        <v>127189</v>
+      </c>
+      <c r="C97" t="s">
+        <v>844</v>
+      </c>
       <c r="D97" t="n">
         <v>96</v>
       </c>
       <c r="E97" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F97" t="s">
-        <v>755</v>
+        <v>845</v>
       </c>
       <c r="G97" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H97" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I97" t="s">
-        <v>756</v>
+        <v>846</v>
       </c>
       <c r="J97" t="s">
-        <v>757</v>
+        <v>847</v>
       </c>
       <c r="K97" t="s">
-        <v>758</v>
+        <v>848</v>
       </c>
       <c r="L97" t="s">
-        <v>759</v>
+        <v>849</v>
       </c>
       <c r="M97" t="n">
         <v>4</v>
@@ -9114,56 +9761,60 @@
         <v>0</v>
       </c>
       <c r="W97" t="s">
-        <v>760</v>
+        <v>850</v>
       </c>
       <c r="X97" t="s">
-        <v>761</v>
+        <v>851</v>
       </c>
       <c r="Y97" t="s">
-        <v>762</v>
+        <v>852</v>
       </c>
     </row>
     <row r="98">
       <c r="A98" t="n">
         <v>37377</v>
       </c>
-      <c r="B98" t="s"/>
-      <c r="C98" t="s"/>
+      <c r="B98" t="n">
+        <v>127190</v>
+      </c>
+      <c r="C98" t="s">
+        <v>853</v>
+      </c>
       <c r="D98" t="n">
         <v>97</v>
       </c>
       <c r="E98" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F98" t="s">
-        <v>763</v>
+        <v>854</v>
       </c>
       <c r="G98" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H98" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I98" t="s">
-        <v>764</v>
+        <v>855</v>
       </c>
       <c r="J98" t="s">
-        <v>765</v>
+        <v>856</v>
       </c>
       <c r="K98" t="s">
-        <v>766</v>
+        <v>857</v>
       </c>
       <c r="L98" t="s">
-        <v>767</v>
+        <v>858</v>
       </c>
       <c r="M98" t="n">
         <v>5</v>
       </c>
       <c r="N98" t="s">
-        <v>768</v>
+        <v>859</v>
       </c>
       <c r="O98" t="s">
-        <v>78</v>
+        <v>82</v>
       </c>
       <c r="P98" t="n">
         <v>5</v>
@@ -9185,47 +9836,51 @@
         <v>0</v>
       </c>
       <c r="W98" t="s">
-        <v>760</v>
+        <v>850</v>
       </c>
       <c r="X98" t="s">
-        <v>761</v>
+        <v>851</v>
       </c>
       <c r="Y98" t="s">
-        <v>769</v>
+        <v>860</v>
       </c>
     </row>
     <row r="99">
       <c r="A99" t="n">
         <v>37377</v>
       </c>
-      <c r="B99" t="s"/>
-      <c r="C99" t="s"/>
+      <c r="B99" t="n">
+        <v>127191</v>
+      </c>
+      <c r="C99" t="s">
+        <v>861</v>
+      </c>
       <c r="D99" t="n">
         <v>98</v>
       </c>
       <c r="E99" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F99" t="s">
-        <v>770</v>
+        <v>862</v>
       </c>
       <c r="G99" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H99" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I99" t="s">
-        <v>771</v>
+        <v>863</v>
       </c>
       <c r="J99" t="s">
-        <v>772</v>
+        <v>864</v>
       </c>
       <c r="K99" t="s">
-        <v>773</v>
+        <v>865</v>
       </c>
       <c r="L99" t="s">
-        <v>774</v>
+        <v>866</v>
       </c>
       <c r="M99" t="n">
         <v>4</v>
@@ -9252,13 +9907,13 @@
         <v>0</v>
       </c>
       <c r="W99" t="s">
-        <v>775</v>
+        <v>867</v>
       </c>
       <c r="X99" t="s">
-        <v>776</v>
+        <v>868</v>
       </c>
       <c r="Y99" t="s">
-        <v>777</v>
+        <v>869</v>
       </c>
     </row>
     <row r="100">
@@ -9271,37 +9926,37 @@
         <v>99</v>
       </c>
       <c r="E100" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F100" t="s">
-        <v>778</v>
+        <v>870</v>
       </c>
       <c r="G100" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H100" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I100" t="s">
-        <v>779</v>
+        <v>871</v>
       </c>
       <c r="J100" t="s">
-        <v>780</v>
+        <v>872</v>
       </c>
       <c r="K100" t="s">
-        <v>781</v>
+        <v>873</v>
       </c>
       <c r="L100" t="s">
-        <v>782</v>
+        <v>874</v>
       </c>
       <c r="M100" t="n">
         <v>4</v>
       </c>
       <c r="N100" t="s">
-        <v>783</v>
+        <v>875</v>
       </c>
       <c r="O100" t="s">
-        <v>78</v>
+        <v>82</v>
       </c>
       <c r="P100" t="n">
         <v>4</v>
@@ -9323,56 +9978,60 @@
         <v>0</v>
       </c>
       <c r="W100" t="s">
-        <v>784</v>
+        <v>876</v>
       </c>
       <c r="X100" t="s">
-        <v>785</v>
+        <v>877</v>
       </c>
       <c r="Y100" t="s">
-        <v>786</v>
+        <v>878</v>
       </c>
     </row>
     <row r="101">
       <c r="A101" t="n">
         <v>37377</v>
       </c>
-      <c r="B101" t="s"/>
-      <c r="C101" t="s"/>
+      <c r="B101" t="n">
+        <v>15450</v>
+      </c>
+      <c r="C101" t="s">
+        <v>879</v>
+      </c>
       <c r="D101" t="n">
         <v>100</v>
       </c>
       <c r="E101" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F101" t="s">
-        <v>787</v>
+        <v>880</v>
       </c>
       <c r="G101" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H101" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I101" t="s">
-        <v>788</v>
+        <v>881</v>
       </c>
       <c r="J101" t="s">
-        <v>789</v>
+        <v>882</v>
       </c>
       <c r="K101" t="s">
-        <v>790</v>
+        <v>883</v>
       </c>
       <c r="L101" t="s">
-        <v>791</v>
+        <v>884</v>
       </c>
       <c r="M101" t="n">
         <v>5</v>
       </c>
       <c r="N101" t="s">
-        <v>792</v>
+        <v>885</v>
       </c>
       <c r="O101" t="s">
-        <v>212</v>
+        <v>232</v>
       </c>
       <c r="P101" t="n">
         <v>5</v>
@@ -9394,13 +10053,13 @@
         <v>0</v>
       </c>
       <c r="W101" t="s">
-        <v>793</v>
+        <v>886</v>
       </c>
       <c r="X101" t="s">
-        <v>785</v>
+        <v>877</v>
       </c>
       <c r="Y101" t="s">
-        <v>794</v>
+        <v>887</v>
       </c>
     </row>
   </sheetData>
